--- a/Statistics_Assignment/Applied Statistics in Excel Assignment 13-02-2024.xlsx
+++ b/Statistics_Assignment/Applied Statistics in Excel Assignment 13-02-2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tops Technologies\02 Statistics\Applied Stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC615A9-91A2-4147-BA6B-D715AB0EFEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674CFC34-8D64-4163-AAE6-BCD9B05126D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{34CF7D8B-4B5D-4C46-8435-05FDBC5611A7}"/>
   </bookViews>
@@ -21,10 +21,41 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">[1]Statistics!$A$491:$J$491</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">[1]Statistics!$A$492:$J$492</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">[1]Statistics!$C$306:$I$306</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$501:$J$501</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$502:$J$502</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$503:$J$503</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$504:$J$504</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$505:$J$505</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$506:$J$506</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$507:$J$507</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$508:$J$508</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$509:$J$509</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$510:$J$510</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">[1]Statistics!$A$493:$J$493</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">[1]Statistics!$C$306:$I$306</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$316:$I$316</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">[1]Statistics!$A$491:$J$491</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">[1]Statistics!$A$492:$J$492</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">[1]Statistics!$A$493:$J$493</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">[1]Statistics!$A$494:$J$494</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">[1]Statistics!$A$495:$J$495</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">[1]Statistics!$A$496:$J$496</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">[1]Statistics!$A$497:$J$497</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">[1]Statistics!$A$498:$J$498</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">[1]Statistics!$A$494:$J$494</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">[1]Statistics!$A$499:$J$499</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">[1]Statistics!$A$500:$J$500</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$501:$J$501</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$A$502:$J$502</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$A$503:$J$503</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$A$504:$J$504</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$505:$J$505</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$506:$J$506</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$A$507:$J$507</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$A$508:$J$508</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">[1]Statistics!$A$495:$J$495</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$509:$J$509</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$510:$J$510</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">[1]Statistics!$A$496:$J$496</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">[1]Statistics!$A$497:$J$497</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">[1]Statistics!$A$498:$J$498</definedName>
@@ -2067,7 +2098,40 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2097,20 +2161,17 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2121,64 +2182,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2208,50 +2215,74 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6503,7 +6534,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.10</cx:f>
+        <cx:f dir="row">_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6544,22 +6575,23 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{2E385263-BC76-4059-8563-B4520D67A065}" formatIdx="0">
+        <cx:series layoutId="clusteredColumn" uniqueId="{F8347A63-8D66-4A6D-AFA8-F48E5E20C4CD}">
           <cx:spPr>
             <a:effectLst>
-              <a:glow rad="50800">
-                <a:schemeClr val="accent2"/>
-              </a:glow>
-              <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="accent2"/>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
               </a:outerShdw>
-              <a:softEdge rad="0"/>
             </a:effectLst>
           </cx:spPr>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
-              <cx:binSize val="5"/>
+              <cx:binCount val="7"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -6572,28 +6604,15 @@
               <cx:v>FREQUENCY</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="window" lastClr="FFFFFF">
-                      <a:lumMod val="95000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:rPr>
-                <a:t>FREQUENCY</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
+        <cx:spPr>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="tx1"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </cx:spPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -6603,26 +6622,6 @@
               <cx:v>DEFECT TYPE</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="window" lastClr="FFFFFF">
-                      <a:lumMod val="95000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:rPr>
-                <a:t>DEFECT TYPE</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
@@ -6637,52 +6636,52 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.0</cx:f>
+        <cx:f dir="row">_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.36</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.38</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.40</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6723,10 +6722,19 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{68687EAC-EDD4-4551-9023-BC13206F3A1A}" formatIdx="0">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" uniqueId="{BF40A979-4D3F-40BE-8EEE-52823B3C4DF5}" formatIdx="0">
+          <cx:spPr>
+            <a:effectLst>
+              <a:glow rad="38100">
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:glow>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </cx:spPr>
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
@@ -6735,90 +6743,81 @@
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{F9BE611A-0FAE-45F5-B94F-6923019ECE3F}" formatIdx="1">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{287D62F3-2200-415A-939B-1B5E6861977A}" formatIdx="1">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="1"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{B84D8113-0DD6-4580-A0CF-EA6014AB81C7}" formatIdx="2">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{AC0B9F1D-71D5-4D5D-8E4D-18B1C015F9EE}" formatIdx="2">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{212C1C67-9893-4C9F-B3CA-1F6C2A54BDFC}" formatIdx="3">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{B88E2054-0EC9-4349-B126-C0E6FA7A3B76}" formatIdx="3">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="3"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{76AF5ECB-C76A-4CC4-BA17-A54F12ADE621}" formatIdx="4">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{362863AD-8864-42A5-9663-3205BFB8102C}" formatIdx="4">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="4"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{57782AFE-721E-4307-99E8-7E8675870BC0}" formatIdx="5">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{176D7DE9-6472-4399-8FD3-187B483BA5BC}" formatIdx="5">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="5"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{72BE8112-7392-406A-B76D-86F932928D0E}" formatIdx="6">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C55BB533-1BD4-4FF5-BC10-408348F513EE}" formatIdx="6">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="6"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{A1CEB62B-919C-43C3-B0FF-15FBABFF926C}" formatIdx="7">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{9F351766-6FC8-40A4-81B7-B5BD92A91477}" formatIdx="7">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="7"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{A0F57E0E-9AAB-407D-A453-DB386FC4962D}" formatIdx="8">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C3904B14-3663-4E94-B675-87371CB582F1}" formatIdx="8">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="8"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{07DB163B-A707-442E-88D5-C8986B35C79F}" formatIdx="9">
-          <cx:dataLabels pos="outEnd">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{3DEDBC46-7E73-4900-B368-E55433E93E8F}" formatIdx="9">
+          <cx:dataLabels>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="9"/>
           <cx:layoutPr>
@@ -6827,7 +6826,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
+        <cx:catScaling gapWidth="0.140000001"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -12565,188 +12564,188 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="111"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="121"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="145"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="96"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="148"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="99"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="148"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="99"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="151"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="102"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -12794,22 +12793,22 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="105"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -12912,70 +12911,70 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="97"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="108"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="100"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="111"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="100"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="111"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="103"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="114"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -13054,22 +13053,22 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="127" t="s">
+      <c r="A38" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="129"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="105"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -13174,70 +13173,70 @@
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="97"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="108"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="98"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="99"/>
-      <c r="M50" s="99"/>
-      <c r="N50" s="100"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="111"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="98"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="100"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="110"/>
+      <c r="M51" s="110"/>
+      <c r="N51" s="111"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="103"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="114"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -13415,22 +13414,22 @@
       <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="127" t="s">
+      <c r="A60" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="128"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="128"/>
-      <c r="L60" s="128"/>
-      <c r="M60" s="128"/>
-      <c r="N60" s="129"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="105"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -13537,89 +13536,89 @@
     </row>
     <row r="70" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="109" t="s">
+      <c r="A71" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="110"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="110"/>
-      <c r="F71" s="110"/>
-      <c r="G71" s="110"/>
-      <c r="H71" s="110"/>
-      <c r="I71" s="110"/>
-      <c r="J71" s="110"/>
-      <c r="K71" s="110"/>
-      <c r="L71" s="110"/>
-      <c r="M71" s="110"/>
-      <c r="N71" s="111"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="120"/>
+      <c r="K71" s="120"/>
+      <c r="L71" s="120"/>
+      <c r="M71" s="120"/>
+      <c r="N71" s="121"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="97"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="107"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="108"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="98"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="99"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="100"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="110"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="110"/>
+      <c r="L74" s="110"/>
+      <c r="M74" s="110"/>
+      <c r="N74" s="111"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="98"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="100"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="110"/>
+      <c r="K75" s="110"/>
+      <c r="L75" s="110"/>
+      <c r="M75" s="110"/>
+      <c r="N75" s="111"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
-      <c r="J76" s="102"/>
-      <c r="K76" s="102"/>
-      <c r="L76" s="102"/>
-      <c r="M76" s="102"/>
-      <c r="N76" s="103"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="113"/>
+      <c r="K76" s="113"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="113"/>
+      <c r="N76" s="114"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -13704,22 +13703,22 @@
       <c r="N80" s="5"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="127" t="s">
+      <c r="A81" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="128"/>
-      <c r="C81" s="128"/>
-      <c r="D81" s="128"/>
-      <c r="E81" s="128"/>
-      <c r="F81" s="128"/>
-      <c r="G81" s="128"/>
-      <c r="H81" s="128"/>
-      <c r="I81" s="128"/>
-      <c r="J81" s="128"/>
-      <c r="K81" s="128"/>
-      <c r="L81" s="128"/>
-      <c r="M81" s="128"/>
-      <c r="N81" s="129"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="104"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104"/>
+      <c r="L81" s="104"/>
+      <c r="M81" s="104"/>
+      <c r="N81" s="105"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -13882,70 +13881,70 @@
     </row>
     <row r="94" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="95" t="s">
+      <c r="A95" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="96"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="96"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="96"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="96"/>
-      <c r="J95" s="96"/>
-      <c r="K95" s="96"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="97"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="107"/>
+      <c r="G95" s="107"/>
+      <c r="H95" s="107"/>
+      <c r="I95" s="107"/>
+      <c r="J95" s="107"/>
+      <c r="K95" s="107"/>
+      <c r="L95" s="107"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="108"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
-      <c r="I96" s="99"/>
-      <c r="J96" s="99"/>
-      <c r="K96" s="99"/>
-      <c r="L96" s="99"/>
-      <c r="M96" s="99"/>
-      <c r="N96" s="100"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="110"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
+      <c r="J96" s="110"/>
+      <c r="K96" s="110"/>
+      <c r="L96" s="110"/>
+      <c r="M96" s="110"/>
+      <c r="N96" s="111"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="98"/>
-      <c r="B97" s="99"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="99"/>
-      <c r="J97" s="99"/>
-      <c r="K97" s="99"/>
-      <c r="L97" s="99"/>
-      <c r="M97" s="99"/>
-      <c r="N97" s="100"/>
+      <c r="A97" s="109"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="110"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="110"/>
+      <c r="J97" s="110"/>
+      <c r="K97" s="110"/>
+      <c r="L97" s="110"/>
+      <c r="M97" s="110"/>
+      <c r="N97" s="111"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="101"/>
-      <c r="B98" s="102"/>
-      <c r="C98" s="102"/>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="102"/>
-      <c r="I98" s="102"/>
-      <c r="J98" s="102"/>
-      <c r="K98" s="102"/>
-      <c r="L98" s="102"/>
-      <c r="M98" s="102"/>
-      <c r="N98" s="103"/>
+      <c r="A98" s="112"/>
+      <c r="B98" s="113"/>
+      <c r="C98" s="113"/>
+      <c r="D98" s="113"/>
+      <c r="E98" s="113"/>
+      <c r="F98" s="113"/>
+      <c r="G98" s="113"/>
+      <c r="H98" s="113"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="113"/>
+      <c r="K98" s="113"/>
+      <c r="L98" s="113"/>
+      <c r="M98" s="113"/>
+      <c r="N98" s="114"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -14057,22 +14056,22 @@
       <c r="N103" s="5"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="127" t="s">
+      <c r="A104" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="128"/>
-      <c r="C104" s="128"/>
-      <c r="D104" s="128"/>
-      <c r="E104" s="128"/>
-      <c r="F104" s="128"/>
-      <c r="G104" s="128"/>
-      <c r="H104" s="128"/>
-      <c r="I104" s="128"/>
-      <c r="J104" s="128"/>
-      <c r="K104" s="128"/>
-      <c r="L104" s="128"/>
-      <c r="M104" s="128"/>
-      <c r="N104" s="129"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="104"/>
+      <c r="D104" s="104"/>
+      <c r="E104" s="104"/>
+      <c r="F104" s="104"/>
+      <c r="G104" s="104"/>
+      <c r="H104" s="104"/>
+      <c r="I104" s="104"/>
+      <c r="J104" s="104"/>
+      <c r="K104" s="104"/>
+      <c r="L104" s="104"/>
+      <c r="M104" s="104"/>
+      <c r="N104" s="105"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
@@ -14213,70 +14212,70 @@
     </row>
     <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="95" t="s">
+      <c r="A117" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="96"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
-      <c r="H117" s="96"/>
-      <c r="I117" s="96"/>
-      <c r="J117" s="96"/>
-      <c r="K117" s="96"/>
-      <c r="L117" s="96"/>
-      <c r="M117" s="96"/>
-      <c r="N117" s="97"/>
+      <c r="B117" s="107"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="107"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="107"/>
+      <c r="G117" s="107"/>
+      <c r="H117" s="107"/>
+      <c r="I117" s="107"/>
+      <c r="J117" s="107"/>
+      <c r="K117" s="107"/>
+      <c r="L117" s="107"/>
+      <c r="M117" s="107"/>
+      <c r="N117" s="108"/>
     </row>
     <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="98"/>
-      <c r="B118" s="99"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="99"/>
-      <c r="E118" s="99"/>
-      <c r="F118" s="99"/>
-      <c r="G118" s="99"/>
-      <c r="H118" s="99"/>
-      <c r="I118" s="99"/>
-      <c r="J118" s="99"/>
-      <c r="K118" s="99"/>
-      <c r="L118" s="99"/>
-      <c r="M118" s="99"/>
-      <c r="N118" s="100"/>
+      <c r="A118" s="109"/>
+      <c r="B118" s="110"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="110"/>
+      <c r="E118" s="110"/>
+      <c r="F118" s="110"/>
+      <c r="G118" s="110"/>
+      <c r="H118" s="110"/>
+      <c r="I118" s="110"/>
+      <c r="J118" s="110"/>
+      <c r="K118" s="110"/>
+      <c r="L118" s="110"/>
+      <c r="M118" s="110"/>
+      <c r="N118" s="111"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="98"/>
-      <c r="B119" s="99"/>
-      <c r="C119" s="99"/>
-      <c r="D119" s="99"/>
-      <c r="E119" s="99"/>
-      <c r="F119" s="99"/>
-      <c r="G119" s="99"/>
-      <c r="H119" s="99"/>
-      <c r="I119" s="99"/>
-      <c r="J119" s="99"/>
-      <c r="K119" s="99"/>
-      <c r="L119" s="99"/>
-      <c r="M119" s="99"/>
-      <c r="N119" s="100"/>
+      <c r="A119" s="109"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="110"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="110"/>
+      <c r="J119" s="110"/>
+      <c r="K119" s="110"/>
+      <c r="L119" s="110"/>
+      <c r="M119" s="110"/>
+      <c r="N119" s="111"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="101"/>
-      <c r="B120" s="102"/>
-      <c r="C120" s="102"/>
-      <c r="D120" s="102"/>
-      <c r="E120" s="102"/>
-      <c r="F120" s="102"/>
-      <c r="G120" s="102"/>
-      <c r="H120" s="102"/>
-      <c r="I120" s="102"/>
-      <c r="J120" s="102"/>
-      <c r="K120" s="102"/>
-      <c r="L120" s="102"/>
-      <c r="M120" s="102"/>
-      <c r="N120" s="103"/>
+      <c r="A120" s="112"/>
+      <c r="B120" s="113"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="113"/>
+      <c r="E120" s="113"/>
+      <c r="F120" s="113"/>
+      <c r="G120" s="113"/>
+      <c r="H120" s="113"/>
+      <c r="I120" s="113"/>
+      <c r="J120" s="113"/>
+      <c r="K120" s="113"/>
+      <c r="L120" s="113"/>
+      <c r="M120" s="113"/>
+      <c r="N120" s="114"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -14454,22 +14453,22 @@
       <c r="N127" s="5"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="127" t="s">
+      <c r="A128" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="128"/>
-      <c r="C128" s="128"/>
-      <c r="D128" s="128"/>
-      <c r="E128" s="128"/>
-      <c r="F128" s="128"/>
-      <c r="G128" s="128"/>
-      <c r="H128" s="128"/>
-      <c r="I128" s="128"/>
-      <c r="J128" s="128"/>
-      <c r="K128" s="128"/>
-      <c r="L128" s="128"/>
-      <c r="M128" s="128"/>
-      <c r="N128" s="129"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="104"/>
+      <c r="D128" s="104"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
+      <c r="H128" s="104"/>
+      <c r="I128" s="104"/>
+      <c r="J128" s="104"/>
+      <c r="K128" s="104"/>
+      <c r="L128" s="104"/>
+      <c r="M128" s="104"/>
+      <c r="N128" s="105"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
@@ -14612,70 +14611,70 @@
     </row>
     <row r="140" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="95" t="s">
+      <c r="A141" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B141" s="96"/>
-      <c r="C141" s="96"/>
-      <c r="D141" s="96"/>
-      <c r="E141" s="96"/>
-      <c r="F141" s="96"/>
-      <c r="G141" s="96"/>
-      <c r="H141" s="96"/>
-      <c r="I141" s="96"/>
-      <c r="J141" s="96"/>
-      <c r="K141" s="96"/>
-      <c r="L141" s="96"/>
-      <c r="M141" s="96"/>
-      <c r="N141" s="97"/>
+      <c r="B141" s="107"/>
+      <c r="C141" s="107"/>
+      <c r="D141" s="107"/>
+      <c r="E141" s="107"/>
+      <c r="F141" s="107"/>
+      <c r="G141" s="107"/>
+      <c r="H141" s="107"/>
+      <c r="I141" s="107"/>
+      <c r="J141" s="107"/>
+      <c r="K141" s="107"/>
+      <c r="L141" s="107"/>
+      <c r="M141" s="107"/>
+      <c r="N141" s="108"/>
     </row>
     <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="98"/>
-      <c r="B142" s="99"/>
-      <c r="C142" s="99"/>
-      <c r="D142" s="99"/>
-      <c r="E142" s="99"/>
-      <c r="F142" s="99"/>
-      <c r="G142" s="99"/>
-      <c r="H142" s="99"/>
-      <c r="I142" s="99"/>
-      <c r="J142" s="99"/>
-      <c r="K142" s="99"/>
-      <c r="L142" s="99"/>
-      <c r="M142" s="99"/>
-      <c r="N142" s="100"/>
+      <c r="A142" s="109"/>
+      <c r="B142" s="110"/>
+      <c r="C142" s="110"/>
+      <c r="D142" s="110"/>
+      <c r="E142" s="110"/>
+      <c r="F142" s="110"/>
+      <c r="G142" s="110"/>
+      <c r="H142" s="110"/>
+      <c r="I142" s="110"/>
+      <c r="J142" s="110"/>
+      <c r="K142" s="110"/>
+      <c r="L142" s="110"/>
+      <c r="M142" s="110"/>
+      <c r="N142" s="111"/>
     </row>
     <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="98"/>
-      <c r="B143" s="99"/>
-      <c r="C143" s="99"/>
-      <c r="D143" s="99"/>
-      <c r="E143" s="99"/>
-      <c r="F143" s="99"/>
-      <c r="G143" s="99"/>
-      <c r="H143" s="99"/>
-      <c r="I143" s="99"/>
-      <c r="J143" s="99"/>
-      <c r="K143" s="99"/>
-      <c r="L143" s="99"/>
-      <c r="M143" s="99"/>
-      <c r="N143" s="100"/>
+      <c r="A143" s="109"/>
+      <c r="B143" s="110"/>
+      <c r="C143" s="110"/>
+      <c r="D143" s="110"/>
+      <c r="E143" s="110"/>
+      <c r="F143" s="110"/>
+      <c r="G143" s="110"/>
+      <c r="H143" s="110"/>
+      <c r="I143" s="110"/>
+      <c r="J143" s="110"/>
+      <c r="K143" s="110"/>
+      <c r="L143" s="110"/>
+      <c r="M143" s="110"/>
+      <c r="N143" s="111"/>
     </row>
     <row r="144" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="101"/>
-      <c r="B144" s="102"/>
-      <c r="C144" s="102"/>
-      <c r="D144" s="102"/>
-      <c r="E144" s="102"/>
-      <c r="F144" s="102"/>
-      <c r="G144" s="102"/>
-      <c r="H144" s="102"/>
-      <c r="I144" s="102"/>
-      <c r="J144" s="102"/>
-      <c r="K144" s="102"/>
-      <c r="L144" s="102"/>
-      <c r="M144" s="102"/>
-      <c r="N144" s="103"/>
+      <c r="A144" s="112"/>
+      <c r="B144" s="113"/>
+      <c r="C144" s="113"/>
+      <c r="D144" s="113"/>
+      <c r="E144" s="113"/>
+      <c r="F144" s="113"/>
+      <c r="G144" s="113"/>
+      <c r="H144" s="113"/>
+      <c r="I144" s="113"/>
+      <c r="J144" s="113"/>
+      <c r="K144" s="113"/>
+      <c r="L144" s="113"/>
+      <c r="M144" s="113"/>
+      <c r="N144" s="114"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
@@ -14727,22 +14726,22 @@
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="127" t="s">
+      <c r="A148" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="128"/>
-      <c r="C148" s="128"/>
-      <c r="D148" s="128"/>
-      <c r="E148" s="128"/>
-      <c r="F148" s="128"/>
-      <c r="G148" s="128"/>
-      <c r="H148" s="128"/>
-      <c r="I148" s="128"/>
-      <c r="J148" s="128"/>
-      <c r="K148" s="128"/>
-      <c r="L148" s="128"/>
-      <c r="M148" s="128"/>
-      <c r="N148" s="129"/>
+      <c r="B148" s="104"/>
+      <c r="C148" s="104"/>
+      <c r="D148" s="104"/>
+      <c r="E148" s="104"/>
+      <c r="F148" s="104"/>
+      <c r="G148" s="104"/>
+      <c r="H148" s="104"/>
+      <c r="I148" s="104"/>
+      <c r="J148" s="104"/>
+      <c r="K148" s="104"/>
+      <c r="L148" s="104"/>
+      <c r="M148" s="104"/>
+      <c r="N148" s="105"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
@@ -14860,76 +14859,76 @@
     </row>
     <row r="157" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="95" t="s">
+      <c r="A158" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B158" s="96"/>
-      <c r="C158" s="96"/>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
-      <c r="F158" s="96"/>
-      <c r="G158" s="96"/>
-      <c r="H158" s="96"/>
-      <c r="I158" s="96"/>
-      <c r="J158" s="96"/>
-      <c r="K158" s="96"/>
-      <c r="L158" s="96"/>
-      <c r="M158" s="96"/>
-      <c r="N158" s="97"/>
+      <c r="B158" s="107"/>
+      <c r="C158" s="107"/>
+      <c r="D158" s="107"/>
+      <c r="E158" s="107"/>
+      <c r="F158" s="107"/>
+      <c r="G158" s="107"/>
+      <c r="H158" s="107"/>
+      <c r="I158" s="107"/>
+      <c r="J158" s="107"/>
+      <c r="K158" s="107"/>
+      <c r="L158" s="107"/>
+      <c r="M158" s="107"/>
+      <c r="N158" s="108"/>
       <c r="O158" s="32"/>
       <c r="P158" s="32"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="98"/>
-      <c r="B159" s="99"/>
-      <c r="C159" s="99"/>
-      <c r="D159" s="99"/>
-      <c r="E159" s="99"/>
-      <c r="F159" s="99"/>
-      <c r="G159" s="99"/>
-      <c r="H159" s="99"/>
-      <c r="I159" s="99"/>
-      <c r="J159" s="99"/>
-      <c r="K159" s="99"/>
-      <c r="L159" s="99"/>
-      <c r="M159" s="99"/>
-      <c r="N159" s="100"/>
+      <c r="A159" s="109"/>
+      <c r="B159" s="110"/>
+      <c r="C159" s="110"/>
+      <c r="D159" s="110"/>
+      <c r="E159" s="110"/>
+      <c r="F159" s="110"/>
+      <c r="G159" s="110"/>
+      <c r="H159" s="110"/>
+      <c r="I159" s="110"/>
+      <c r="J159" s="110"/>
+      <c r="K159" s="110"/>
+      <c r="L159" s="110"/>
+      <c r="M159" s="110"/>
+      <c r="N159" s="111"/>
       <c r="O159" s="32"/>
       <c r="P159" s="32"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="98"/>
-      <c r="B160" s="99"/>
-      <c r="C160" s="99"/>
-      <c r="D160" s="99"/>
-      <c r="E160" s="99"/>
-      <c r="F160" s="99"/>
-      <c r="G160" s="99"/>
-      <c r="H160" s="99"/>
-      <c r="I160" s="99"/>
-      <c r="J160" s="99"/>
-      <c r="K160" s="99"/>
-      <c r="L160" s="99"/>
-      <c r="M160" s="99"/>
-      <c r="N160" s="100"/>
+      <c r="A160" s="109"/>
+      <c r="B160" s="110"/>
+      <c r="C160" s="110"/>
+      <c r="D160" s="110"/>
+      <c r="E160" s="110"/>
+      <c r="F160" s="110"/>
+      <c r="G160" s="110"/>
+      <c r="H160" s="110"/>
+      <c r="I160" s="110"/>
+      <c r="J160" s="110"/>
+      <c r="K160" s="110"/>
+      <c r="L160" s="110"/>
+      <c r="M160" s="110"/>
+      <c r="N160" s="111"/>
       <c r="O160" s="32"/>
       <c r="P160" s="32"/>
     </row>
     <row r="161" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="101"/>
-      <c r="B161" s="102"/>
-      <c r="C161" s="102"/>
-      <c r="D161" s="102"/>
-      <c r="E161" s="102"/>
-      <c r="F161" s="102"/>
-      <c r="G161" s="102"/>
-      <c r="H161" s="102"/>
-      <c r="I161" s="102"/>
-      <c r="J161" s="102"/>
-      <c r="K161" s="102"/>
-      <c r="L161" s="102"/>
-      <c r="M161" s="102"/>
-      <c r="N161" s="103"/>
+      <c r="A161" s="112"/>
+      <c r="B161" s="113"/>
+      <c r="C161" s="113"/>
+      <c r="D161" s="113"/>
+      <c r="E161" s="113"/>
+      <c r="F161" s="113"/>
+      <c r="G161" s="113"/>
+      <c r="H161" s="113"/>
+      <c r="I161" s="113"/>
+      <c r="J161" s="113"/>
+      <c r="K161" s="113"/>
+      <c r="L161" s="113"/>
+      <c r="M161" s="113"/>
+      <c r="N161" s="114"/>
       <c r="O161" s="32"/>
       <c r="P161" s="32"/>
     </row>
@@ -15109,22 +15108,22 @@
       <c r="N168" s="5"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="127" t="s">
+      <c r="A169" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B169" s="128"/>
-      <c r="C169" s="128"/>
-      <c r="D169" s="128"/>
-      <c r="E169" s="128"/>
-      <c r="F169" s="128"/>
-      <c r="G169" s="128"/>
-      <c r="H169" s="128"/>
-      <c r="I169" s="128"/>
-      <c r="J169" s="128"/>
-      <c r="K169" s="128"/>
-      <c r="L169" s="128"/>
-      <c r="M169" s="128"/>
-      <c r="N169" s="129"/>
+      <c r="B169" s="104"/>
+      <c r="C169" s="104"/>
+      <c r="D169" s="104"/>
+      <c r="E169" s="104"/>
+      <c r="F169" s="104"/>
+      <c r="G169" s="104"/>
+      <c r="H169" s="104"/>
+      <c r="I169" s="104"/>
+      <c r="J169" s="104"/>
+      <c r="K169" s="104"/>
+      <c r="L169" s="104"/>
+      <c r="M169" s="104"/>
+      <c r="N169" s="105"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
@@ -15212,70 +15211,70 @@
     </row>
     <row r="176" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="177" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="95" t="s">
+      <c r="A177" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B177" s="96"/>
-      <c r="C177" s="96"/>
-      <c r="D177" s="96"/>
-      <c r="E177" s="96"/>
-      <c r="F177" s="96"/>
-      <c r="G177" s="96"/>
-      <c r="H177" s="96"/>
-      <c r="I177" s="96"/>
-      <c r="J177" s="96"/>
-      <c r="K177" s="96"/>
-      <c r="L177" s="96"/>
-      <c r="M177" s="96"/>
-      <c r="N177" s="97"/>
+      <c r="B177" s="107"/>
+      <c r="C177" s="107"/>
+      <c r="D177" s="107"/>
+      <c r="E177" s="107"/>
+      <c r="F177" s="107"/>
+      <c r="G177" s="107"/>
+      <c r="H177" s="107"/>
+      <c r="I177" s="107"/>
+      <c r="J177" s="107"/>
+      <c r="K177" s="107"/>
+      <c r="L177" s="107"/>
+      <c r="M177" s="107"/>
+      <c r="N177" s="108"/>
     </row>
     <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="98"/>
-      <c r="B178" s="99"/>
-      <c r="C178" s="99"/>
-      <c r="D178" s="99"/>
-      <c r="E178" s="99"/>
-      <c r="F178" s="99"/>
-      <c r="G178" s="99"/>
-      <c r="H178" s="99"/>
-      <c r="I178" s="99"/>
-      <c r="J178" s="99"/>
-      <c r="K178" s="99"/>
-      <c r="L178" s="99"/>
-      <c r="M178" s="99"/>
-      <c r="N178" s="100"/>
+      <c r="A178" s="109"/>
+      <c r="B178" s="110"/>
+      <c r="C178" s="110"/>
+      <c r="D178" s="110"/>
+      <c r="E178" s="110"/>
+      <c r="F178" s="110"/>
+      <c r="G178" s="110"/>
+      <c r="H178" s="110"/>
+      <c r="I178" s="110"/>
+      <c r="J178" s="110"/>
+      <c r="K178" s="110"/>
+      <c r="L178" s="110"/>
+      <c r="M178" s="110"/>
+      <c r="N178" s="111"/>
     </row>
     <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="98"/>
-      <c r="B179" s="99"/>
-      <c r="C179" s="99"/>
-      <c r="D179" s="99"/>
-      <c r="E179" s="99"/>
-      <c r="F179" s="99"/>
-      <c r="G179" s="99"/>
-      <c r="H179" s="99"/>
-      <c r="I179" s="99"/>
-      <c r="J179" s="99"/>
-      <c r="K179" s="99"/>
-      <c r="L179" s="99"/>
-      <c r="M179" s="99"/>
-      <c r="N179" s="100"/>
+      <c r="A179" s="109"/>
+      <c r="B179" s="110"/>
+      <c r="C179" s="110"/>
+      <c r="D179" s="110"/>
+      <c r="E179" s="110"/>
+      <c r="F179" s="110"/>
+      <c r="G179" s="110"/>
+      <c r="H179" s="110"/>
+      <c r="I179" s="110"/>
+      <c r="J179" s="110"/>
+      <c r="K179" s="110"/>
+      <c r="L179" s="110"/>
+      <c r="M179" s="110"/>
+      <c r="N179" s="111"/>
     </row>
     <row r="180" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="101"/>
-      <c r="B180" s="102"/>
-      <c r="C180" s="102"/>
-      <c r="D180" s="102"/>
-      <c r="E180" s="102"/>
-      <c r="F180" s="102"/>
-      <c r="G180" s="102"/>
-      <c r="H180" s="102"/>
-      <c r="I180" s="102"/>
-      <c r="J180" s="102"/>
-      <c r="K180" s="102"/>
-      <c r="L180" s="102"/>
-      <c r="M180" s="102"/>
-      <c r="N180" s="103"/>
+      <c r="A180" s="112"/>
+      <c r="B180" s="113"/>
+      <c r="C180" s="113"/>
+      <c r="D180" s="113"/>
+      <c r="E180" s="113"/>
+      <c r="F180" s="113"/>
+      <c r="G180" s="113"/>
+      <c r="H180" s="113"/>
+      <c r="I180" s="113"/>
+      <c r="J180" s="113"/>
+      <c r="K180" s="113"/>
+      <c r="L180" s="113"/>
+      <c r="M180" s="113"/>
+      <c r="N180" s="114"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
@@ -15618,22 +15617,22 @@
       <c r="N192" s="5"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="127" t="s">
+      <c r="A193" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B193" s="128"/>
-      <c r="C193" s="128"/>
-      <c r="D193" s="128"/>
-      <c r="E193" s="128"/>
-      <c r="F193" s="128"/>
-      <c r="G193" s="128"/>
-      <c r="H193" s="128"/>
-      <c r="I193" s="128"/>
-      <c r="J193" s="128"/>
-      <c r="K193" s="128"/>
-      <c r="L193" s="128"/>
-      <c r="M193" s="128"/>
-      <c r="N193" s="129"/>
+      <c r="B193" s="104"/>
+      <c r="C193" s="104"/>
+      <c r="D193" s="104"/>
+      <c r="E193" s="104"/>
+      <c r="F193" s="104"/>
+      <c r="G193" s="104"/>
+      <c r="H193" s="104"/>
+      <c r="I193" s="104"/>
+      <c r="J193" s="104"/>
+      <c r="K193" s="104"/>
+      <c r="L193" s="104"/>
+      <c r="M193" s="104"/>
+      <c r="N193" s="105"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
@@ -15787,70 +15786,70 @@
     </row>
     <row r="205" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="206" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="95" t="s">
+      <c r="A206" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="B206" s="96"/>
-      <c r="C206" s="96"/>
-      <c r="D206" s="96"/>
-      <c r="E206" s="96"/>
-      <c r="F206" s="96"/>
-      <c r="G206" s="96"/>
-      <c r="H206" s="96"/>
-      <c r="I206" s="96"/>
-      <c r="J206" s="96"/>
-      <c r="K206" s="96"/>
-      <c r="L206" s="96"/>
-      <c r="M206" s="96"/>
-      <c r="N206" s="97"/>
+      <c r="B206" s="107"/>
+      <c r="C206" s="107"/>
+      <c r="D206" s="107"/>
+      <c r="E206" s="107"/>
+      <c r="F206" s="107"/>
+      <c r="G206" s="107"/>
+      <c r="H206" s="107"/>
+      <c r="I206" s="107"/>
+      <c r="J206" s="107"/>
+      <c r="K206" s="107"/>
+      <c r="L206" s="107"/>
+      <c r="M206" s="107"/>
+      <c r="N206" s="108"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="98"/>
-      <c r="B207" s="99"/>
-      <c r="C207" s="99"/>
-      <c r="D207" s="99"/>
-      <c r="E207" s="99"/>
-      <c r="F207" s="99"/>
-      <c r="G207" s="99"/>
-      <c r="H207" s="99"/>
-      <c r="I207" s="99"/>
-      <c r="J207" s="99"/>
-      <c r="K207" s="99"/>
-      <c r="L207" s="99"/>
-      <c r="M207" s="99"/>
-      <c r="N207" s="100"/>
+      <c r="A207" s="109"/>
+      <c r="B207" s="110"/>
+      <c r="C207" s="110"/>
+      <c r="D207" s="110"/>
+      <c r="E207" s="110"/>
+      <c r="F207" s="110"/>
+      <c r="G207" s="110"/>
+      <c r="H207" s="110"/>
+      <c r="I207" s="110"/>
+      <c r="J207" s="110"/>
+      <c r="K207" s="110"/>
+      <c r="L207" s="110"/>
+      <c r="M207" s="110"/>
+      <c r="N207" s="111"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="98"/>
-      <c r="B208" s="99"/>
-      <c r="C208" s="99"/>
-      <c r="D208" s="99"/>
-      <c r="E208" s="99"/>
-      <c r="F208" s="99"/>
-      <c r="G208" s="99"/>
-      <c r="H208" s="99"/>
-      <c r="I208" s="99"/>
-      <c r="J208" s="99"/>
-      <c r="K208" s="99"/>
-      <c r="L208" s="99"/>
-      <c r="M208" s="99"/>
-      <c r="N208" s="100"/>
+      <c r="A208" s="109"/>
+      <c r="B208" s="110"/>
+      <c r="C208" s="110"/>
+      <c r="D208" s="110"/>
+      <c r="E208" s="110"/>
+      <c r="F208" s="110"/>
+      <c r="G208" s="110"/>
+      <c r="H208" s="110"/>
+      <c r="I208" s="110"/>
+      <c r="J208" s="110"/>
+      <c r="K208" s="110"/>
+      <c r="L208" s="110"/>
+      <c r="M208" s="110"/>
+      <c r="N208" s="111"/>
     </row>
     <row r="209" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="101"/>
-      <c r="B209" s="102"/>
-      <c r="C209" s="102"/>
-      <c r="D209" s="102"/>
-      <c r="E209" s="102"/>
-      <c r="F209" s="102"/>
-      <c r="G209" s="102"/>
-      <c r="H209" s="102"/>
-      <c r="I209" s="102"/>
-      <c r="J209" s="102"/>
-      <c r="K209" s="102"/>
-      <c r="L209" s="102"/>
-      <c r="M209" s="102"/>
-      <c r="N209" s="103"/>
+      <c r="A209" s="112"/>
+      <c r="B209" s="113"/>
+      <c r="C209" s="113"/>
+      <c r="D209" s="113"/>
+      <c r="E209" s="113"/>
+      <c r="F209" s="113"/>
+      <c r="G209" s="113"/>
+      <c r="H209" s="113"/>
+      <c r="I209" s="113"/>
+      <c r="J209" s="113"/>
+      <c r="K209" s="113"/>
+      <c r="L209" s="113"/>
+      <c r="M209" s="113"/>
+      <c r="N209" s="114"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
@@ -16043,22 +16042,22 @@
       <c r="N216" s="5"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A217" s="127" t="s">
+      <c r="A217" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B217" s="128"/>
-      <c r="C217" s="128"/>
-      <c r="D217" s="128"/>
-      <c r="E217" s="128"/>
-      <c r="F217" s="128"/>
-      <c r="G217" s="128"/>
-      <c r="H217" s="128"/>
-      <c r="I217" s="128"/>
-      <c r="J217" s="128"/>
-      <c r="K217" s="128"/>
-      <c r="L217" s="128"/>
-      <c r="M217" s="128"/>
-      <c r="N217" s="129"/>
+      <c r="B217" s="104"/>
+      <c r="C217" s="104"/>
+      <c r="D217" s="104"/>
+      <c r="E217" s="104"/>
+      <c r="F217" s="104"/>
+      <c r="G217" s="104"/>
+      <c r="H217" s="104"/>
+      <c r="I217" s="104"/>
+      <c r="J217" s="104"/>
+      <c r="K217" s="104"/>
+      <c r="L217" s="104"/>
+      <c r="M217" s="104"/>
+      <c r="N217" s="105"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
@@ -16440,70 +16439,70 @@
     </row>
     <row r="239" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="240" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="95" t="s">
+      <c r="A240" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B240" s="96"/>
-      <c r="C240" s="96"/>
-      <c r="D240" s="96"/>
-      <c r="E240" s="96"/>
-      <c r="F240" s="96"/>
-      <c r="G240" s="96"/>
-      <c r="H240" s="96"/>
-      <c r="I240" s="96"/>
-      <c r="J240" s="96"/>
-      <c r="K240" s="96"/>
-      <c r="L240" s="96"/>
-      <c r="M240" s="96"/>
-      <c r="N240" s="97"/>
+      <c r="B240" s="107"/>
+      <c r="C240" s="107"/>
+      <c r="D240" s="107"/>
+      <c r="E240" s="107"/>
+      <c r="F240" s="107"/>
+      <c r="G240" s="107"/>
+      <c r="H240" s="107"/>
+      <c r="I240" s="107"/>
+      <c r="J240" s="107"/>
+      <c r="K240" s="107"/>
+      <c r="L240" s="107"/>
+      <c r="M240" s="107"/>
+      <c r="N240" s="108"/>
     </row>
     <row r="241" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="98"/>
-      <c r="B241" s="99"/>
-      <c r="C241" s="99"/>
-      <c r="D241" s="99"/>
-      <c r="E241" s="99"/>
-      <c r="F241" s="99"/>
-      <c r="G241" s="99"/>
-      <c r="H241" s="99"/>
-      <c r="I241" s="99"/>
-      <c r="J241" s="99"/>
-      <c r="K241" s="99"/>
-      <c r="L241" s="99"/>
-      <c r="M241" s="99"/>
-      <c r="N241" s="100"/>
+      <c r="A241" s="109"/>
+      <c r="B241" s="110"/>
+      <c r="C241" s="110"/>
+      <c r="D241" s="110"/>
+      <c r="E241" s="110"/>
+      <c r="F241" s="110"/>
+      <c r="G241" s="110"/>
+      <c r="H241" s="110"/>
+      <c r="I241" s="110"/>
+      <c r="J241" s="110"/>
+      <c r="K241" s="110"/>
+      <c r="L241" s="110"/>
+      <c r="M241" s="110"/>
+      <c r="N241" s="111"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A242" s="98"/>
-      <c r="B242" s="99"/>
-      <c r="C242" s="99"/>
-      <c r="D242" s="99"/>
-      <c r="E242" s="99"/>
-      <c r="F242" s="99"/>
-      <c r="G242" s="99"/>
-      <c r="H242" s="99"/>
-      <c r="I242" s="99"/>
-      <c r="J242" s="99"/>
-      <c r="K242" s="99"/>
-      <c r="L242" s="99"/>
-      <c r="M242" s="99"/>
-      <c r="N242" s="100"/>
+      <c r="A242" s="109"/>
+      <c r="B242" s="110"/>
+      <c r="C242" s="110"/>
+      <c r="D242" s="110"/>
+      <c r="E242" s="110"/>
+      <c r="F242" s="110"/>
+      <c r="G242" s="110"/>
+      <c r="H242" s="110"/>
+      <c r="I242" s="110"/>
+      <c r="J242" s="110"/>
+      <c r="K242" s="110"/>
+      <c r="L242" s="110"/>
+      <c r="M242" s="110"/>
+      <c r="N242" s="111"/>
     </row>
     <row r="243" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="101"/>
-      <c r="B243" s="102"/>
-      <c r="C243" s="102"/>
-      <c r="D243" s="102"/>
-      <c r="E243" s="102"/>
-      <c r="F243" s="102"/>
-      <c r="G243" s="102"/>
-      <c r="H243" s="102"/>
-      <c r="I243" s="102"/>
-      <c r="J243" s="102"/>
-      <c r="K243" s="102"/>
-      <c r="L243" s="102"/>
-      <c r="M243" s="102"/>
-      <c r="N243" s="103"/>
+      <c r="A243" s="112"/>
+      <c r="B243" s="113"/>
+      <c r="C243" s="113"/>
+      <c r="D243" s="113"/>
+      <c r="E243" s="113"/>
+      <c r="F243" s="113"/>
+      <c r="G243" s="113"/>
+      <c r="H243" s="113"/>
+      <c r="I243" s="113"/>
+      <c r="J243" s="113"/>
+      <c r="K243" s="113"/>
+      <c r="L243" s="113"/>
+      <c r="M243" s="113"/>
+      <c r="N243" s="114"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
@@ -16846,22 +16845,22 @@
       <c r="N255" s="5"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A256" s="127" t="s">
+      <c r="A256" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B256" s="128"/>
-      <c r="C256" s="128"/>
-      <c r="D256" s="128"/>
-      <c r="E256" s="128"/>
-      <c r="F256" s="128"/>
-      <c r="G256" s="128"/>
-      <c r="H256" s="128"/>
-      <c r="I256" s="128"/>
-      <c r="J256" s="128"/>
-      <c r="K256" s="128"/>
-      <c r="L256" s="128"/>
-      <c r="M256" s="128"/>
-      <c r="N256" s="129"/>
+      <c r="B256" s="104"/>
+      <c r="C256" s="104"/>
+      <c r="D256" s="104"/>
+      <c r="E256" s="104"/>
+      <c r="F256" s="104"/>
+      <c r="G256" s="104"/>
+      <c r="H256" s="104"/>
+      <c r="I256" s="104"/>
+      <c r="J256" s="104"/>
+      <c r="K256" s="104"/>
+      <c r="L256" s="104"/>
+      <c r="M256" s="104"/>
+      <c r="N256" s="105"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
@@ -17106,70 +17105,70 @@
     </row>
     <row r="275" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="95" t="s">
+      <c r="A276" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="B276" s="96"/>
-      <c r="C276" s="96"/>
-      <c r="D276" s="96"/>
-      <c r="E276" s="96"/>
-      <c r="F276" s="96"/>
-      <c r="G276" s="96"/>
-      <c r="H276" s="96"/>
-      <c r="I276" s="96"/>
-      <c r="J276" s="96"/>
-      <c r="K276" s="96"/>
-      <c r="L276" s="96"/>
-      <c r="M276" s="96"/>
-      <c r="N276" s="97"/>
+      <c r="B276" s="107"/>
+      <c r="C276" s="107"/>
+      <c r="D276" s="107"/>
+      <c r="E276" s="107"/>
+      <c r="F276" s="107"/>
+      <c r="G276" s="107"/>
+      <c r="H276" s="107"/>
+      <c r="I276" s="107"/>
+      <c r="J276" s="107"/>
+      <c r="K276" s="107"/>
+      <c r="L276" s="107"/>
+      <c r="M276" s="107"/>
+      <c r="N276" s="108"/>
     </row>
     <row r="277" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="98"/>
-      <c r="B277" s="99"/>
-      <c r="C277" s="99"/>
-      <c r="D277" s="99"/>
-      <c r="E277" s="99"/>
-      <c r="F277" s="99"/>
-      <c r="G277" s="99"/>
-      <c r="H277" s="99"/>
-      <c r="I277" s="99"/>
-      <c r="J277" s="99"/>
-      <c r="K277" s="99"/>
-      <c r="L277" s="99"/>
-      <c r="M277" s="99"/>
-      <c r="N277" s="100"/>
+      <c r="A277" s="109"/>
+      <c r="B277" s="110"/>
+      <c r="C277" s="110"/>
+      <c r="D277" s="110"/>
+      <c r="E277" s="110"/>
+      <c r="F277" s="110"/>
+      <c r="G277" s="110"/>
+      <c r="H277" s="110"/>
+      <c r="I277" s="110"/>
+      <c r="J277" s="110"/>
+      <c r="K277" s="110"/>
+      <c r="L277" s="110"/>
+      <c r="M277" s="110"/>
+      <c r="N277" s="111"/>
     </row>
     <row r="278" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="98"/>
-      <c r="B278" s="99"/>
-      <c r="C278" s="99"/>
-      <c r="D278" s="99"/>
-      <c r="E278" s="99"/>
-      <c r="F278" s="99"/>
-      <c r="G278" s="99"/>
-      <c r="H278" s="99"/>
-      <c r="I278" s="99"/>
-      <c r="J278" s="99"/>
-      <c r="K278" s="99"/>
-      <c r="L278" s="99"/>
-      <c r="M278" s="99"/>
-      <c r="N278" s="100"/>
+      <c r="A278" s="109"/>
+      <c r="B278" s="110"/>
+      <c r="C278" s="110"/>
+      <c r="D278" s="110"/>
+      <c r="E278" s="110"/>
+      <c r="F278" s="110"/>
+      <c r="G278" s="110"/>
+      <c r="H278" s="110"/>
+      <c r="I278" s="110"/>
+      <c r="J278" s="110"/>
+      <c r="K278" s="110"/>
+      <c r="L278" s="110"/>
+      <c r="M278" s="110"/>
+      <c r="N278" s="111"/>
     </row>
     <row r="279" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="101"/>
-      <c r="B279" s="102"/>
-      <c r="C279" s="102"/>
-      <c r="D279" s="102"/>
-      <c r="E279" s="102"/>
-      <c r="F279" s="102"/>
-      <c r="G279" s="102"/>
-      <c r="H279" s="102"/>
-      <c r="I279" s="102"/>
-      <c r="J279" s="102"/>
-      <c r="K279" s="102"/>
-      <c r="L279" s="102"/>
-      <c r="M279" s="102"/>
-      <c r="N279" s="103"/>
+      <c r="A279" s="112"/>
+      <c r="B279" s="113"/>
+      <c r="C279" s="113"/>
+      <c r="D279" s="113"/>
+      <c r="E279" s="113"/>
+      <c r="F279" s="113"/>
+      <c r="G279" s="113"/>
+      <c r="H279" s="113"/>
+      <c r="I279" s="113"/>
+      <c r="J279" s="113"/>
+      <c r="K279" s="113"/>
+      <c r="L279" s="113"/>
+      <c r="M279" s="113"/>
+      <c r="N279" s="114"/>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
@@ -17347,22 +17346,22 @@
       <c r="N286" s="5"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A287" s="127" t="s">
+      <c r="A287" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B287" s="128"/>
-      <c r="C287" s="128"/>
-      <c r="D287" s="128"/>
-      <c r="E287" s="128"/>
-      <c r="F287" s="128"/>
-      <c r="G287" s="128"/>
-      <c r="H287" s="128"/>
-      <c r="I287" s="128"/>
-      <c r="J287" s="128"/>
-      <c r="K287" s="128"/>
-      <c r="L287" s="128"/>
-      <c r="M287" s="128"/>
-      <c r="N287" s="129"/>
+      <c r="B287" s="104"/>
+      <c r="C287" s="104"/>
+      <c r="D287" s="104"/>
+      <c r="E287" s="104"/>
+      <c r="F287" s="104"/>
+      <c r="G287" s="104"/>
+      <c r="H287" s="104"/>
+      <c r="I287" s="104"/>
+      <c r="J287" s="104"/>
+      <c r="K287" s="104"/>
+      <c r="L287" s="104"/>
+      <c r="M287" s="104"/>
+      <c r="N287" s="105"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
@@ -17648,70 +17647,70 @@
     </row>
     <row r="309" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="310" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="95" t="s">
+      <c r="A310" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="B310" s="96"/>
-      <c r="C310" s="96"/>
-      <c r="D310" s="96"/>
-      <c r="E310" s="96"/>
-      <c r="F310" s="96"/>
-      <c r="G310" s="96"/>
-      <c r="H310" s="96"/>
-      <c r="I310" s="96"/>
-      <c r="J310" s="96"/>
-      <c r="K310" s="96"/>
-      <c r="L310" s="96"/>
-      <c r="M310" s="96"/>
-      <c r="N310" s="97"/>
+      <c r="B310" s="107"/>
+      <c r="C310" s="107"/>
+      <c r="D310" s="107"/>
+      <c r="E310" s="107"/>
+      <c r="F310" s="107"/>
+      <c r="G310" s="107"/>
+      <c r="H310" s="107"/>
+      <c r="I310" s="107"/>
+      <c r="J310" s="107"/>
+      <c r="K310" s="107"/>
+      <c r="L310" s="107"/>
+      <c r="M310" s="107"/>
+      <c r="N310" s="108"/>
     </row>
     <row r="311" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="98"/>
-      <c r="B311" s="99"/>
-      <c r="C311" s="99"/>
-      <c r="D311" s="99"/>
-      <c r="E311" s="99"/>
-      <c r="F311" s="99"/>
-      <c r="G311" s="99"/>
-      <c r="H311" s="99"/>
-      <c r="I311" s="99"/>
-      <c r="J311" s="99"/>
-      <c r="K311" s="99"/>
-      <c r="L311" s="99"/>
-      <c r="M311" s="99"/>
-      <c r="N311" s="100"/>
+      <c r="A311" s="109"/>
+      <c r="B311" s="110"/>
+      <c r="C311" s="110"/>
+      <c r="D311" s="110"/>
+      <c r="E311" s="110"/>
+      <c r="F311" s="110"/>
+      <c r="G311" s="110"/>
+      <c r="H311" s="110"/>
+      <c r="I311" s="110"/>
+      <c r="J311" s="110"/>
+      <c r="K311" s="110"/>
+      <c r="L311" s="110"/>
+      <c r="M311" s="110"/>
+      <c r="N311" s="111"/>
     </row>
     <row r="312" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="98"/>
-      <c r="B312" s="99"/>
-      <c r="C312" s="99"/>
-      <c r="D312" s="99"/>
-      <c r="E312" s="99"/>
-      <c r="F312" s="99"/>
-      <c r="G312" s="99"/>
-      <c r="H312" s="99"/>
-      <c r="I312" s="99"/>
-      <c r="J312" s="99"/>
-      <c r="K312" s="99"/>
-      <c r="L312" s="99"/>
-      <c r="M312" s="99"/>
-      <c r="N312" s="100"/>
+      <c r="A312" s="109"/>
+      <c r="B312" s="110"/>
+      <c r="C312" s="110"/>
+      <c r="D312" s="110"/>
+      <c r="E312" s="110"/>
+      <c r="F312" s="110"/>
+      <c r="G312" s="110"/>
+      <c r="H312" s="110"/>
+      <c r="I312" s="110"/>
+      <c r="J312" s="110"/>
+      <c r="K312" s="110"/>
+      <c r="L312" s="110"/>
+      <c r="M312" s="110"/>
+      <c r="N312" s="111"/>
     </row>
     <row r="313" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="101"/>
-      <c r="B313" s="102"/>
-      <c r="C313" s="102"/>
-      <c r="D313" s="102"/>
-      <c r="E313" s="102"/>
-      <c r="F313" s="102"/>
-      <c r="G313" s="102"/>
-      <c r="H313" s="102"/>
-      <c r="I313" s="102"/>
-      <c r="J313" s="102"/>
-      <c r="K313" s="102"/>
-      <c r="L313" s="102"/>
-      <c r="M313" s="102"/>
-      <c r="N313" s="103"/>
+      <c r="A313" s="112"/>
+      <c r="B313" s="113"/>
+      <c r="C313" s="113"/>
+      <c r="D313" s="113"/>
+      <c r="E313" s="113"/>
+      <c r="F313" s="113"/>
+      <c r="G313" s="113"/>
+      <c r="H313" s="113"/>
+      <c r="I313" s="113"/>
+      <c r="J313" s="113"/>
+      <c r="K313" s="113"/>
+      <c r="L313" s="113"/>
+      <c r="M313" s="113"/>
+      <c r="N313" s="114"/>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
@@ -17720,10 +17719,10 @@
       <c r="N314" s="5"/>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A315" s="141" t="s">
+      <c r="A315" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="B315" s="142"/>
+      <c r="B315" s="123"/>
       <c r="C315" s="7" t="s">
         <v>120</v>
       </c>
@@ -17748,10 +17747,10 @@
       <c r="N315" s="5"/>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A316" s="141" t="s">
+      <c r="A316" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="B316" s="142"/>
+      <c r="B316" s="123"/>
       <c r="C316" s="7">
         <v>30</v>
       </c>
@@ -17780,22 +17779,22 @@
       <c r="N317" s="5"/>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A318" s="127" t="s">
+      <c r="A318" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B318" s="128"/>
-      <c r="C318" s="128"/>
-      <c r="D318" s="128"/>
-      <c r="E318" s="128"/>
-      <c r="F318" s="128"/>
-      <c r="G318" s="128"/>
-      <c r="H318" s="128"/>
-      <c r="I318" s="128"/>
-      <c r="J318" s="128"/>
-      <c r="K318" s="128"/>
-      <c r="L318" s="128"/>
-      <c r="M318" s="128"/>
-      <c r="N318" s="129"/>
+      <c r="B318" s="104"/>
+      <c r="C318" s="104"/>
+      <c r="D318" s="104"/>
+      <c r="E318" s="104"/>
+      <c r="F318" s="104"/>
+      <c r="G318" s="104"/>
+      <c r="H318" s="104"/>
+      <c r="I318" s="104"/>
+      <c r="J318" s="104"/>
+      <c r="K318" s="104"/>
+      <c r="L318" s="104"/>
+      <c r="M318" s="104"/>
+      <c r="N318" s="105"/>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
@@ -18043,70 +18042,70 @@
     </row>
     <row r="362" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="363" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="95" t="s">
+      <c r="A363" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="B363" s="96"/>
-      <c r="C363" s="96"/>
-      <c r="D363" s="96"/>
-      <c r="E363" s="96"/>
-      <c r="F363" s="96"/>
-      <c r="G363" s="96"/>
-      <c r="H363" s="96"/>
-      <c r="I363" s="96"/>
-      <c r="J363" s="96"/>
-      <c r="K363" s="96"/>
-      <c r="L363" s="96"/>
-      <c r="M363" s="96"/>
-      <c r="N363" s="97"/>
+      <c r="B363" s="107"/>
+      <c r="C363" s="107"/>
+      <c r="D363" s="107"/>
+      <c r="E363" s="107"/>
+      <c r="F363" s="107"/>
+      <c r="G363" s="107"/>
+      <c r="H363" s="107"/>
+      <c r="I363" s="107"/>
+      <c r="J363" s="107"/>
+      <c r="K363" s="107"/>
+      <c r="L363" s="107"/>
+      <c r="M363" s="107"/>
+      <c r="N363" s="108"/>
     </row>
     <row r="364" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="98"/>
-      <c r="B364" s="99"/>
-      <c r="C364" s="99"/>
-      <c r="D364" s="99"/>
-      <c r="E364" s="99"/>
-      <c r="F364" s="99"/>
-      <c r="G364" s="99"/>
-      <c r="H364" s="99"/>
-      <c r="I364" s="99"/>
-      <c r="J364" s="99"/>
-      <c r="K364" s="99"/>
-      <c r="L364" s="99"/>
-      <c r="M364" s="99"/>
-      <c r="N364" s="100"/>
+      <c r="A364" s="109"/>
+      <c r="B364" s="110"/>
+      <c r="C364" s="110"/>
+      <c r="D364" s="110"/>
+      <c r="E364" s="110"/>
+      <c r="F364" s="110"/>
+      <c r="G364" s="110"/>
+      <c r="H364" s="110"/>
+      <c r="I364" s="110"/>
+      <c r="J364" s="110"/>
+      <c r="K364" s="110"/>
+      <c r="L364" s="110"/>
+      <c r="M364" s="110"/>
+      <c r="N364" s="111"/>
     </row>
     <row r="365" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="98"/>
-      <c r="B365" s="99"/>
-      <c r="C365" s="99"/>
-      <c r="D365" s="99"/>
-      <c r="E365" s="99"/>
-      <c r="F365" s="99"/>
-      <c r="G365" s="99"/>
-      <c r="H365" s="99"/>
-      <c r="I365" s="99"/>
-      <c r="J365" s="99"/>
-      <c r="K365" s="99"/>
-      <c r="L365" s="99"/>
-      <c r="M365" s="99"/>
-      <c r="N365" s="100"/>
+      <c r="A365" s="109"/>
+      <c r="B365" s="110"/>
+      <c r="C365" s="110"/>
+      <c r="D365" s="110"/>
+      <c r="E365" s="110"/>
+      <c r="F365" s="110"/>
+      <c r="G365" s="110"/>
+      <c r="H365" s="110"/>
+      <c r="I365" s="110"/>
+      <c r="J365" s="110"/>
+      <c r="K365" s="110"/>
+      <c r="L365" s="110"/>
+      <c r="M365" s="110"/>
+      <c r="N365" s="111"/>
     </row>
     <row r="366" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="101"/>
-      <c r="B366" s="102"/>
-      <c r="C366" s="102"/>
-      <c r="D366" s="102"/>
-      <c r="E366" s="102"/>
-      <c r="F366" s="102"/>
-      <c r="G366" s="102"/>
-      <c r="H366" s="102"/>
-      <c r="I366" s="102"/>
-      <c r="J366" s="102"/>
-      <c r="K366" s="102"/>
-      <c r="L366" s="102"/>
-      <c r="M366" s="102"/>
-      <c r="N366" s="103"/>
+      <c r="A366" s="112"/>
+      <c r="B366" s="113"/>
+      <c r="C366" s="113"/>
+      <c r="D366" s="113"/>
+      <c r="E366" s="113"/>
+      <c r="F366" s="113"/>
+      <c r="G366" s="113"/>
+      <c r="H366" s="113"/>
+      <c r="I366" s="113"/>
+      <c r="J366" s="113"/>
+      <c r="K366" s="113"/>
+      <c r="L366" s="113"/>
+      <c r="M366" s="113"/>
+      <c r="N366" s="114"/>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
@@ -18449,22 +18448,22 @@
       <c r="N378" s="5"/>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A379" s="127" t="s">
+      <c r="A379" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B379" s="128"/>
-      <c r="C379" s="128"/>
-      <c r="D379" s="128"/>
-      <c r="E379" s="128"/>
-      <c r="F379" s="128"/>
-      <c r="G379" s="128"/>
-      <c r="H379" s="128"/>
-      <c r="I379" s="128"/>
-      <c r="J379" s="128"/>
-      <c r="K379" s="128"/>
-      <c r="L379" s="128"/>
-      <c r="M379" s="128"/>
-      <c r="N379" s="129"/>
+      <c r="B379" s="104"/>
+      <c r="C379" s="104"/>
+      <c r="D379" s="104"/>
+      <c r="E379" s="104"/>
+      <c r="F379" s="104"/>
+      <c r="G379" s="104"/>
+      <c r="H379" s="104"/>
+      <c r="I379" s="104"/>
+      <c r="J379" s="104"/>
+      <c r="K379" s="104"/>
+      <c r="L379" s="104"/>
+      <c r="M379" s="104"/>
+      <c r="N379" s="105"/>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
@@ -18770,70 +18769,70 @@
     </row>
     <row r="430" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="431" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="132" t="s">
+      <c r="A431" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="B431" s="133"/>
-      <c r="C431" s="133"/>
-      <c r="D431" s="133"/>
-      <c r="E431" s="133"/>
-      <c r="F431" s="133"/>
-      <c r="G431" s="133"/>
-      <c r="H431" s="133"/>
-      <c r="I431" s="133"/>
-      <c r="J431" s="133"/>
-      <c r="K431" s="133"/>
-      <c r="L431" s="133"/>
-      <c r="M431" s="133"/>
-      <c r="N431" s="134"/>
+      <c r="B431" s="125"/>
+      <c r="C431" s="125"/>
+      <c r="D431" s="125"/>
+      <c r="E431" s="125"/>
+      <c r="F431" s="125"/>
+      <c r="G431" s="125"/>
+      <c r="H431" s="125"/>
+      <c r="I431" s="125"/>
+      <c r="J431" s="125"/>
+      <c r="K431" s="125"/>
+      <c r="L431" s="125"/>
+      <c r="M431" s="125"/>
+      <c r="N431" s="126"/>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A432" s="135"/>
-      <c r="B432" s="136"/>
-      <c r="C432" s="136"/>
-      <c r="D432" s="136"/>
-      <c r="E432" s="136"/>
-      <c r="F432" s="136"/>
-      <c r="G432" s="136"/>
-      <c r="H432" s="136"/>
-      <c r="I432" s="136"/>
-      <c r="J432" s="136"/>
-      <c r="K432" s="136"/>
-      <c r="L432" s="136"/>
-      <c r="M432" s="136"/>
-      <c r="N432" s="137"/>
+      <c r="A432" s="127"/>
+      <c r="B432" s="128"/>
+      <c r="C432" s="128"/>
+      <c r="D432" s="128"/>
+      <c r="E432" s="128"/>
+      <c r="F432" s="128"/>
+      <c r="G432" s="128"/>
+      <c r="H432" s="128"/>
+      <c r="I432" s="128"/>
+      <c r="J432" s="128"/>
+      <c r="K432" s="128"/>
+      <c r="L432" s="128"/>
+      <c r="M432" s="128"/>
+      <c r="N432" s="129"/>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A433" s="135"/>
-      <c r="B433" s="136"/>
-      <c r="C433" s="136"/>
-      <c r="D433" s="136"/>
-      <c r="E433" s="136"/>
-      <c r="F433" s="136"/>
-      <c r="G433" s="136"/>
-      <c r="H433" s="136"/>
-      <c r="I433" s="136"/>
-      <c r="J433" s="136"/>
-      <c r="K433" s="136"/>
-      <c r="L433" s="136"/>
-      <c r="M433" s="136"/>
-      <c r="N433" s="137"/>
+      <c r="A433" s="127"/>
+      <c r="B433" s="128"/>
+      <c r="C433" s="128"/>
+      <c r="D433" s="128"/>
+      <c r="E433" s="128"/>
+      <c r="F433" s="128"/>
+      <c r="G433" s="128"/>
+      <c r="H433" s="128"/>
+      <c r="I433" s="128"/>
+      <c r="J433" s="128"/>
+      <c r="K433" s="128"/>
+      <c r="L433" s="128"/>
+      <c r="M433" s="128"/>
+      <c r="N433" s="129"/>
     </row>
     <row r="434" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="138"/>
-      <c r="B434" s="139"/>
-      <c r="C434" s="139"/>
-      <c r="D434" s="139"/>
-      <c r="E434" s="139"/>
-      <c r="F434" s="139"/>
-      <c r="G434" s="139"/>
-      <c r="H434" s="139"/>
-      <c r="I434" s="139"/>
-      <c r="J434" s="139"/>
-      <c r="K434" s="139"/>
-      <c r="L434" s="139"/>
-      <c r="M434" s="139"/>
-      <c r="N434" s="140"/>
+      <c r="A434" s="130"/>
+      <c r="B434" s="131"/>
+      <c r="C434" s="131"/>
+      <c r="D434" s="131"/>
+      <c r="E434" s="131"/>
+      <c r="F434" s="131"/>
+      <c r="G434" s="131"/>
+      <c r="H434" s="131"/>
+      <c r="I434" s="131"/>
+      <c r="J434" s="131"/>
+      <c r="K434" s="131"/>
+      <c r="L434" s="131"/>
+      <c r="M434" s="131"/>
+      <c r="N434" s="132"/>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
@@ -19011,22 +19010,22 @@
       <c r="N441" s="5"/>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A442" s="127" t="s">
+      <c r="A442" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B442" s="128"/>
-      <c r="C442" s="128"/>
-      <c r="D442" s="128"/>
-      <c r="E442" s="128"/>
-      <c r="F442" s="128"/>
-      <c r="G442" s="128"/>
-      <c r="H442" s="128"/>
-      <c r="I442" s="128"/>
-      <c r="J442" s="128"/>
-      <c r="K442" s="128"/>
-      <c r="L442" s="128"/>
-      <c r="M442" s="128"/>
-      <c r="N442" s="129"/>
+      <c r="B442" s="104"/>
+      <c r="C442" s="104"/>
+      <c r="D442" s="104"/>
+      <c r="E442" s="104"/>
+      <c r="F442" s="104"/>
+      <c r="G442" s="104"/>
+      <c r="H442" s="104"/>
+      <c r="I442" s="104"/>
+      <c r="J442" s="104"/>
+      <c r="K442" s="104"/>
+      <c r="L442" s="104"/>
+      <c r="M442" s="104"/>
+      <c r="N442" s="105"/>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
@@ -19379,70 +19378,70 @@
     </row>
     <row r="495" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="496" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="95" t="s">
+      <c r="A496" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="B496" s="96"/>
-      <c r="C496" s="96"/>
-      <c r="D496" s="96"/>
-      <c r="E496" s="96"/>
-      <c r="F496" s="96"/>
-      <c r="G496" s="96"/>
-      <c r="H496" s="96"/>
-      <c r="I496" s="96"/>
-      <c r="J496" s="96"/>
-      <c r="K496" s="96"/>
-      <c r="L496" s="96"/>
-      <c r="M496" s="96"/>
-      <c r="N496" s="97"/>
+      <c r="B496" s="107"/>
+      <c r="C496" s="107"/>
+      <c r="D496" s="107"/>
+      <c r="E496" s="107"/>
+      <c r="F496" s="107"/>
+      <c r="G496" s="107"/>
+      <c r="H496" s="107"/>
+      <c r="I496" s="107"/>
+      <c r="J496" s="107"/>
+      <c r="K496" s="107"/>
+      <c r="L496" s="107"/>
+      <c r="M496" s="107"/>
+      <c r="N496" s="108"/>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A497" s="98"/>
-      <c r="B497" s="99"/>
-      <c r="C497" s="99"/>
-      <c r="D497" s="99"/>
-      <c r="E497" s="99"/>
-      <c r="F497" s="99"/>
-      <c r="G497" s="99"/>
-      <c r="H497" s="99"/>
-      <c r="I497" s="99"/>
-      <c r="J497" s="99"/>
-      <c r="K497" s="99"/>
-      <c r="L497" s="99"/>
-      <c r="M497" s="99"/>
-      <c r="N497" s="100"/>
+      <c r="A497" s="109"/>
+      <c r="B497" s="110"/>
+      <c r="C497" s="110"/>
+      <c r="D497" s="110"/>
+      <c r="E497" s="110"/>
+      <c r="F497" s="110"/>
+      <c r="G497" s="110"/>
+      <c r="H497" s="110"/>
+      <c r="I497" s="110"/>
+      <c r="J497" s="110"/>
+      <c r="K497" s="110"/>
+      <c r="L497" s="110"/>
+      <c r="M497" s="110"/>
+      <c r="N497" s="111"/>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A498" s="98"/>
-      <c r="B498" s="99"/>
-      <c r="C498" s="99"/>
-      <c r="D498" s="99"/>
-      <c r="E498" s="99"/>
-      <c r="F498" s="99"/>
-      <c r="G498" s="99"/>
-      <c r="H498" s="99"/>
-      <c r="I498" s="99"/>
-      <c r="J498" s="99"/>
-      <c r="K498" s="99"/>
-      <c r="L498" s="99"/>
-      <c r="M498" s="99"/>
-      <c r="N498" s="100"/>
+      <c r="A498" s="109"/>
+      <c r="B498" s="110"/>
+      <c r="C498" s="110"/>
+      <c r="D498" s="110"/>
+      <c r="E498" s="110"/>
+      <c r="F498" s="110"/>
+      <c r="G498" s="110"/>
+      <c r="H498" s="110"/>
+      <c r="I498" s="110"/>
+      <c r="J498" s="110"/>
+      <c r="K498" s="110"/>
+      <c r="L498" s="110"/>
+      <c r="M498" s="110"/>
+      <c r="N498" s="111"/>
     </row>
     <row r="499" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="101"/>
-      <c r="B499" s="102"/>
-      <c r="C499" s="102"/>
-      <c r="D499" s="102"/>
-      <c r="E499" s="102"/>
-      <c r="F499" s="102"/>
-      <c r="G499" s="102"/>
-      <c r="H499" s="102"/>
-      <c r="I499" s="102"/>
-      <c r="J499" s="102"/>
-      <c r="K499" s="102"/>
-      <c r="L499" s="102"/>
-      <c r="M499" s="102"/>
-      <c r="N499" s="103"/>
+      <c r="A499" s="112"/>
+      <c r="B499" s="113"/>
+      <c r="C499" s="113"/>
+      <c r="D499" s="113"/>
+      <c r="E499" s="113"/>
+      <c r="F499" s="113"/>
+      <c r="G499" s="113"/>
+      <c r="H499" s="113"/>
+      <c r="I499" s="113"/>
+      <c r="J499" s="113"/>
+      <c r="K499" s="113"/>
+      <c r="L499" s="113"/>
+      <c r="M499" s="113"/>
+      <c r="N499" s="114"/>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
@@ -19785,22 +19784,22 @@
       <c r="N511" s="5"/>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A512" s="127" t="s">
+      <c r="A512" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B512" s="128"/>
-      <c r="C512" s="128"/>
-      <c r="D512" s="128"/>
-      <c r="E512" s="128"/>
-      <c r="F512" s="128"/>
-      <c r="G512" s="128"/>
-      <c r="H512" s="128"/>
-      <c r="I512" s="128"/>
-      <c r="J512" s="128"/>
-      <c r="K512" s="128"/>
-      <c r="L512" s="128"/>
-      <c r="M512" s="128"/>
-      <c r="N512" s="129"/>
+      <c r="B512" s="104"/>
+      <c r="C512" s="104"/>
+      <c r="D512" s="104"/>
+      <c r="E512" s="104"/>
+      <c r="F512" s="104"/>
+      <c r="G512" s="104"/>
+      <c r="H512" s="104"/>
+      <c r="I512" s="104"/>
+      <c r="J512" s="104"/>
+      <c r="K512" s="104"/>
+      <c r="L512" s="104"/>
+      <c r="M512" s="104"/>
+      <c r="N512" s="105"/>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" s="23"/>
@@ -20175,73 +20174,73 @@
     </row>
     <row r="566" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="567" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="95" t="s">
+      <c r="A567" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="B567" s="96"/>
-      <c r="C567" s="96"/>
-      <c r="D567" s="96"/>
-      <c r="E567" s="96"/>
-      <c r="F567" s="96"/>
-      <c r="G567" s="96"/>
-      <c r="H567" s="96"/>
-      <c r="I567" s="96"/>
-      <c r="J567" s="96"/>
-      <c r="K567" s="96"/>
-      <c r="L567" s="96"/>
-      <c r="M567" s="96"/>
-      <c r="N567" s="97"/>
+      <c r="B567" s="107"/>
+      <c r="C567" s="107"/>
+      <c r="D567" s="107"/>
+      <c r="E567" s="107"/>
+      <c r="F567" s="107"/>
+      <c r="G567" s="107"/>
+      <c r="H567" s="107"/>
+      <c r="I567" s="107"/>
+      <c r="J567" s="107"/>
+      <c r="K567" s="107"/>
+      <c r="L567" s="107"/>
+      <c r="M567" s="107"/>
+      <c r="N567" s="108"/>
       <c r="O567" s="35"/>
     </row>
     <row r="568" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A568" s="98"/>
-      <c r="B568" s="99"/>
-      <c r="C568" s="99"/>
-      <c r="D568" s="99"/>
-      <c r="E568" s="99"/>
-      <c r="F568" s="99"/>
-      <c r="G568" s="99"/>
-      <c r="H568" s="99"/>
-      <c r="I568" s="99"/>
-      <c r="J568" s="99"/>
-      <c r="K568" s="99"/>
-      <c r="L568" s="99"/>
-      <c r="M568" s="99"/>
-      <c r="N568" s="100"/>
+      <c r="A568" s="109"/>
+      <c r="B568" s="110"/>
+      <c r="C568" s="110"/>
+      <c r="D568" s="110"/>
+      <c r="E568" s="110"/>
+      <c r="F568" s="110"/>
+      <c r="G568" s="110"/>
+      <c r="H568" s="110"/>
+      <c r="I568" s="110"/>
+      <c r="J568" s="110"/>
+      <c r="K568" s="110"/>
+      <c r="L568" s="110"/>
+      <c r="M568" s="110"/>
+      <c r="N568" s="111"/>
       <c r="O568" s="35"/>
     </row>
     <row r="569" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A569" s="98"/>
-      <c r="B569" s="99"/>
-      <c r="C569" s="99"/>
-      <c r="D569" s="99"/>
-      <c r="E569" s="99"/>
-      <c r="F569" s="99"/>
-      <c r="G569" s="99"/>
-      <c r="H569" s="99"/>
-      <c r="I569" s="99"/>
-      <c r="J569" s="99"/>
-      <c r="K569" s="99"/>
-      <c r="L569" s="99"/>
-      <c r="M569" s="99"/>
-      <c r="N569" s="100"/>
+      <c r="A569" s="109"/>
+      <c r="B569" s="110"/>
+      <c r="C569" s="110"/>
+      <c r="D569" s="110"/>
+      <c r="E569" s="110"/>
+      <c r="F569" s="110"/>
+      <c r="G569" s="110"/>
+      <c r="H569" s="110"/>
+      <c r="I569" s="110"/>
+      <c r="J569" s="110"/>
+      <c r="K569" s="110"/>
+      <c r="L569" s="110"/>
+      <c r="M569" s="110"/>
+      <c r="N569" s="111"/>
       <c r="O569" s="35"/>
     </row>
     <row r="570" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="101"/>
-      <c r="B570" s="102"/>
-      <c r="C570" s="102"/>
-      <c r="D570" s="102"/>
-      <c r="E570" s="102"/>
-      <c r="F570" s="102"/>
-      <c r="G570" s="102"/>
-      <c r="H570" s="102"/>
-      <c r="I570" s="102"/>
-      <c r="J570" s="102"/>
-      <c r="K570" s="102"/>
-      <c r="L570" s="102"/>
-      <c r="M570" s="102"/>
-      <c r="N570" s="103"/>
+      <c r="A570" s="112"/>
+      <c r="B570" s="113"/>
+      <c r="C570" s="113"/>
+      <c r="D570" s="113"/>
+      <c r="E570" s="113"/>
+      <c r="F570" s="113"/>
+      <c r="G570" s="113"/>
+      <c r="H570" s="113"/>
+      <c r="I570" s="113"/>
+      <c r="J570" s="113"/>
+      <c r="K570" s="113"/>
+      <c r="L570" s="113"/>
+      <c r="M570" s="113"/>
+      <c r="N570" s="114"/>
       <c r="O570" s="35"/>
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.25">
@@ -20363,22 +20362,22 @@
       <c r="N575" s="5"/>
     </row>
     <row r="576" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A576" s="127" t="s">
+      <c r="A576" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B576" s="128"/>
-      <c r="C576" s="128"/>
-      <c r="D576" s="128"/>
-      <c r="E576" s="128"/>
-      <c r="F576" s="128"/>
-      <c r="G576" s="128"/>
-      <c r="H576" s="128"/>
-      <c r="I576" s="128"/>
-      <c r="J576" s="128"/>
-      <c r="K576" s="128"/>
-      <c r="L576" s="128"/>
-      <c r="M576" s="128"/>
-      <c r="N576" s="129"/>
+      <c r="B576" s="104"/>
+      <c r="C576" s="104"/>
+      <c r="D576" s="104"/>
+      <c r="E576" s="104"/>
+      <c r="F576" s="104"/>
+      <c r="G576" s="104"/>
+      <c r="H576" s="104"/>
+      <c r="I576" s="104"/>
+      <c r="J576" s="104"/>
+      <c r="K576" s="104"/>
+      <c r="L576" s="104"/>
+      <c r="M576" s="104"/>
+      <c r="N576" s="105"/>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577" s="23"/>
@@ -20644,89 +20643,89 @@
     </row>
     <row r="609" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="610" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="109" t="s">
+      <c r="A610" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="B610" s="110"/>
-      <c r="C610" s="110"/>
-      <c r="D610" s="110"/>
-      <c r="E610" s="110"/>
-      <c r="F610" s="110"/>
-      <c r="G610" s="110"/>
-      <c r="H610" s="110"/>
-      <c r="I610" s="110"/>
-      <c r="J610" s="110"/>
-      <c r="K610" s="110"/>
-      <c r="L610" s="110"/>
-      <c r="M610" s="110"/>
-      <c r="N610" s="111"/>
+      <c r="B610" s="120"/>
+      <c r="C610" s="120"/>
+      <c r="D610" s="120"/>
+      <c r="E610" s="120"/>
+      <c r="F610" s="120"/>
+      <c r="G610" s="120"/>
+      <c r="H610" s="120"/>
+      <c r="I610" s="120"/>
+      <c r="J610" s="120"/>
+      <c r="K610" s="120"/>
+      <c r="L610" s="120"/>
+      <c r="M610" s="120"/>
+      <c r="N610" s="121"/>
     </row>
     <row r="611" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="612" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="95" t="s">
+      <c r="A612" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="B612" s="96"/>
-      <c r="C612" s="96"/>
-      <c r="D612" s="96"/>
-      <c r="E612" s="96"/>
-      <c r="F612" s="96"/>
-      <c r="G612" s="96"/>
-      <c r="H612" s="96"/>
-      <c r="I612" s="96"/>
-      <c r="J612" s="96"/>
-      <c r="K612" s="96"/>
-      <c r="L612" s="96"/>
-      <c r="M612" s="96"/>
-      <c r="N612" s="97"/>
+      <c r="B612" s="107"/>
+      <c r="C612" s="107"/>
+      <c r="D612" s="107"/>
+      <c r="E612" s="107"/>
+      <c r="F612" s="107"/>
+      <c r="G612" s="107"/>
+      <c r="H612" s="107"/>
+      <c r="I612" s="107"/>
+      <c r="J612" s="107"/>
+      <c r="K612" s="107"/>
+      <c r="L612" s="107"/>
+      <c r="M612" s="107"/>
+      <c r="N612" s="108"/>
     </row>
     <row r="613" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="98"/>
-      <c r="B613" s="99"/>
-      <c r="C613" s="99"/>
-      <c r="D613" s="99"/>
-      <c r="E613" s="99"/>
-      <c r="F613" s="99"/>
-      <c r="G613" s="99"/>
-      <c r="H613" s="99"/>
-      <c r="I613" s="99"/>
-      <c r="J613" s="99"/>
-      <c r="K613" s="99"/>
-      <c r="L613" s="99"/>
-      <c r="M613" s="99"/>
-      <c r="N613" s="100"/>
+      <c r="A613" s="109"/>
+      <c r="B613" s="110"/>
+      <c r="C613" s="110"/>
+      <c r="D613" s="110"/>
+      <c r="E613" s="110"/>
+      <c r="F613" s="110"/>
+      <c r="G613" s="110"/>
+      <c r="H613" s="110"/>
+      <c r="I613" s="110"/>
+      <c r="J613" s="110"/>
+      <c r="K613" s="110"/>
+      <c r="L613" s="110"/>
+      <c r="M613" s="110"/>
+      <c r="N613" s="111"/>
     </row>
     <row r="614" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="98"/>
-      <c r="B614" s="99"/>
-      <c r="C614" s="99"/>
-      <c r="D614" s="99"/>
-      <c r="E614" s="99"/>
-      <c r="F614" s="99"/>
-      <c r="G614" s="99"/>
-      <c r="H614" s="99"/>
-      <c r="I614" s="99"/>
-      <c r="J614" s="99"/>
-      <c r="K614" s="99"/>
-      <c r="L614" s="99"/>
-      <c r="M614" s="99"/>
-      <c r="N614" s="100"/>
+      <c r="A614" s="109"/>
+      <c r="B614" s="110"/>
+      <c r="C614" s="110"/>
+      <c r="D614" s="110"/>
+      <c r="E614" s="110"/>
+      <c r="F614" s="110"/>
+      <c r="G614" s="110"/>
+      <c r="H614" s="110"/>
+      <c r="I614" s="110"/>
+      <c r="J614" s="110"/>
+      <c r="K614" s="110"/>
+      <c r="L614" s="110"/>
+      <c r="M614" s="110"/>
+      <c r="N614" s="111"/>
     </row>
     <row r="615" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="101"/>
-      <c r="B615" s="102"/>
-      <c r="C615" s="102"/>
-      <c r="D615" s="102"/>
-      <c r="E615" s="102"/>
-      <c r="F615" s="102"/>
-      <c r="G615" s="102"/>
-      <c r="H615" s="102"/>
-      <c r="I615" s="102"/>
-      <c r="J615" s="102"/>
-      <c r="K615" s="102"/>
-      <c r="L615" s="102"/>
-      <c r="M615" s="102"/>
-      <c r="N615" s="103"/>
+      <c r="A615" s="112"/>
+      <c r="B615" s="113"/>
+      <c r="C615" s="113"/>
+      <c r="D615" s="113"/>
+      <c r="E615" s="113"/>
+      <c r="F615" s="113"/>
+      <c r="G615" s="113"/>
+      <c r="H615" s="113"/>
+      <c r="I615" s="113"/>
+      <c r="J615" s="113"/>
+      <c r="K615" s="113"/>
+      <c r="L615" s="113"/>
+      <c r="M615" s="113"/>
+      <c r="N615" s="114"/>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
@@ -20904,22 +20903,22 @@
       <c r="N622" s="5"/>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A623" s="127" t="s">
+      <c r="A623" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B623" s="128"/>
-      <c r="C623" s="128"/>
-      <c r="D623" s="128"/>
-      <c r="E623" s="128"/>
-      <c r="F623" s="128"/>
-      <c r="G623" s="128"/>
-      <c r="H623" s="128"/>
-      <c r="I623" s="128"/>
-      <c r="J623" s="128"/>
-      <c r="K623" s="128"/>
-      <c r="L623" s="128"/>
-      <c r="M623" s="128"/>
-      <c r="N623" s="129"/>
+      <c r="B623" s="104"/>
+      <c r="C623" s="104"/>
+      <c r="D623" s="104"/>
+      <c r="E623" s="104"/>
+      <c r="F623" s="104"/>
+      <c r="G623" s="104"/>
+      <c r="H623" s="104"/>
+      <c r="I623" s="104"/>
+      <c r="J623" s="104"/>
+      <c r="K623" s="104"/>
+      <c r="L623" s="104"/>
+      <c r="M623" s="104"/>
+      <c r="N623" s="105"/>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624" s="23"/>
@@ -21023,70 +21022,70 @@
     </row>
     <row r="633" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="634" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="95" t="s">
+      <c r="A634" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="B634" s="96"/>
-      <c r="C634" s="96"/>
-      <c r="D634" s="96"/>
-      <c r="E634" s="96"/>
-      <c r="F634" s="96"/>
-      <c r="G634" s="96"/>
-      <c r="H634" s="96"/>
-      <c r="I634" s="96"/>
-      <c r="J634" s="96"/>
-      <c r="K634" s="96"/>
-      <c r="L634" s="96"/>
-      <c r="M634" s="96"/>
-      <c r="N634" s="97"/>
+      <c r="B634" s="107"/>
+      <c r="C634" s="107"/>
+      <c r="D634" s="107"/>
+      <c r="E634" s="107"/>
+      <c r="F634" s="107"/>
+      <c r="G634" s="107"/>
+      <c r="H634" s="107"/>
+      <c r="I634" s="107"/>
+      <c r="J634" s="107"/>
+      <c r="K634" s="107"/>
+      <c r="L634" s="107"/>
+      <c r="M634" s="107"/>
+      <c r="N634" s="108"/>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A635" s="98"/>
-      <c r="B635" s="99"/>
-      <c r="C635" s="99"/>
-      <c r="D635" s="99"/>
-      <c r="E635" s="99"/>
-      <c r="F635" s="99"/>
-      <c r="G635" s="99"/>
-      <c r="H635" s="99"/>
-      <c r="I635" s="99"/>
-      <c r="J635" s="99"/>
-      <c r="K635" s="99"/>
-      <c r="L635" s="99"/>
-      <c r="M635" s="99"/>
-      <c r="N635" s="100"/>
+      <c r="A635" s="109"/>
+      <c r="B635" s="110"/>
+      <c r="C635" s="110"/>
+      <c r="D635" s="110"/>
+      <c r="E635" s="110"/>
+      <c r="F635" s="110"/>
+      <c r="G635" s="110"/>
+      <c r="H635" s="110"/>
+      <c r="I635" s="110"/>
+      <c r="J635" s="110"/>
+      <c r="K635" s="110"/>
+      <c r="L635" s="110"/>
+      <c r="M635" s="110"/>
+      <c r="N635" s="111"/>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A636" s="98"/>
-      <c r="B636" s="99"/>
-      <c r="C636" s="99"/>
-      <c r="D636" s="99"/>
-      <c r="E636" s="99"/>
-      <c r="F636" s="99"/>
-      <c r="G636" s="99"/>
-      <c r="H636" s="99"/>
-      <c r="I636" s="99"/>
-      <c r="J636" s="99"/>
-      <c r="K636" s="99"/>
-      <c r="L636" s="99"/>
-      <c r="M636" s="99"/>
-      <c r="N636" s="100"/>
+      <c r="A636" s="109"/>
+      <c r="B636" s="110"/>
+      <c r="C636" s="110"/>
+      <c r="D636" s="110"/>
+      <c r="E636" s="110"/>
+      <c r="F636" s="110"/>
+      <c r="G636" s="110"/>
+      <c r="H636" s="110"/>
+      <c r="I636" s="110"/>
+      <c r="J636" s="110"/>
+      <c r="K636" s="110"/>
+      <c r="L636" s="110"/>
+      <c r="M636" s="110"/>
+      <c r="N636" s="111"/>
     </row>
     <row r="637" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A637" s="101"/>
-      <c r="B637" s="102"/>
-      <c r="C637" s="102"/>
-      <c r="D637" s="102"/>
-      <c r="E637" s="102"/>
-      <c r="F637" s="102"/>
-      <c r="G637" s="102"/>
-      <c r="H637" s="102"/>
-      <c r="I637" s="102"/>
-      <c r="J637" s="102"/>
-      <c r="K637" s="102"/>
-      <c r="L637" s="102"/>
-      <c r="M637" s="102"/>
-      <c r="N637" s="103"/>
+      <c r="A637" s="112"/>
+      <c r="B637" s="113"/>
+      <c r="C637" s="113"/>
+      <c r="D637" s="113"/>
+      <c r="E637" s="113"/>
+      <c r="F637" s="113"/>
+      <c r="G637" s="113"/>
+      <c r="H637" s="113"/>
+      <c r="I637" s="113"/>
+      <c r="J637" s="113"/>
+      <c r="K637" s="113"/>
+      <c r="L637" s="113"/>
+      <c r="M637" s="113"/>
+      <c r="N637" s="114"/>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
@@ -21411,22 +21410,22 @@
       <c r="N647" s="5"/>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A648" s="127" t="s">
+      <c r="A648" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B648" s="128"/>
-      <c r="C648" s="128"/>
-      <c r="D648" s="128"/>
-      <c r="E648" s="128"/>
-      <c r="F648" s="128"/>
-      <c r="G648" s="128"/>
-      <c r="H648" s="128"/>
-      <c r="I648" s="128"/>
-      <c r="J648" s="128"/>
-      <c r="K648" s="128"/>
-      <c r="L648" s="128"/>
-      <c r="M648" s="128"/>
-      <c r="N648" s="129"/>
+      <c r="B648" s="104"/>
+      <c r="C648" s="104"/>
+      <c r="D648" s="104"/>
+      <c r="E648" s="104"/>
+      <c r="F648" s="104"/>
+      <c r="G648" s="104"/>
+      <c r="H648" s="104"/>
+      <c r="I648" s="104"/>
+      <c r="J648" s="104"/>
+      <c r="K648" s="104"/>
+      <c r="L648" s="104"/>
+      <c r="M648" s="104"/>
+      <c r="N648" s="105"/>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649" s="23"/>
@@ -21547,70 +21546,70 @@
     </row>
     <row r="659" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="660" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="95" t="s">
+      <c r="A660" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="B660" s="96"/>
-      <c r="C660" s="96"/>
-      <c r="D660" s="96"/>
-      <c r="E660" s="96"/>
-      <c r="F660" s="96"/>
-      <c r="G660" s="96"/>
-      <c r="H660" s="96"/>
-      <c r="I660" s="96"/>
-      <c r="J660" s="96"/>
-      <c r="K660" s="96"/>
-      <c r="L660" s="96"/>
-      <c r="M660" s="96"/>
-      <c r="N660" s="97"/>
+      <c r="B660" s="107"/>
+      <c r="C660" s="107"/>
+      <c r="D660" s="107"/>
+      <c r="E660" s="107"/>
+      <c r="F660" s="107"/>
+      <c r="G660" s="107"/>
+      <c r="H660" s="107"/>
+      <c r="I660" s="107"/>
+      <c r="J660" s="107"/>
+      <c r="K660" s="107"/>
+      <c r="L660" s="107"/>
+      <c r="M660" s="107"/>
+      <c r="N660" s="108"/>
     </row>
     <row r="661" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="98"/>
-      <c r="B661" s="99"/>
-      <c r="C661" s="99"/>
-      <c r="D661" s="99"/>
-      <c r="E661" s="99"/>
-      <c r="F661" s="99"/>
-      <c r="G661" s="99"/>
-      <c r="H661" s="99"/>
-      <c r="I661" s="99"/>
-      <c r="J661" s="99"/>
-      <c r="K661" s="99"/>
-      <c r="L661" s="99"/>
-      <c r="M661" s="99"/>
-      <c r="N661" s="100"/>
+      <c r="A661" s="109"/>
+      <c r="B661" s="110"/>
+      <c r="C661" s="110"/>
+      <c r="D661" s="110"/>
+      <c r="E661" s="110"/>
+      <c r="F661" s="110"/>
+      <c r="G661" s="110"/>
+      <c r="H661" s="110"/>
+      <c r="I661" s="110"/>
+      <c r="J661" s="110"/>
+      <c r="K661" s="110"/>
+      <c r="L661" s="110"/>
+      <c r="M661" s="110"/>
+      <c r="N661" s="111"/>
     </row>
     <row r="662" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="98"/>
-      <c r="B662" s="99"/>
-      <c r="C662" s="99"/>
-      <c r="D662" s="99"/>
-      <c r="E662" s="99"/>
-      <c r="F662" s="99"/>
-      <c r="G662" s="99"/>
-      <c r="H662" s="99"/>
-      <c r="I662" s="99"/>
-      <c r="J662" s="99"/>
-      <c r="K662" s="99"/>
-      <c r="L662" s="99"/>
-      <c r="M662" s="99"/>
-      <c r="N662" s="100"/>
+      <c r="A662" s="109"/>
+      <c r="B662" s="110"/>
+      <c r="C662" s="110"/>
+      <c r="D662" s="110"/>
+      <c r="E662" s="110"/>
+      <c r="F662" s="110"/>
+      <c r="G662" s="110"/>
+      <c r="H662" s="110"/>
+      <c r="I662" s="110"/>
+      <c r="J662" s="110"/>
+      <c r="K662" s="110"/>
+      <c r="L662" s="110"/>
+      <c r="M662" s="110"/>
+      <c r="N662" s="111"/>
     </row>
     <row r="663" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A663" s="101"/>
-      <c r="B663" s="102"/>
-      <c r="C663" s="102"/>
-      <c r="D663" s="102"/>
-      <c r="E663" s="102"/>
-      <c r="F663" s="102"/>
-      <c r="G663" s="102"/>
-      <c r="H663" s="102"/>
-      <c r="I663" s="102"/>
-      <c r="J663" s="102"/>
-      <c r="K663" s="102"/>
-      <c r="L663" s="102"/>
-      <c r="M663" s="102"/>
-      <c r="N663" s="103"/>
+      <c r="A663" s="112"/>
+      <c r="B663" s="113"/>
+      <c r="C663" s="113"/>
+      <c r="D663" s="113"/>
+      <c r="E663" s="113"/>
+      <c r="F663" s="113"/>
+      <c r="G663" s="113"/>
+      <c r="H663" s="113"/>
+      <c r="I663" s="113"/>
+      <c r="J663" s="113"/>
+      <c r="K663" s="113"/>
+      <c r="L663" s="113"/>
+      <c r="M663" s="113"/>
+      <c r="N663" s="114"/>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
@@ -21953,22 +21952,22 @@
       <c r="N675" s="5"/>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A676" s="127" t="s">
+      <c r="A676" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B676" s="128"/>
-      <c r="C676" s="128"/>
-      <c r="D676" s="128"/>
-      <c r="E676" s="128"/>
-      <c r="F676" s="128"/>
-      <c r="G676" s="128"/>
-      <c r="H676" s="128"/>
-      <c r="I676" s="128"/>
-      <c r="J676" s="128"/>
-      <c r="K676" s="128"/>
-      <c r="L676" s="128"/>
-      <c r="M676" s="128"/>
-      <c r="N676" s="129"/>
+      <c r="B676" s="104"/>
+      <c r="C676" s="104"/>
+      <c r="D676" s="104"/>
+      <c r="E676" s="104"/>
+      <c r="F676" s="104"/>
+      <c r="G676" s="104"/>
+      <c r="H676" s="104"/>
+      <c r="I676" s="104"/>
+      <c r="J676" s="104"/>
+      <c r="K676" s="104"/>
+      <c r="L676" s="104"/>
+      <c r="M676" s="104"/>
+      <c r="N676" s="105"/>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A677" s="23"/>
@@ -22105,70 +22104,70 @@
     </row>
     <row r="688" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="689" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="95" t="s">
+      <c r="A689" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="B689" s="96"/>
-      <c r="C689" s="96"/>
-      <c r="D689" s="96"/>
-      <c r="E689" s="96"/>
-      <c r="F689" s="96"/>
-      <c r="G689" s="96"/>
-      <c r="H689" s="96"/>
-      <c r="I689" s="96"/>
-      <c r="J689" s="96"/>
-      <c r="K689" s="96"/>
-      <c r="L689" s="96"/>
-      <c r="M689" s="96"/>
-      <c r="N689" s="97"/>
+      <c r="B689" s="107"/>
+      <c r="C689" s="107"/>
+      <c r="D689" s="107"/>
+      <c r="E689" s="107"/>
+      <c r="F689" s="107"/>
+      <c r="G689" s="107"/>
+      <c r="H689" s="107"/>
+      <c r="I689" s="107"/>
+      <c r="J689" s="107"/>
+      <c r="K689" s="107"/>
+      <c r="L689" s="107"/>
+      <c r="M689" s="107"/>
+      <c r="N689" s="108"/>
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A690" s="98"/>
-      <c r="B690" s="99"/>
-      <c r="C690" s="99"/>
-      <c r="D690" s="99"/>
-      <c r="E690" s="99"/>
-      <c r="F690" s="99"/>
-      <c r="G690" s="99"/>
-      <c r="H690" s="99"/>
-      <c r="I690" s="99"/>
-      <c r="J690" s="99"/>
-      <c r="K690" s="99"/>
-      <c r="L690" s="99"/>
-      <c r="M690" s="99"/>
-      <c r="N690" s="100"/>
+      <c r="A690" s="109"/>
+      <c r="B690" s="110"/>
+      <c r="C690" s="110"/>
+      <c r="D690" s="110"/>
+      <c r="E690" s="110"/>
+      <c r="F690" s="110"/>
+      <c r="G690" s="110"/>
+      <c r="H690" s="110"/>
+      <c r="I690" s="110"/>
+      <c r="J690" s="110"/>
+      <c r="K690" s="110"/>
+      <c r="L690" s="110"/>
+      <c r="M690" s="110"/>
+      <c r="N690" s="111"/>
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A691" s="98"/>
-      <c r="B691" s="99"/>
-      <c r="C691" s="99"/>
-      <c r="D691" s="99"/>
-      <c r="E691" s="99"/>
-      <c r="F691" s="99"/>
-      <c r="G691" s="99"/>
-      <c r="H691" s="99"/>
-      <c r="I691" s="99"/>
-      <c r="J691" s="99"/>
-      <c r="K691" s="99"/>
-      <c r="L691" s="99"/>
-      <c r="M691" s="99"/>
-      <c r="N691" s="100"/>
+      <c r="A691" s="109"/>
+      <c r="B691" s="110"/>
+      <c r="C691" s="110"/>
+      <c r="D691" s="110"/>
+      <c r="E691" s="110"/>
+      <c r="F691" s="110"/>
+      <c r="G691" s="110"/>
+      <c r="H691" s="110"/>
+      <c r="I691" s="110"/>
+      <c r="J691" s="110"/>
+      <c r="K691" s="110"/>
+      <c r="L691" s="110"/>
+      <c r="M691" s="110"/>
+      <c r="N691" s="111"/>
     </row>
     <row r="692" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A692" s="101"/>
-      <c r="B692" s="102"/>
-      <c r="C692" s="102"/>
-      <c r="D692" s="102"/>
-      <c r="E692" s="102"/>
-      <c r="F692" s="102"/>
-      <c r="G692" s="102"/>
-      <c r="H692" s="102"/>
-      <c r="I692" s="102"/>
-      <c r="J692" s="102"/>
-      <c r="K692" s="102"/>
-      <c r="L692" s="102"/>
-      <c r="M692" s="102"/>
-      <c r="N692" s="103"/>
+      <c r="A692" s="112"/>
+      <c r="B692" s="113"/>
+      <c r="C692" s="113"/>
+      <c r="D692" s="113"/>
+      <c r="E692" s="113"/>
+      <c r="F692" s="113"/>
+      <c r="G692" s="113"/>
+      <c r="H692" s="113"/>
+      <c r="I692" s="113"/>
+      <c r="J692" s="113"/>
+      <c r="K692" s="113"/>
+      <c r="L692" s="113"/>
+      <c r="M692" s="113"/>
+      <c r="N692" s="114"/>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
@@ -22511,22 +22510,22 @@
       <c r="N704" s="5"/>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A705" s="127" t="s">
+      <c r="A705" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B705" s="128"/>
-      <c r="C705" s="128"/>
-      <c r="D705" s="128"/>
-      <c r="E705" s="128"/>
-      <c r="F705" s="128"/>
-      <c r="G705" s="128"/>
-      <c r="H705" s="128"/>
-      <c r="I705" s="128"/>
-      <c r="J705" s="128"/>
-      <c r="K705" s="128"/>
-      <c r="L705" s="128"/>
-      <c r="M705" s="128"/>
-      <c r="N705" s="129"/>
+      <c r="B705" s="104"/>
+      <c r="C705" s="104"/>
+      <c r="D705" s="104"/>
+      <c r="E705" s="104"/>
+      <c r="F705" s="104"/>
+      <c r="G705" s="104"/>
+      <c r="H705" s="104"/>
+      <c r="I705" s="104"/>
+      <c r="J705" s="104"/>
+      <c r="K705" s="104"/>
+      <c r="L705" s="104"/>
+      <c r="M705" s="104"/>
+      <c r="N705" s="105"/>
     </row>
     <row r="706" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A706" s="23"/>
@@ -22650,70 +22649,70 @@
     </row>
     <row r="716" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="717" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="95" t="s">
+      <c r="A717" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="B717" s="96"/>
-      <c r="C717" s="96"/>
-      <c r="D717" s="96"/>
-      <c r="E717" s="96"/>
-      <c r="F717" s="96"/>
-      <c r="G717" s="96"/>
-      <c r="H717" s="96"/>
-      <c r="I717" s="96"/>
-      <c r="J717" s="96"/>
-      <c r="K717" s="96"/>
-      <c r="L717" s="96"/>
-      <c r="M717" s="96"/>
-      <c r="N717" s="97"/>
+      <c r="B717" s="107"/>
+      <c r="C717" s="107"/>
+      <c r="D717" s="107"/>
+      <c r="E717" s="107"/>
+      <c r="F717" s="107"/>
+      <c r="G717" s="107"/>
+      <c r="H717" s="107"/>
+      <c r="I717" s="107"/>
+      <c r="J717" s="107"/>
+      <c r="K717" s="107"/>
+      <c r="L717" s="107"/>
+      <c r="M717" s="107"/>
+      <c r="N717" s="108"/>
     </row>
     <row r="718" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="98"/>
-      <c r="B718" s="99"/>
-      <c r="C718" s="99"/>
-      <c r="D718" s="99"/>
-      <c r="E718" s="99"/>
-      <c r="F718" s="99"/>
-      <c r="G718" s="99"/>
-      <c r="H718" s="99"/>
-      <c r="I718" s="99"/>
-      <c r="J718" s="99"/>
-      <c r="K718" s="99"/>
-      <c r="L718" s="99"/>
-      <c r="M718" s="99"/>
-      <c r="N718" s="100"/>
+      <c r="A718" s="109"/>
+      <c r="B718" s="110"/>
+      <c r="C718" s="110"/>
+      <c r="D718" s="110"/>
+      <c r="E718" s="110"/>
+      <c r="F718" s="110"/>
+      <c r="G718" s="110"/>
+      <c r="H718" s="110"/>
+      <c r="I718" s="110"/>
+      <c r="J718" s="110"/>
+      <c r="K718" s="110"/>
+      <c r="L718" s="110"/>
+      <c r="M718" s="110"/>
+      <c r="N718" s="111"/>
     </row>
     <row r="719" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="98"/>
-      <c r="B719" s="99"/>
-      <c r="C719" s="99"/>
-      <c r="D719" s="99"/>
-      <c r="E719" s="99"/>
-      <c r="F719" s="99"/>
-      <c r="G719" s="99"/>
-      <c r="H719" s="99"/>
-      <c r="I719" s="99"/>
-      <c r="J719" s="99"/>
-      <c r="K719" s="99"/>
-      <c r="L719" s="99"/>
-      <c r="M719" s="99"/>
-      <c r="N719" s="100"/>
+      <c r="A719" s="109"/>
+      <c r="B719" s="110"/>
+      <c r="C719" s="110"/>
+      <c r="D719" s="110"/>
+      <c r="E719" s="110"/>
+      <c r="F719" s="110"/>
+      <c r="G719" s="110"/>
+      <c r="H719" s="110"/>
+      <c r="I719" s="110"/>
+      <c r="J719" s="110"/>
+      <c r="K719" s="110"/>
+      <c r="L719" s="110"/>
+      <c r="M719" s="110"/>
+      <c r="N719" s="111"/>
     </row>
     <row r="720" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A720" s="101"/>
-      <c r="B720" s="102"/>
-      <c r="C720" s="102"/>
-      <c r="D720" s="102"/>
-      <c r="E720" s="102"/>
-      <c r="F720" s="102"/>
-      <c r="G720" s="102"/>
-      <c r="H720" s="102"/>
-      <c r="I720" s="102"/>
-      <c r="J720" s="102"/>
-      <c r="K720" s="102"/>
-      <c r="L720" s="102"/>
-      <c r="M720" s="102"/>
-      <c r="N720" s="103"/>
+      <c r="A720" s="112"/>
+      <c r="B720" s="113"/>
+      <c r="C720" s="113"/>
+      <c r="D720" s="113"/>
+      <c r="E720" s="113"/>
+      <c r="F720" s="113"/>
+      <c r="G720" s="113"/>
+      <c r="H720" s="113"/>
+      <c r="I720" s="113"/>
+      <c r="J720" s="113"/>
+      <c r="K720" s="113"/>
+      <c r="L720" s="113"/>
+      <c r="M720" s="113"/>
+      <c r="N720" s="114"/>
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A721" s="4" t="s">
@@ -23056,22 +23055,22 @@
       <c r="N732" s="5"/>
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A733" s="127" t="s">
+      <c r="A733" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B733" s="128"/>
-      <c r="C733" s="128"/>
-      <c r="D733" s="128"/>
-      <c r="E733" s="128"/>
-      <c r="F733" s="128"/>
-      <c r="G733" s="128"/>
-      <c r="H733" s="128"/>
-      <c r="I733" s="128"/>
-      <c r="J733" s="128"/>
-      <c r="K733" s="128"/>
-      <c r="L733" s="128"/>
-      <c r="M733" s="128"/>
-      <c r="N733" s="129"/>
+      <c r="B733" s="104"/>
+      <c r="C733" s="104"/>
+      <c r="D733" s="104"/>
+      <c r="E733" s="104"/>
+      <c r="F733" s="104"/>
+      <c r="G733" s="104"/>
+      <c r="H733" s="104"/>
+      <c r="I733" s="104"/>
+      <c r="J733" s="104"/>
+      <c r="K733" s="104"/>
+      <c r="L733" s="104"/>
+      <c r="M733" s="104"/>
+      <c r="N733" s="105"/>
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A734" s="23"/>
@@ -23191,89 +23190,89 @@
     </row>
     <row r="744" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="745" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A745" s="109" t="s">
+      <c r="A745" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="B745" s="110"/>
-      <c r="C745" s="110"/>
-      <c r="D745" s="110"/>
-      <c r="E745" s="110"/>
-      <c r="F745" s="110"/>
-      <c r="G745" s="110"/>
-      <c r="H745" s="110"/>
-      <c r="I745" s="110"/>
-      <c r="J745" s="110"/>
-      <c r="K745" s="110"/>
-      <c r="L745" s="110"/>
-      <c r="M745" s="110"/>
-      <c r="N745" s="111"/>
+      <c r="B745" s="120"/>
+      <c r="C745" s="120"/>
+      <c r="D745" s="120"/>
+      <c r="E745" s="120"/>
+      <c r="F745" s="120"/>
+      <c r="G745" s="120"/>
+      <c r="H745" s="120"/>
+      <c r="I745" s="120"/>
+      <c r="J745" s="120"/>
+      <c r="K745" s="120"/>
+      <c r="L745" s="120"/>
+      <c r="M745" s="120"/>
+      <c r="N745" s="121"/>
     </row>
     <row r="746" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A747" s="95" t="s">
+      <c r="A747" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="B747" s="115"/>
-      <c r="C747" s="115"/>
-      <c r="D747" s="115"/>
-      <c r="E747" s="115"/>
-      <c r="F747" s="115"/>
-      <c r="G747" s="115"/>
-      <c r="H747" s="115"/>
-      <c r="I747" s="115"/>
-      <c r="J747" s="115"/>
-      <c r="K747" s="115"/>
-      <c r="L747" s="115"/>
-      <c r="M747" s="115"/>
-      <c r="N747" s="116"/>
+      <c r="B747" s="133"/>
+      <c r="C747" s="133"/>
+      <c r="D747" s="133"/>
+      <c r="E747" s="133"/>
+      <c r="F747" s="133"/>
+      <c r="G747" s="133"/>
+      <c r="H747" s="133"/>
+      <c r="I747" s="133"/>
+      <c r="J747" s="133"/>
+      <c r="K747" s="133"/>
+      <c r="L747" s="133"/>
+      <c r="M747" s="133"/>
+      <c r="N747" s="134"/>
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A748" s="117"/>
-      <c r="B748" s="118"/>
-      <c r="C748" s="118"/>
-      <c r="D748" s="118"/>
-      <c r="E748" s="118"/>
-      <c r="F748" s="118"/>
-      <c r="G748" s="118"/>
-      <c r="H748" s="118"/>
-      <c r="I748" s="118"/>
-      <c r="J748" s="118"/>
-      <c r="K748" s="118"/>
-      <c r="L748" s="118"/>
-      <c r="M748" s="118"/>
-      <c r="N748" s="119"/>
+      <c r="A748" s="135"/>
+      <c r="B748" s="136"/>
+      <c r="C748" s="136"/>
+      <c r="D748" s="136"/>
+      <c r="E748" s="136"/>
+      <c r="F748" s="136"/>
+      <c r="G748" s="136"/>
+      <c r="H748" s="136"/>
+      <c r="I748" s="136"/>
+      <c r="J748" s="136"/>
+      <c r="K748" s="136"/>
+      <c r="L748" s="136"/>
+      <c r="M748" s="136"/>
+      <c r="N748" s="137"/>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A749" s="117"/>
-      <c r="B749" s="118"/>
-      <c r="C749" s="118"/>
-      <c r="D749" s="118"/>
-      <c r="E749" s="118"/>
-      <c r="F749" s="118"/>
-      <c r="G749" s="118"/>
-      <c r="H749" s="118"/>
-      <c r="I749" s="118"/>
-      <c r="J749" s="118"/>
-      <c r="K749" s="118"/>
-      <c r="L749" s="118"/>
-      <c r="M749" s="118"/>
-      <c r="N749" s="119"/>
+      <c r="A749" s="135"/>
+      <c r="B749" s="136"/>
+      <c r="C749" s="136"/>
+      <c r="D749" s="136"/>
+      <c r="E749" s="136"/>
+      <c r="F749" s="136"/>
+      <c r="G749" s="136"/>
+      <c r="H749" s="136"/>
+      <c r="I749" s="136"/>
+      <c r="J749" s="136"/>
+      <c r="K749" s="136"/>
+      <c r="L749" s="136"/>
+      <c r="M749" s="136"/>
+      <c r="N749" s="137"/>
     </row>
     <row r="750" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A750" s="120"/>
-      <c r="B750" s="121"/>
-      <c r="C750" s="121"/>
-      <c r="D750" s="121"/>
-      <c r="E750" s="121"/>
-      <c r="F750" s="121"/>
-      <c r="G750" s="121"/>
-      <c r="H750" s="121"/>
-      <c r="I750" s="121"/>
-      <c r="J750" s="121"/>
-      <c r="K750" s="121"/>
-      <c r="L750" s="121"/>
-      <c r="M750" s="121"/>
-      <c r="N750" s="122"/>
+      <c r="A750" s="138"/>
+      <c r="B750" s="139"/>
+      <c r="C750" s="139"/>
+      <c r="D750" s="139"/>
+      <c r="E750" s="139"/>
+      <c r="F750" s="139"/>
+      <c r="G750" s="139"/>
+      <c r="H750" s="139"/>
+      <c r="I750" s="139"/>
+      <c r="J750" s="139"/>
+      <c r="K750" s="139"/>
+      <c r="L750" s="139"/>
+      <c r="M750" s="139"/>
+      <c r="N750" s="140"/>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A751" s="4" t="s">
@@ -23616,22 +23615,22 @@
       <c r="N762" s="5"/>
     </row>
     <row r="763" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A763" s="127" t="s">
+      <c r="A763" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B763" s="128"/>
-      <c r="C763" s="128"/>
-      <c r="D763" s="128"/>
-      <c r="E763" s="128"/>
-      <c r="F763" s="128"/>
-      <c r="G763" s="128"/>
-      <c r="H763" s="128"/>
-      <c r="I763" s="128"/>
-      <c r="J763" s="128"/>
-      <c r="K763" s="128"/>
-      <c r="L763" s="128"/>
-      <c r="M763" s="128"/>
-      <c r="N763" s="129"/>
+      <c r="B763" s="104"/>
+      <c r="C763" s="104"/>
+      <c r="D763" s="104"/>
+      <c r="E763" s="104"/>
+      <c r="F763" s="104"/>
+      <c r="G763" s="104"/>
+      <c r="H763" s="104"/>
+      <c r="I763" s="104"/>
+      <c r="J763" s="104"/>
+      <c r="K763" s="104"/>
+      <c r="L763" s="104"/>
+      <c r="M763" s="104"/>
+      <c r="N763" s="105"/>
     </row>
     <row r="764" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A764" s="23"/>
@@ -23780,70 +23779,70 @@
     </row>
     <row r="775" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="776" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A776" s="95" t="s">
+      <c r="A776" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="B776" s="115"/>
-      <c r="C776" s="115"/>
-      <c r="D776" s="115"/>
-      <c r="E776" s="115"/>
-      <c r="F776" s="115"/>
-      <c r="G776" s="115"/>
-      <c r="H776" s="115"/>
-      <c r="I776" s="115"/>
-      <c r="J776" s="115"/>
-      <c r="K776" s="115"/>
-      <c r="L776" s="115"/>
-      <c r="M776" s="115"/>
-      <c r="N776" s="116"/>
+      <c r="B776" s="133"/>
+      <c r="C776" s="133"/>
+      <c r="D776" s="133"/>
+      <c r="E776" s="133"/>
+      <c r="F776" s="133"/>
+      <c r="G776" s="133"/>
+      <c r="H776" s="133"/>
+      <c r="I776" s="133"/>
+      <c r="J776" s="133"/>
+      <c r="K776" s="133"/>
+      <c r="L776" s="133"/>
+      <c r="M776" s="133"/>
+      <c r="N776" s="134"/>
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A777" s="117"/>
-      <c r="B777" s="118"/>
-      <c r="C777" s="118"/>
-      <c r="D777" s="118"/>
-      <c r="E777" s="118"/>
-      <c r="F777" s="118"/>
-      <c r="G777" s="118"/>
-      <c r="H777" s="118"/>
-      <c r="I777" s="118"/>
-      <c r="J777" s="118"/>
-      <c r="K777" s="118"/>
-      <c r="L777" s="118"/>
-      <c r="M777" s="118"/>
-      <c r="N777" s="119"/>
+      <c r="A777" s="135"/>
+      <c r="B777" s="136"/>
+      <c r="C777" s="136"/>
+      <c r="D777" s="136"/>
+      <c r="E777" s="136"/>
+      <c r="F777" s="136"/>
+      <c r="G777" s="136"/>
+      <c r="H777" s="136"/>
+      <c r="I777" s="136"/>
+      <c r="J777" s="136"/>
+      <c r="K777" s="136"/>
+      <c r="L777" s="136"/>
+      <c r="M777" s="136"/>
+      <c r="N777" s="137"/>
     </row>
     <row r="778" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A778" s="117"/>
-      <c r="B778" s="118"/>
-      <c r="C778" s="118"/>
-      <c r="D778" s="118"/>
-      <c r="E778" s="118"/>
-      <c r="F778" s="118"/>
-      <c r="G778" s="118"/>
-      <c r="H778" s="118"/>
-      <c r="I778" s="118"/>
-      <c r="J778" s="118"/>
-      <c r="K778" s="118"/>
-      <c r="L778" s="118"/>
-      <c r="M778" s="118"/>
-      <c r="N778" s="119"/>
+      <c r="A778" s="135"/>
+      <c r="B778" s="136"/>
+      <c r="C778" s="136"/>
+      <c r="D778" s="136"/>
+      <c r="E778" s="136"/>
+      <c r="F778" s="136"/>
+      <c r="G778" s="136"/>
+      <c r="H778" s="136"/>
+      <c r="I778" s="136"/>
+      <c r="J778" s="136"/>
+      <c r="K778" s="136"/>
+      <c r="L778" s="136"/>
+      <c r="M778" s="136"/>
+      <c r="N778" s="137"/>
     </row>
     <row r="779" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A779" s="120"/>
-      <c r="B779" s="121"/>
-      <c r="C779" s="121"/>
-      <c r="D779" s="121"/>
-      <c r="E779" s="121"/>
-      <c r="F779" s="121"/>
-      <c r="G779" s="121"/>
-      <c r="H779" s="121"/>
-      <c r="I779" s="121"/>
-      <c r="J779" s="121"/>
-      <c r="K779" s="121"/>
-      <c r="L779" s="121"/>
-      <c r="M779" s="121"/>
-      <c r="N779" s="122"/>
+      <c r="A779" s="138"/>
+      <c r="B779" s="139"/>
+      <c r="C779" s="139"/>
+      <c r="D779" s="139"/>
+      <c r="E779" s="139"/>
+      <c r="F779" s="139"/>
+      <c r="G779" s="139"/>
+      <c r="H779" s="139"/>
+      <c r="I779" s="139"/>
+      <c r="J779" s="139"/>
+      <c r="K779" s="139"/>
+      <c r="L779" s="139"/>
+      <c r="M779" s="139"/>
+      <c r="N779" s="140"/>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A780" s="4" t="s">
@@ -24186,22 +24185,22 @@
       <c r="N791" s="5"/>
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A792" s="127" t="s">
+      <c r="A792" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B792" s="128"/>
-      <c r="C792" s="128"/>
-      <c r="D792" s="128"/>
-      <c r="E792" s="128"/>
-      <c r="F792" s="128"/>
-      <c r="G792" s="128"/>
-      <c r="H792" s="128"/>
-      <c r="I792" s="128"/>
-      <c r="J792" s="128"/>
-      <c r="K792" s="128"/>
-      <c r="L792" s="128"/>
-      <c r="M792" s="128"/>
-      <c r="N792" s="129"/>
+      <c r="B792" s="104"/>
+      <c r="C792" s="104"/>
+      <c r="D792" s="104"/>
+      <c r="E792" s="104"/>
+      <c r="F792" s="104"/>
+      <c r="G792" s="104"/>
+      <c r="H792" s="104"/>
+      <c r="I792" s="104"/>
+      <c r="J792" s="104"/>
+      <c r="K792" s="104"/>
+      <c r="L792" s="104"/>
+      <c r="M792" s="104"/>
+      <c r="N792" s="105"/>
     </row>
     <row r="793" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A793" s="23"/>
@@ -24337,70 +24336,70 @@
     </row>
     <row r="803" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="804" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A804" s="95" t="s">
+      <c r="A804" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="B804" s="115"/>
-      <c r="C804" s="115"/>
-      <c r="D804" s="115"/>
-      <c r="E804" s="115"/>
-      <c r="F804" s="115"/>
-      <c r="G804" s="115"/>
-      <c r="H804" s="115"/>
-      <c r="I804" s="115"/>
-      <c r="J804" s="115"/>
-      <c r="K804" s="115"/>
-      <c r="L804" s="115"/>
-      <c r="M804" s="115"/>
-      <c r="N804" s="116"/>
+      <c r="B804" s="133"/>
+      <c r="C804" s="133"/>
+      <c r="D804" s="133"/>
+      <c r="E804" s="133"/>
+      <c r="F804" s="133"/>
+      <c r="G804" s="133"/>
+      <c r="H804" s="133"/>
+      <c r="I804" s="133"/>
+      <c r="J804" s="133"/>
+      <c r="K804" s="133"/>
+      <c r="L804" s="133"/>
+      <c r="M804" s="133"/>
+      <c r="N804" s="134"/>
     </row>
     <row r="805" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A805" s="117"/>
-      <c r="B805" s="118"/>
-      <c r="C805" s="118"/>
-      <c r="D805" s="118"/>
-      <c r="E805" s="118"/>
-      <c r="F805" s="118"/>
-      <c r="G805" s="118"/>
-      <c r="H805" s="118"/>
-      <c r="I805" s="118"/>
-      <c r="J805" s="118"/>
-      <c r="K805" s="118"/>
-      <c r="L805" s="118"/>
-      <c r="M805" s="118"/>
-      <c r="N805" s="119"/>
+      <c r="A805" s="135"/>
+      <c r="B805" s="136"/>
+      <c r="C805" s="136"/>
+      <c r="D805" s="136"/>
+      <c r="E805" s="136"/>
+      <c r="F805" s="136"/>
+      <c r="G805" s="136"/>
+      <c r="H805" s="136"/>
+      <c r="I805" s="136"/>
+      <c r="J805" s="136"/>
+      <c r="K805" s="136"/>
+      <c r="L805" s="136"/>
+      <c r="M805" s="136"/>
+      <c r="N805" s="137"/>
     </row>
     <row r="806" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A806" s="117"/>
-      <c r="B806" s="118"/>
-      <c r="C806" s="118"/>
-      <c r="D806" s="118"/>
-      <c r="E806" s="118"/>
-      <c r="F806" s="118"/>
-      <c r="G806" s="118"/>
-      <c r="H806" s="118"/>
-      <c r="I806" s="118"/>
-      <c r="J806" s="118"/>
-      <c r="K806" s="118"/>
-      <c r="L806" s="118"/>
-      <c r="M806" s="118"/>
-      <c r="N806" s="119"/>
+      <c r="A806" s="135"/>
+      <c r="B806" s="136"/>
+      <c r="C806" s="136"/>
+      <c r="D806" s="136"/>
+      <c r="E806" s="136"/>
+      <c r="F806" s="136"/>
+      <c r="G806" s="136"/>
+      <c r="H806" s="136"/>
+      <c r="I806" s="136"/>
+      <c r="J806" s="136"/>
+      <c r="K806" s="136"/>
+      <c r="L806" s="136"/>
+      <c r="M806" s="136"/>
+      <c r="N806" s="137"/>
     </row>
     <row r="807" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A807" s="120"/>
-      <c r="B807" s="121"/>
-      <c r="C807" s="121"/>
-      <c r="D807" s="121"/>
-      <c r="E807" s="121"/>
-      <c r="F807" s="121"/>
-      <c r="G807" s="121"/>
-      <c r="H807" s="121"/>
-      <c r="I807" s="121"/>
-      <c r="J807" s="121"/>
-      <c r="K807" s="121"/>
-      <c r="L807" s="121"/>
-      <c r="M807" s="121"/>
-      <c r="N807" s="122"/>
+      <c r="A807" s="138"/>
+      <c r="B807" s="139"/>
+      <c r="C807" s="139"/>
+      <c r="D807" s="139"/>
+      <c r="E807" s="139"/>
+      <c r="F807" s="139"/>
+      <c r="G807" s="139"/>
+      <c r="H807" s="139"/>
+      <c r="I807" s="139"/>
+      <c r="J807" s="139"/>
+      <c r="K807" s="139"/>
+      <c r="L807" s="139"/>
+      <c r="M807" s="139"/>
+      <c r="N807" s="140"/>
     </row>
     <row r="808" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A808" s="4" t="s">
@@ -24776,22 +24775,22 @@
       <c r="N820" s="5"/>
     </row>
     <row r="821" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A821" s="127" t="s">
+      <c r="A821" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B821" s="128"/>
-      <c r="C821" s="128"/>
-      <c r="D821" s="128"/>
-      <c r="E821" s="128"/>
-      <c r="F821" s="128"/>
-      <c r="G821" s="128"/>
-      <c r="H821" s="128"/>
-      <c r="I821" s="128"/>
-      <c r="J821" s="128"/>
-      <c r="K821" s="128"/>
-      <c r="L821" s="128"/>
-      <c r="M821" s="128"/>
-      <c r="N821" s="129"/>
+      <c r="B821" s="104"/>
+      <c r="C821" s="104"/>
+      <c r="D821" s="104"/>
+      <c r="E821" s="104"/>
+      <c r="F821" s="104"/>
+      <c r="G821" s="104"/>
+      <c r="H821" s="104"/>
+      <c r="I821" s="104"/>
+      <c r="J821" s="104"/>
+      <c r="K821" s="104"/>
+      <c r="L821" s="104"/>
+      <c r="M821" s="104"/>
+      <c r="N821" s="105"/>
     </row>
     <row r="822" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A822" s="23"/>
@@ -24929,70 +24928,70 @@
     </row>
     <row r="832" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="833" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A833" s="95" t="s">
+      <c r="A833" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="B833" s="115"/>
-      <c r="C833" s="115"/>
-      <c r="D833" s="115"/>
-      <c r="E833" s="115"/>
-      <c r="F833" s="115"/>
-      <c r="G833" s="115"/>
-      <c r="H833" s="115"/>
-      <c r="I833" s="115"/>
-      <c r="J833" s="115"/>
-      <c r="K833" s="115"/>
-      <c r="L833" s="115"/>
-      <c r="M833" s="115"/>
-      <c r="N833" s="116"/>
+      <c r="B833" s="133"/>
+      <c r="C833" s="133"/>
+      <c r="D833" s="133"/>
+      <c r="E833" s="133"/>
+      <c r="F833" s="133"/>
+      <c r="G833" s="133"/>
+      <c r="H833" s="133"/>
+      <c r="I833" s="133"/>
+      <c r="J833" s="133"/>
+      <c r="K833" s="133"/>
+      <c r="L833" s="133"/>
+      <c r="M833" s="133"/>
+      <c r="N833" s="134"/>
     </row>
     <row r="834" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A834" s="117"/>
-      <c r="B834" s="118"/>
-      <c r="C834" s="118"/>
-      <c r="D834" s="118"/>
-      <c r="E834" s="118"/>
-      <c r="F834" s="118"/>
-      <c r="G834" s="118"/>
-      <c r="H834" s="118"/>
-      <c r="I834" s="118"/>
-      <c r="J834" s="118"/>
-      <c r="K834" s="118"/>
-      <c r="L834" s="118"/>
-      <c r="M834" s="118"/>
-      <c r="N834" s="119"/>
+      <c r="A834" s="135"/>
+      <c r="B834" s="136"/>
+      <c r="C834" s="136"/>
+      <c r="D834" s="136"/>
+      <c r="E834" s="136"/>
+      <c r="F834" s="136"/>
+      <c r="G834" s="136"/>
+      <c r="H834" s="136"/>
+      <c r="I834" s="136"/>
+      <c r="J834" s="136"/>
+      <c r="K834" s="136"/>
+      <c r="L834" s="136"/>
+      <c r="M834" s="136"/>
+      <c r="N834" s="137"/>
     </row>
     <row r="835" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A835" s="117"/>
-      <c r="B835" s="118"/>
-      <c r="C835" s="118"/>
-      <c r="D835" s="118"/>
-      <c r="E835" s="118"/>
-      <c r="F835" s="118"/>
-      <c r="G835" s="118"/>
-      <c r="H835" s="118"/>
-      <c r="I835" s="118"/>
-      <c r="J835" s="118"/>
-      <c r="K835" s="118"/>
-      <c r="L835" s="118"/>
-      <c r="M835" s="118"/>
-      <c r="N835" s="119"/>
+      <c r="A835" s="135"/>
+      <c r="B835" s="136"/>
+      <c r="C835" s="136"/>
+      <c r="D835" s="136"/>
+      <c r="E835" s="136"/>
+      <c r="F835" s="136"/>
+      <c r="G835" s="136"/>
+      <c r="H835" s="136"/>
+      <c r="I835" s="136"/>
+      <c r="J835" s="136"/>
+      <c r="K835" s="136"/>
+      <c r="L835" s="136"/>
+      <c r="M835" s="136"/>
+      <c r="N835" s="137"/>
     </row>
     <row r="836" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A836" s="120"/>
-      <c r="B836" s="121"/>
-      <c r="C836" s="121"/>
-      <c r="D836" s="121"/>
-      <c r="E836" s="121"/>
-      <c r="F836" s="121"/>
-      <c r="G836" s="121"/>
-      <c r="H836" s="121"/>
-      <c r="I836" s="121"/>
-      <c r="J836" s="121"/>
-      <c r="K836" s="121"/>
-      <c r="L836" s="121"/>
-      <c r="M836" s="121"/>
-      <c r="N836" s="122"/>
+      <c r="A836" s="138"/>
+      <c r="B836" s="139"/>
+      <c r="C836" s="139"/>
+      <c r="D836" s="139"/>
+      <c r="E836" s="139"/>
+      <c r="F836" s="139"/>
+      <c r="G836" s="139"/>
+      <c r="H836" s="139"/>
+      <c r="I836" s="139"/>
+      <c r="J836" s="139"/>
+      <c r="K836" s="139"/>
+      <c r="L836" s="139"/>
+      <c r="M836" s="139"/>
+      <c r="N836" s="140"/>
     </row>
     <row r="837" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A837" s="4" t="s">
@@ -25401,22 +25400,22 @@
       <c r="N850" s="5"/>
     </row>
     <row r="851" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A851" s="127" t="s">
+      <c r="A851" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B851" s="128"/>
-      <c r="C851" s="128"/>
-      <c r="D851" s="128"/>
-      <c r="E851" s="128"/>
-      <c r="F851" s="128"/>
-      <c r="G851" s="128"/>
-      <c r="H851" s="128"/>
-      <c r="I851" s="128"/>
-      <c r="J851" s="128"/>
-      <c r="K851" s="128"/>
-      <c r="L851" s="128"/>
-      <c r="M851" s="128"/>
-      <c r="N851" s="129"/>
+      <c r="B851" s="104"/>
+      <c r="C851" s="104"/>
+      <c r="D851" s="104"/>
+      <c r="E851" s="104"/>
+      <c r="F851" s="104"/>
+      <c r="G851" s="104"/>
+      <c r="H851" s="104"/>
+      <c r="I851" s="104"/>
+      <c r="J851" s="104"/>
+      <c r="K851" s="104"/>
+      <c r="L851" s="104"/>
+      <c r="M851" s="104"/>
+      <c r="N851" s="105"/>
     </row>
     <row r="852" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A852" s="23"/>
@@ -25554,70 +25553,70 @@
     </row>
     <row r="862" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="863" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A863" s="95" t="s">
+      <c r="A863" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="B863" s="115"/>
-      <c r="C863" s="115"/>
-      <c r="D863" s="115"/>
-      <c r="E863" s="115"/>
-      <c r="F863" s="115"/>
-      <c r="G863" s="115"/>
-      <c r="H863" s="115"/>
-      <c r="I863" s="115"/>
-      <c r="J863" s="115"/>
-      <c r="K863" s="115"/>
-      <c r="L863" s="115"/>
-      <c r="M863" s="115"/>
-      <c r="N863" s="116"/>
+      <c r="B863" s="133"/>
+      <c r="C863" s="133"/>
+      <c r="D863" s="133"/>
+      <c r="E863" s="133"/>
+      <c r="F863" s="133"/>
+      <c r="G863" s="133"/>
+      <c r="H863" s="133"/>
+      <c r="I863" s="133"/>
+      <c r="J863" s="133"/>
+      <c r="K863" s="133"/>
+      <c r="L863" s="133"/>
+      <c r="M863" s="133"/>
+      <c r="N863" s="134"/>
     </row>
     <row r="864" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A864" s="117"/>
-      <c r="B864" s="118"/>
-      <c r="C864" s="118"/>
-      <c r="D864" s="118"/>
-      <c r="E864" s="118"/>
-      <c r="F864" s="118"/>
-      <c r="G864" s="118"/>
-      <c r="H864" s="118"/>
-      <c r="I864" s="118"/>
-      <c r="J864" s="118"/>
-      <c r="K864" s="118"/>
-      <c r="L864" s="118"/>
-      <c r="M864" s="118"/>
-      <c r="N864" s="119"/>
+      <c r="A864" s="135"/>
+      <c r="B864" s="136"/>
+      <c r="C864" s="136"/>
+      <c r="D864" s="136"/>
+      <c r="E864" s="136"/>
+      <c r="F864" s="136"/>
+      <c r="G864" s="136"/>
+      <c r="H864" s="136"/>
+      <c r="I864" s="136"/>
+      <c r="J864" s="136"/>
+      <c r="K864" s="136"/>
+      <c r="L864" s="136"/>
+      <c r="M864" s="136"/>
+      <c r="N864" s="137"/>
     </row>
     <row r="865" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A865" s="117"/>
-      <c r="B865" s="118"/>
-      <c r="C865" s="118"/>
-      <c r="D865" s="118"/>
-      <c r="E865" s="118"/>
-      <c r="F865" s="118"/>
-      <c r="G865" s="118"/>
-      <c r="H865" s="118"/>
-      <c r="I865" s="118"/>
-      <c r="J865" s="118"/>
-      <c r="K865" s="118"/>
-      <c r="L865" s="118"/>
-      <c r="M865" s="118"/>
-      <c r="N865" s="119"/>
+      <c r="A865" s="135"/>
+      <c r="B865" s="136"/>
+      <c r="C865" s="136"/>
+      <c r="D865" s="136"/>
+      <c r="E865" s="136"/>
+      <c r="F865" s="136"/>
+      <c r="G865" s="136"/>
+      <c r="H865" s="136"/>
+      <c r="I865" s="136"/>
+      <c r="J865" s="136"/>
+      <c r="K865" s="136"/>
+      <c r="L865" s="136"/>
+      <c r="M865" s="136"/>
+      <c r="N865" s="137"/>
     </row>
     <row r="866" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A866" s="120"/>
-      <c r="B866" s="121"/>
-      <c r="C866" s="121"/>
-      <c r="D866" s="121"/>
-      <c r="E866" s="121"/>
-      <c r="F866" s="121"/>
-      <c r="G866" s="121"/>
-      <c r="H866" s="121"/>
-      <c r="I866" s="121"/>
-      <c r="J866" s="121"/>
-      <c r="K866" s="121"/>
-      <c r="L866" s="121"/>
-      <c r="M866" s="121"/>
-      <c r="N866" s="122"/>
+      <c r="A866" s="138"/>
+      <c r="B866" s="139"/>
+      <c r="C866" s="139"/>
+      <c r="D866" s="139"/>
+      <c r="E866" s="139"/>
+      <c r="F866" s="139"/>
+      <c r="G866" s="139"/>
+      <c r="H866" s="139"/>
+      <c r="I866" s="139"/>
+      <c r="J866" s="139"/>
+      <c r="K866" s="139"/>
+      <c r="L866" s="139"/>
+      <c r="M866" s="139"/>
+      <c r="N866" s="140"/>
     </row>
     <row r="867" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A867" s="4" t="s">
@@ -26035,22 +26034,22 @@
       <c r="N881" s="5"/>
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A882" s="127" t="s">
+      <c r="A882" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B882" s="128"/>
-      <c r="C882" s="128"/>
-      <c r="D882" s="128"/>
-      <c r="E882" s="128"/>
-      <c r="F882" s="128"/>
-      <c r="G882" s="128"/>
-      <c r="H882" s="128"/>
-      <c r="I882" s="128"/>
-      <c r="J882" s="128"/>
-      <c r="K882" s="128"/>
-      <c r="L882" s="128"/>
-      <c r="M882" s="128"/>
-      <c r="N882" s="129"/>
+      <c r="B882" s="104"/>
+      <c r="C882" s="104"/>
+      <c r="D882" s="104"/>
+      <c r="E882" s="104"/>
+      <c r="F882" s="104"/>
+      <c r="G882" s="104"/>
+      <c r="H882" s="104"/>
+      <c r="I882" s="104"/>
+      <c r="J882" s="104"/>
+      <c r="K882" s="104"/>
+      <c r="L882" s="104"/>
+      <c r="M882" s="104"/>
+      <c r="N882" s="105"/>
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A883" s="23"/>
@@ -26185,89 +26184,89 @@
       <c r="N892" s="19"/>
     </row>
     <row r="894" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="130" t="s">
+      <c r="A894" s="143" t="s">
         <v>234</v>
       </c>
-      <c r="B894" s="130"/>
-      <c r="C894" s="130"/>
-      <c r="D894" s="130"/>
-      <c r="E894" s="130"/>
-      <c r="F894" s="130"/>
-      <c r="G894" s="130"/>
-      <c r="H894" s="130"/>
-      <c r="I894" s="130"/>
-      <c r="J894" s="130"/>
-      <c r="K894" s="130"/>
-      <c r="L894" s="130"/>
-      <c r="M894" s="130"/>
-      <c r="N894" s="130"/>
+      <c r="B894" s="143"/>
+      <c r="C894" s="143"/>
+      <c r="D894" s="143"/>
+      <c r="E894" s="143"/>
+      <c r="F894" s="143"/>
+      <c r="G894" s="143"/>
+      <c r="H894" s="143"/>
+      <c r="I894" s="143"/>
+      <c r="J894" s="143"/>
+      <c r="K894" s="143"/>
+      <c r="L894" s="143"/>
+      <c r="M894" s="143"/>
+      <c r="N894" s="143"/>
     </row>
     <row r="895" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="896" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A896" s="95" t="s">
+      <c r="A896" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="B896" s="115"/>
-      <c r="C896" s="115"/>
-      <c r="D896" s="115"/>
-      <c r="E896" s="115"/>
-      <c r="F896" s="115"/>
-      <c r="G896" s="115"/>
-      <c r="H896" s="115"/>
-      <c r="I896" s="115"/>
-      <c r="J896" s="115"/>
-      <c r="K896" s="115"/>
-      <c r="L896" s="115"/>
-      <c r="M896" s="115"/>
-      <c r="N896" s="116"/>
+      <c r="B896" s="133"/>
+      <c r="C896" s="133"/>
+      <c r="D896" s="133"/>
+      <c r="E896" s="133"/>
+      <c r="F896" s="133"/>
+      <c r="G896" s="133"/>
+      <c r="H896" s="133"/>
+      <c r="I896" s="133"/>
+      <c r="J896" s="133"/>
+      <c r="K896" s="133"/>
+      <c r="L896" s="133"/>
+      <c r="M896" s="133"/>
+      <c r="N896" s="134"/>
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A897" s="117"/>
-      <c r="B897" s="118"/>
-      <c r="C897" s="118"/>
-      <c r="D897" s="118"/>
-      <c r="E897" s="118"/>
-      <c r="F897" s="118"/>
-      <c r="G897" s="118"/>
-      <c r="H897" s="118"/>
-      <c r="I897" s="118"/>
-      <c r="J897" s="118"/>
-      <c r="K897" s="118"/>
-      <c r="L897" s="118"/>
-      <c r="M897" s="118"/>
-      <c r="N897" s="119"/>
+      <c r="A897" s="135"/>
+      <c r="B897" s="136"/>
+      <c r="C897" s="136"/>
+      <c r="D897" s="136"/>
+      <c r="E897" s="136"/>
+      <c r="F897" s="136"/>
+      <c r="G897" s="136"/>
+      <c r="H897" s="136"/>
+      <c r="I897" s="136"/>
+      <c r="J897" s="136"/>
+      <c r="K897" s="136"/>
+      <c r="L897" s="136"/>
+      <c r="M897" s="136"/>
+      <c r="N897" s="137"/>
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A898" s="117"/>
-      <c r="B898" s="118"/>
-      <c r="C898" s="118"/>
-      <c r="D898" s="118"/>
-      <c r="E898" s="118"/>
-      <c r="F898" s="118"/>
-      <c r="G898" s="118"/>
-      <c r="H898" s="118"/>
-      <c r="I898" s="118"/>
-      <c r="J898" s="118"/>
-      <c r="K898" s="118"/>
-      <c r="L898" s="118"/>
-      <c r="M898" s="118"/>
-      <c r="N898" s="119"/>
+      <c r="A898" s="135"/>
+      <c r="B898" s="136"/>
+      <c r="C898" s="136"/>
+      <c r="D898" s="136"/>
+      <c r="E898" s="136"/>
+      <c r="F898" s="136"/>
+      <c r="G898" s="136"/>
+      <c r="H898" s="136"/>
+      <c r="I898" s="136"/>
+      <c r="J898" s="136"/>
+      <c r="K898" s="136"/>
+      <c r="L898" s="136"/>
+      <c r="M898" s="136"/>
+      <c r="N898" s="137"/>
     </row>
     <row r="899" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A899" s="120"/>
-      <c r="B899" s="121"/>
-      <c r="C899" s="121"/>
-      <c r="D899" s="121"/>
-      <c r="E899" s="121"/>
-      <c r="F899" s="121"/>
-      <c r="G899" s="121"/>
-      <c r="H899" s="121"/>
-      <c r="I899" s="121"/>
-      <c r="J899" s="121"/>
-      <c r="K899" s="121"/>
-      <c r="L899" s="121"/>
-      <c r="M899" s="121"/>
-      <c r="N899" s="122"/>
+      <c r="A899" s="138"/>
+      <c r="B899" s="139"/>
+      <c r="C899" s="139"/>
+      <c r="D899" s="139"/>
+      <c r="E899" s="139"/>
+      <c r="F899" s="139"/>
+      <c r="G899" s="139"/>
+      <c r="H899" s="139"/>
+      <c r="I899" s="139"/>
+      <c r="J899" s="139"/>
+      <c r="K899" s="139"/>
+      <c r="L899" s="139"/>
+      <c r="M899" s="139"/>
+      <c r="N899" s="140"/>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A900" s="4" t="s">
@@ -26370,22 +26369,22 @@
       <c r="N904" s="5"/>
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A905" s="127" t="s">
+      <c r="A905" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B905" s="128"/>
-      <c r="C905" s="128"/>
-      <c r="D905" s="128"/>
-      <c r="E905" s="128"/>
-      <c r="F905" s="128"/>
-      <c r="G905" s="128"/>
-      <c r="H905" s="128"/>
-      <c r="I905" s="128"/>
-      <c r="J905" s="128"/>
-      <c r="K905" s="128"/>
-      <c r="L905" s="128"/>
-      <c r="M905" s="128"/>
-      <c r="N905" s="129"/>
+      <c r="B905" s="104"/>
+      <c r="C905" s="104"/>
+      <c r="D905" s="104"/>
+      <c r="E905" s="104"/>
+      <c r="F905" s="104"/>
+      <c r="G905" s="104"/>
+      <c r="H905" s="104"/>
+      <c r="I905" s="104"/>
+      <c r="J905" s="104"/>
+      <c r="K905" s="104"/>
+      <c r="L905" s="104"/>
+      <c r="M905" s="104"/>
+      <c r="N905" s="105"/>
     </row>
     <row r="906" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A906" s="23"/>
@@ -26477,70 +26476,70 @@
     </row>
     <row r="912" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="913" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A913" s="95" t="s">
+      <c r="A913" s="106" t="s">
         <v>244</v>
       </c>
-      <c r="B913" s="115"/>
-      <c r="C913" s="115"/>
-      <c r="D913" s="115"/>
-      <c r="E913" s="115"/>
-      <c r="F913" s="115"/>
-      <c r="G913" s="115"/>
-      <c r="H913" s="115"/>
-      <c r="I913" s="115"/>
-      <c r="J913" s="115"/>
-      <c r="K913" s="115"/>
-      <c r="L913" s="115"/>
-      <c r="M913" s="115"/>
-      <c r="N913" s="116"/>
+      <c r="B913" s="133"/>
+      <c r="C913" s="133"/>
+      <c r="D913" s="133"/>
+      <c r="E913" s="133"/>
+      <c r="F913" s="133"/>
+      <c r="G913" s="133"/>
+      <c r="H913" s="133"/>
+      <c r="I913" s="133"/>
+      <c r="J913" s="133"/>
+      <c r="K913" s="133"/>
+      <c r="L913" s="133"/>
+      <c r="M913" s="133"/>
+      <c r="N913" s="134"/>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A914" s="117"/>
-      <c r="B914" s="118"/>
-      <c r="C914" s="118"/>
-      <c r="D914" s="118"/>
-      <c r="E914" s="118"/>
-      <c r="F914" s="118"/>
-      <c r="G914" s="118"/>
-      <c r="H914" s="118"/>
-      <c r="I914" s="118"/>
-      <c r="J914" s="118"/>
-      <c r="K914" s="118"/>
-      <c r="L914" s="118"/>
-      <c r="M914" s="118"/>
-      <c r="N914" s="119"/>
+      <c r="A914" s="135"/>
+      <c r="B914" s="136"/>
+      <c r="C914" s="136"/>
+      <c r="D914" s="136"/>
+      <c r="E914" s="136"/>
+      <c r="F914" s="136"/>
+      <c r="G914" s="136"/>
+      <c r="H914" s="136"/>
+      <c r="I914" s="136"/>
+      <c r="J914" s="136"/>
+      <c r="K914" s="136"/>
+      <c r="L914" s="136"/>
+      <c r="M914" s="136"/>
+      <c r="N914" s="137"/>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A915" s="117"/>
-      <c r="B915" s="118"/>
-      <c r="C915" s="118"/>
-      <c r="D915" s="118"/>
-      <c r="E915" s="118"/>
-      <c r="F915" s="118"/>
-      <c r="G915" s="118"/>
-      <c r="H915" s="118"/>
-      <c r="I915" s="118"/>
-      <c r="J915" s="118"/>
-      <c r="K915" s="118"/>
-      <c r="L915" s="118"/>
-      <c r="M915" s="118"/>
-      <c r="N915" s="119"/>
+      <c r="A915" s="135"/>
+      <c r="B915" s="136"/>
+      <c r="C915" s="136"/>
+      <c r="D915" s="136"/>
+      <c r="E915" s="136"/>
+      <c r="F915" s="136"/>
+      <c r="G915" s="136"/>
+      <c r="H915" s="136"/>
+      <c r="I915" s="136"/>
+      <c r="J915" s="136"/>
+      <c r="K915" s="136"/>
+      <c r="L915" s="136"/>
+      <c r="M915" s="136"/>
+      <c r="N915" s="137"/>
     </row>
     <row r="916" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A916" s="120"/>
-      <c r="B916" s="121"/>
-      <c r="C916" s="121"/>
-      <c r="D916" s="121"/>
-      <c r="E916" s="121"/>
-      <c r="F916" s="121"/>
-      <c r="G916" s="121"/>
-      <c r="H916" s="121"/>
-      <c r="I916" s="121"/>
-      <c r="J916" s="121"/>
-      <c r="K916" s="121"/>
-      <c r="L916" s="121"/>
-      <c r="M916" s="121"/>
-      <c r="N916" s="122"/>
+      <c r="A916" s="138"/>
+      <c r="B916" s="139"/>
+      <c r="C916" s="139"/>
+      <c r="D916" s="139"/>
+      <c r="E916" s="139"/>
+      <c r="F916" s="139"/>
+      <c r="G916" s="139"/>
+      <c r="H916" s="139"/>
+      <c r="I916" s="139"/>
+      <c r="J916" s="139"/>
+      <c r="K916" s="139"/>
+      <c r="L916" s="139"/>
+      <c r="M916" s="139"/>
+      <c r="N916" s="140"/>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A917" s="4" t="s">
@@ -26549,10 +26548,10 @@
       <c r="N917" s="5"/>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A918" s="125" t="s">
+      <c r="A918" s="141" t="s">
         <v>246</v>
       </c>
-      <c r="B918" s="131"/>
+      <c r="B918" s="142"/>
       <c r="C918" s="7">
         <v>45</v>
       </c>
@@ -26621,10 +26620,10 @@
       <c r="N919" s="5"/>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A920" s="125" t="s">
+      <c r="A920" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="B920" s="131"/>
+      <c r="B920" s="142"/>
       <c r="C920" s="7">
         <v>52</v>
       </c>
@@ -26696,22 +26695,22 @@
       <c r="N922" s="5"/>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A923" s="127" t="s">
+      <c r="A923" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B923" s="128"/>
-      <c r="C923" s="128"/>
-      <c r="D923" s="128"/>
-      <c r="E923" s="128"/>
-      <c r="F923" s="128"/>
-      <c r="G923" s="128"/>
-      <c r="H923" s="128"/>
-      <c r="I923" s="128"/>
-      <c r="J923" s="128"/>
-      <c r="K923" s="128"/>
-      <c r="L923" s="128"/>
-      <c r="M923" s="128"/>
-      <c r="N923" s="129"/>
+      <c r="B923" s="104"/>
+      <c r="C923" s="104"/>
+      <c r="D923" s="104"/>
+      <c r="E923" s="104"/>
+      <c r="F923" s="104"/>
+      <c r="G923" s="104"/>
+      <c r="H923" s="104"/>
+      <c r="I923" s="104"/>
+      <c r="J923" s="104"/>
+      <c r="K923" s="104"/>
+      <c r="L923" s="104"/>
+      <c r="M923" s="104"/>
+      <c r="N923" s="105"/>
     </row>
     <row r="924" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A924" s="23"/>
@@ -26786,70 +26785,70 @@
     </row>
     <row r="929" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="930" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A930" s="95" t="s">
+      <c r="A930" s="106" t="s">
         <v>251</v>
       </c>
-      <c r="B930" s="115"/>
-      <c r="C930" s="115"/>
-      <c r="D930" s="115"/>
-      <c r="E930" s="115"/>
-      <c r="F930" s="115"/>
-      <c r="G930" s="115"/>
-      <c r="H930" s="115"/>
-      <c r="I930" s="115"/>
-      <c r="J930" s="115"/>
-      <c r="K930" s="115"/>
-      <c r="L930" s="115"/>
-      <c r="M930" s="115"/>
-      <c r="N930" s="116"/>
+      <c r="B930" s="133"/>
+      <c r="C930" s="133"/>
+      <c r="D930" s="133"/>
+      <c r="E930" s="133"/>
+      <c r="F930" s="133"/>
+      <c r="G930" s="133"/>
+      <c r="H930" s="133"/>
+      <c r="I930" s="133"/>
+      <c r="J930" s="133"/>
+      <c r="K930" s="133"/>
+      <c r="L930" s="133"/>
+      <c r="M930" s="133"/>
+      <c r="N930" s="134"/>
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A931" s="117"/>
-      <c r="B931" s="118"/>
-      <c r="C931" s="118"/>
-      <c r="D931" s="118"/>
-      <c r="E931" s="118"/>
-      <c r="F931" s="118"/>
-      <c r="G931" s="118"/>
-      <c r="H931" s="118"/>
-      <c r="I931" s="118"/>
-      <c r="J931" s="118"/>
-      <c r="K931" s="118"/>
-      <c r="L931" s="118"/>
-      <c r="M931" s="118"/>
-      <c r="N931" s="119"/>
+      <c r="A931" s="135"/>
+      <c r="B931" s="136"/>
+      <c r="C931" s="136"/>
+      <c r="D931" s="136"/>
+      <c r="E931" s="136"/>
+      <c r="F931" s="136"/>
+      <c r="G931" s="136"/>
+      <c r="H931" s="136"/>
+      <c r="I931" s="136"/>
+      <c r="J931" s="136"/>
+      <c r="K931" s="136"/>
+      <c r="L931" s="136"/>
+      <c r="M931" s="136"/>
+      <c r="N931" s="137"/>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A932" s="117"/>
-      <c r="B932" s="118"/>
-      <c r="C932" s="118"/>
-      <c r="D932" s="118"/>
-      <c r="E932" s="118"/>
-      <c r="F932" s="118"/>
-      <c r="G932" s="118"/>
-      <c r="H932" s="118"/>
-      <c r="I932" s="118"/>
-      <c r="J932" s="118"/>
-      <c r="K932" s="118"/>
-      <c r="L932" s="118"/>
-      <c r="M932" s="118"/>
-      <c r="N932" s="119"/>
+      <c r="A932" s="135"/>
+      <c r="B932" s="136"/>
+      <c r="C932" s="136"/>
+      <c r="D932" s="136"/>
+      <c r="E932" s="136"/>
+      <c r="F932" s="136"/>
+      <c r="G932" s="136"/>
+      <c r="H932" s="136"/>
+      <c r="I932" s="136"/>
+      <c r="J932" s="136"/>
+      <c r="K932" s="136"/>
+      <c r="L932" s="136"/>
+      <c r="M932" s="136"/>
+      <c r="N932" s="137"/>
     </row>
     <row r="933" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A933" s="120"/>
-      <c r="B933" s="121"/>
-      <c r="C933" s="121"/>
-      <c r="D933" s="121"/>
-      <c r="E933" s="121"/>
-      <c r="F933" s="121"/>
-      <c r="G933" s="121"/>
-      <c r="H933" s="121"/>
-      <c r="I933" s="121"/>
-      <c r="J933" s="121"/>
-      <c r="K933" s="121"/>
-      <c r="L933" s="121"/>
-      <c r="M933" s="121"/>
-      <c r="N933" s="122"/>
+      <c r="A933" s="138"/>
+      <c r="B933" s="139"/>
+      <c r="C933" s="139"/>
+      <c r="D933" s="139"/>
+      <c r="E933" s="139"/>
+      <c r="F933" s="139"/>
+      <c r="G933" s="139"/>
+      <c r="H933" s="139"/>
+      <c r="I933" s="139"/>
+      <c r="J933" s="139"/>
+      <c r="K933" s="139"/>
+      <c r="L933" s="139"/>
+      <c r="M933" s="139"/>
+      <c r="N933" s="140"/>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A934" s="4" t="s">
@@ -26858,10 +26857,10 @@
       <c r="N934" s="5"/>
     </row>
     <row r="935" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A935" s="123" t="s">
+      <c r="A935" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="B935" s="124"/>
+      <c r="B935" s="147"/>
       <c r="C935" s="7">
         <v>10</v>
       </c>
@@ -26963,10 +26962,10 @@
       <c r="N937" s="5"/>
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A938" s="125" t="s">
+      <c r="A938" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="B938" s="126"/>
+      <c r="B938" s="148"/>
       <c r="C938" s="7">
         <v>60</v>
       </c>
@@ -27072,22 +27071,22 @@
       <c r="N941" s="5"/>
     </row>
     <row r="942" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A942" s="127" t="s">
+      <c r="A942" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B942" s="128"/>
-      <c r="C942" s="128"/>
-      <c r="D942" s="128"/>
-      <c r="E942" s="128"/>
-      <c r="F942" s="128"/>
-      <c r="G942" s="128"/>
-      <c r="H942" s="128"/>
-      <c r="I942" s="128"/>
-      <c r="J942" s="128"/>
-      <c r="K942" s="128"/>
-      <c r="L942" s="128"/>
-      <c r="M942" s="128"/>
-      <c r="N942" s="129"/>
+      <c r="B942" s="104"/>
+      <c r="C942" s="104"/>
+      <c r="D942" s="104"/>
+      <c r="E942" s="104"/>
+      <c r="F942" s="104"/>
+      <c r="G942" s="104"/>
+      <c r="H942" s="104"/>
+      <c r="I942" s="104"/>
+      <c r="J942" s="104"/>
+      <c r="K942" s="104"/>
+      <c r="L942" s="104"/>
+      <c r="M942" s="104"/>
+      <c r="N942" s="105"/>
     </row>
     <row r="943" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A943" s="23"/>
@@ -27177,96 +27176,96 @@
       <c r="N948" s="19"/>
     </row>
     <row r="950" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="130" t="s">
+      <c r="A950" s="143" t="s">
         <v>259</v>
       </c>
-      <c r="B950" s="130"/>
-      <c r="C950" s="130"/>
-      <c r="D950" s="130"/>
-      <c r="E950" s="130"/>
-      <c r="F950" s="130"/>
-      <c r="G950" s="130"/>
-      <c r="H950" s="130"/>
-      <c r="I950" s="130"/>
-      <c r="J950" s="130"/>
-      <c r="K950" s="130"/>
-      <c r="L950" s="130"/>
-      <c r="M950" s="130"/>
-      <c r="N950" s="130"/>
+      <c r="B950" s="143"/>
+      <c r="C950" s="143"/>
+      <c r="D950" s="143"/>
+      <c r="E950" s="143"/>
+      <c r="F950" s="143"/>
+      <c r="G950" s="143"/>
+      <c r="H950" s="143"/>
+      <c r="I950" s="143"/>
+      <c r="J950" s="143"/>
+      <c r="K950" s="143"/>
+      <c r="L950" s="143"/>
+      <c r="M950" s="143"/>
+      <c r="N950" s="143"/>
     </row>
     <row r="952" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A952" s="112" t="s">
+      <c r="A952" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="B952" s="112"/>
-      <c r="C952" s="112"/>
+      <c r="B952" s="145"/>
+      <c r="C952" s="145"/>
     </row>
     <row r="953" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="954" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A954" s="114" t="s">
+      <c r="A954" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="B954" s="115"/>
-      <c r="C954" s="115"/>
-      <c r="D954" s="115"/>
-      <c r="E954" s="115"/>
-      <c r="F954" s="115"/>
-      <c r="G954" s="115"/>
-      <c r="H954" s="115"/>
-      <c r="I954" s="115"/>
-      <c r="J954" s="115"/>
-      <c r="K954" s="115"/>
-      <c r="L954" s="115"/>
-      <c r="M954" s="115"/>
-      <c r="N954" s="116"/>
+      <c r="B954" s="133"/>
+      <c r="C954" s="133"/>
+      <c r="D954" s="133"/>
+      <c r="E954" s="133"/>
+      <c r="F954" s="133"/>
+      <c r="G954" s="133"/>
+      <c r="H954" s="133"/>
+      <c r="I954" s="133"/>
+      <c r="J954" s="133"/>
+      <c r="K954" s="133"/>
+      <c r="L954" s="133"/>
+      <c r="M954" s="133"/>
+      <c r="N954" s="134"/>
     </row>
     <row r="955" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A955" s="117"/>
-      <c r="B955" s="118"/>
-      <c r="C955" s="118"/>
-      <c r="D955" s="118"/>
-      <c r="E955" s="118"/>
-      <c r="F955" s="118"/>
-      <c r="G955" s="118"/>
-      <c r="H955" s="118"/>
-      <c r="I955" s="118"/>
-      <c r="J955" s="118"/>
-      <c r="K955" s="118"/>
-      <c r="L955" s="118"/>
-      <c r="M955" s="118"/>
-      <c r="N955" s="119"/>
+      <c r="A955" s="135"/>
+      <c r="B955" s="136"/>
+      <c r="C955" s="136"/>
+      <c r="D955" s="136"/>
+      <c r="E955" s="136"/>
+      <c r="F955" s="136"/>
+      <c r="G955" s="136"/>
+      <c r="H955" s="136"/>
+      <c r="I955" s="136"/>
+      <c r="J955" s="136"/>
+      <c r="K955" s="136"/>
+      <c r="L955" s="136"/>
+      <c r="M955" s="136"/>
+      <c r="N955" s="137"/>
     </row>
     <row r="956" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A956" s="117"/>
-      <c r="B956" s="118"/>
-      <c r="C956" s="118"/>
-      <c r="D956" s="118"/>
-      <c r="E956" s="118"/>
-      <c r="F956" s="118"/>
-      <c r="G956" s="118"/>
-      <c r="H956" s="118"/>
-      <c r="I956" s="118"/>
-      <c r="J956" s="118"/>
-      <c r="K956" s="118"/>
-      <c r="L956" s="118"/>
-      <c r="M956" s="118"/>
-      <c r="N956" s="119"/>
+      <c r="A956" s="135"/>
+      <c r="B956" s="136"/>
+      <c r="C956" s="136"/>
+      <c r="D956" s="136"/>
+      <c r="E956" s="136"/>
+      <c r="F956" s="136"/>
+      <c r="G956" s="136"/>
+      <c r="H956" s="136"/>
+      <c r="I956" s="136"/>
+      <c r="J956" s="136"/>
+      <c r="K956" s="136"/>
+      <c r="L956" s="136"/>
+      <c r="M956" s="136"/>
+      <c r="N956" s="137"/>
     </row>
     <row r="957" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A957" s="120"/>
-      <c r="B957" s="121"/>
-      <c r="C957" s="121"/>
-      <c r="D957" s="121"/>
-      <c r="E957" s="121"/>
-      <c r="F957" s="121"/>
-      <c r="G957" s="121"/>
-      <c r="H957" s="121"/>
-      <c r="I957" s="121"/>
-      <c r="J957" s="121"/>
-      <c r="K957" s="121"/>
-      <c r="L957" s="121"/>
-      <c r="M957" s="121"/>
-      <c r="N957" s="122"/>
+      <c r="A957" s="138"/>
+      <c r="B957" s="139"/>
+      <c r="C957" s="139"/>
+      <c r="D957" s="139"/>
+      <c r="E957" s="139"/>
+      <c r="F957" s="139"/>
+      <c r="G957" s="139"/>
+      <c r="H957" s="139"/>
+      <c r="I957" s="139"/>
+      <c r="J957" s="139"/>
+      <c r="K957" s="139"/>
+      <c r="L957" s="139"/>
+      <c r="M957" s="139"/>
+      <c r="N957" s="140"/>
     </row>
     <row r="958" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A958" s="12" t="s">
@@ -27337,70 +27336,70 @@
     </row>
     <row r="963" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="964" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A964" s="95" t="s">
+      <c r="A964" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="B964" s="96"/>
-      <c r="C964" s="96"/>
-      <c r="D964" s="96"/>
-      <c r="E964" s="96"/>
-      <c r="F964" s="96"/>
-      <c r="G964" s="96"/>
-      <c r="H964" s="96"/>
-      <c r="I964" s="96"/>
-      <c r="J964" s="96"/>
-      <c r="K964" s="96"/>
-      <c r="L964" s="96"/>
-      <c r="M964" s="96"/>
-      <c r="N964" s="97"/>
+      <c r="B964" s="107"/>
+      <c r="C964" s="107"/>
+      <c r="D964" s="107"/>
+      <c r="E964" s="107"/>
+      <c r="F964" s="107"/>
+      <c r="G964" s="107"/>
+      <c r="H964" s="107"/>
+      <c r="I964" s="107"/>
+      <c r="J964" s="107"/>
+      <c r="K964" s="107"/>
+      <c r="L964" s="107"/>
+      <c r="M964" s="107"/>
+      <c r="N964" s="108"/>
     </row>
     <row r="965" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A965" s="98"/>
-      <c r="B965" s="99"/>
-      <c r="C965" s="99"/>
-      <c r="D965" s="99"/>
-      <c r="E965" s="99"/>
-      <c r="F965" s="99"/>
-      <c r="G965" s="99"/>
-      <c r="H965" s="99"/>
-      <c r="I965" s="99"/>
-      <c r="J965" s="99"/>
-      <c r="K965" s="99"/>
-      <c r="L965" s="99"/>
-      <c r="M965" s="99"/>
-      <c r="N965" s="100"/>
+      <c r="A965" s="109"/>
+      <c r="B965" s="110"/>
+      <c r="C965" s="110"/>
+      <c r="D965" s="110"/>
+      <c r="E965" s="110"/>
+      <c r="F965" s="110"/>
+      <c r="G965" s="110"/>
+      <c r="H965" s="110"/>
+      <c r="I965" s="110"/>
+      <c r="J965" s="110"/>
+      <c r="K965" s="110"/>
+      <c r="L965" s="110"/>
+      <c r="M965" s="110"/>
+      <c r="N965" s="111"/>
     </row>
     <row r="966" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A966" s="98"/>
-      <c r="B966" s="99"/>
-      <c r="C966" s="99"/>
-      <c r="D966" s="99"/>
-      <c r="E966" s="99"/>
-      <c r="F966" s="99"/>
-      <c r="G966" s="99"/>
-      <c r="H966" s="99"/>
-      <c r="I966" s="99"/>
-      <c r="J966" s="99"/>
-      <c r="K966" s="99"/>
-      <c r="L966" s="99"/>
-      <c r="M966" s="99"/>
-      <c r="N966" s="100"/>
+      <c r="A966" s="109"/>
+      <c r="B966" s="110"/>
+      <c r="C966" s="110"/>
+      <c r="D966" s="110"/>
+      <c r="E966" s="110"/>
+      <c r="F966" s="110"/>
+      <c r="G966" s="110"/>
+      <c r="H966" s="110"/>
+      <c r="I966" s="110"/>
+      <c r="J966" s="110"/>
+      <c r="K966" s="110"/>
+      <c r="L966" s="110"/>
+      <c r="M966" s="110"/>
+      <c r="N966" s="111"/>
     </row>
     <row r="967" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A967" s="101"/>
-      <c r="B967" s="102"/>
-      <c r="C967" s="102"/>
-      <c r="D967" s="102"/>
-      <c r="E967" s="102"/>
-      <c r="F967" s="102"/>
-      <c r="G967" s="102"/>
-      <c r="H967" s="102"/>
-      <c r="I967" s="102"/>
-      <c r="J967" s="102"/>
-      <c r="K967" s="102"/>
-      <c r="L967" s="102"/>
-      <c r="M967" s="102"/>
-      <c r="N967" s="103"/>
+      <c r="A967" s="112"/>
+      <c r="B967" s="113"/>
+      <c r="C967" s="113"/>
+      <c r="D967" s="113"/>
+      <c r="E967" s="113"/>
+      <c r="F967" s="113"/>
+      <c r="G967" s="113"/>
+      <c r="H967" s="113"/>
+      <c r="I967" s="113"/>
+      <c r="J967" s="113"/>
+      <c r="K967" s="113"/>
+      <c r="L967" s="113"/>
+      <c r="M967" s="113"/>
+      <c r="N967" s="114"/>
     </row>
     <row r="968" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A968" s="12" t="s">
@@ -27480,70 +27479,70 @@
     </row>
     <row r="974" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="975" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A975" s="95" t="s">
+      <c r="A975" s="106" t="s">
         <v>273</v>
       </c>
-      <c r="B975" s="96"/>
-      <c r="C975" s="96"/>
-      <c r="D975" s="96"/>
-      <c r="E975" s="96"/>
-      <c r="F975" s="96"/>
-      <c r="G975" s="96"/>
-      <c r="H975" s="96"/>
-      <c r="I975" s="96"/>
-      <c r="J975" s="96"/>
-      <c r="K975" s="96"/>
-      <c r="L975" s="96"/>
-      <c r="M975" s="96"/>
-      <c r="N975" s="97"/>
+      <c r="B975" s="107"/>
+      <c r="C975" s="107"/>
+      <c r="D975" s="107"/>
+      <c r="E975" s="107"/>
+      <c r="F975" s="107"/>
+      <c r="G975" s="107"/>
+      <c r="H975" s="107"/>
+      <c r="I975" s="107"/>
+      <c r="J975" s="107"/>
+      <c r="K975" s="107"/>
+      <c r="L975" s="107"/>
+      <c r="M975" s="107"/>
+      <c r="N975" s="108"/>
     </row>
     <row r="976" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A976" s="98"/>
-      <c r="B976" s="99"/>
-      <c r="C976" s="99"/>
-      <c r="D976" s="99"/>
-      <c r="E976" s="99"/>
-      <c r="F976" s="99"/>
-      <c r="G976" s="99"/>
-      <c r="H976" s="99"/>
-      <c r="I976" s="99"/>
-      <c r="J976" s="99"/>
-      <c r="K976" s="99"/>
-      <c r="L976" s="99"/>
-      <c r="M976" s="99"/>
-      <c r="N976" s="100"/>
+      <c r="A976" s="109"/>
+      <c r="B976" s="110"/>
+      <c r="C976" s="110"/>
+      <c r="D976" s="110"/>
+      <c r="E976" s="110"/>
+      <c r="F976" s="110"/>
+      <c r="G976" s="110"/>
+      <c r="H976" s="110"/>
+      <c r="I976" s="110"/>
+      <c r="J976" s="110"/>
+      <c r="K976" s="110"/>
+      <c r="L976" s="110"/>
+      <c r="M976" s="110"/>
+      <c r="N976" s="111"/>
     </row>
     <row r="977" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A977" s="98"/>
-      <c r="B977" s="99"/>
-      <c r="C977" s="99"/>
-      <c r="D977" s="99"/>
-      <c r="E977" s="99"/>
-      <c r="F977" s="99"/>
-      <c r="G977" s="99"/>
-      <c r="H977" s="99"/>
-      <c r="I977" s="99"/>
-      <c r="J977" s="99"/>
-      <c r="K977" s="99"/>
-      <c r="L977" s="99"/>
-      <c r="M977" s="99"/>
-      <c r="N977" s="100"/>
+      <c r="A977" s="109"/>
+      <c r="B977" s="110"/>
+      <c r="C977" s="110"/>
+      <c r="D977" s="110"/>
+      <c r="E977" s="110"/>
+      <c r="F977" s="110"/>
+      <c r="G977" s="110"/>
+      <c r="H977" s="110"/>
+      <c r="I977" s="110"/>
+      <c r="J977" s="110"/>
+      <c r="K977" s="110"/>
+      <c r="L977" s="110"/>
+      <c r="M977" s="110"/>
+      <c r="N977" s="111"/>
     </row>
     <row r="978" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A978" s="101"/>
-      <c r="B978" s="102"/>
-      <c r="C978" s="102"/>
-      <c r="D978" s="102"/>
-      <c r="E978" s="102"/>
-      <c r="F978" s="102"/>
-      <c r="G978" s="102"/>
-      <c r="H978" s="102"/>
-      <c r="I978" s="102"/>
-      <c r="J978" s="102"/>
-      <c r="K978" s="102"/>
-      <c r="L978" s="102"/>
-      <c r="M978" s="102"/>
-      <c r="N978" s="103"/>
+      <c r="A978" s="112"/>
+      <c r="B978" s="113"/>
+      <c r="C978" s="113"/>
+      <c r="D978" s="113"/>
+      <c r="E978" s="113"/>
+      <c r="F978" s="113"/>
+      <c r="G978" s="113"/>
+      <c r="H978" s="113"/>
+      <c r="I978" s="113"/>
+      <c r="J978" s="113"/>
+      <c r="K978" s="113"/>
+      <c r="L978" s="113"/>
+      <c r="M978" s="113"/>
+      <c r="N978" s="114"/>
     </row>
     <row r="979" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A979" s="12" t="s">
@@ -27621,70 +27620,70 @@
       <c r="E984" s="9"/>
     </row>
     <row r="985" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A985" s="95" t="s">
+      <c r="A985" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="B985" s="96"/>
-      <c r="C985" s="96"/>
-      <c r="D985" s="96"/>
-      <c r="E985" s="96"/>
-      <c r="F985" s="96"/>
-      <c r="G985" s="96"/>
-      <c r="H985" s="96"/>
-      <c r="I985" s="96"/>
-      <c r="J985" s="96"/>
-      <c r="K985" s="96"/>
-      <c r="L985" s="96"/>
-      <c r="M985" s="96"/>
-      <c r="N985" s="97"/>
+      <c r="B985" s="107"/>
+      <c r="C985" s="107"/>
+      <c r="D985" s="107"/>
+      <c r="E985" s="107"/>
+      <c r="F985" s="107"/>
+      <c r="G985" s="107"/>
+      <c r="H985" s="107"/>
+      <c r="I985" s="107"/>
+      <c r="J985" s="107"/>
+      <c r="K985" s="107"/>
+      <c r="L985" s="107"/>
+      <c r="M985" s="107"/>
+      <c r="N985" s="108"/>
     </row>
     <row r="986" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A986" s="98"/>
-      <c r="B986" s="99"/>
-      <c r="C986" s="99"/>
-      <c r="D986" s="99"/>
-      <c r="E986" s="99"/>
-      <c r="F986" s="99"/>
-      <c r="G986" s="99"/>
-      <c r="H986" s="99"/>
-      <c r="I986" s="99"/>
-      <c r="J986" s="99"/>
-      <c r="K986" s="99"/>
-      <c r="L986" s="99"/>
-      <c r="M986" s="99"/>
-      <c r="N986" s="100"/>
+      <c r="A986" s="109"/>
+      <c r="B986" s="110"/>
+      <c r="C986" s="110"/>
+      <c r="D986" s="110"/>
+      <c r="E986" s="110"/>
+      <c r="F986" s="110"/>
+      <c r="G986" s="110"/>
+      <c r="H986" s="110"/>
+      <c r="I986" s="110"/>
+      <c r="J986" s="110"/>
+      <c r="K986" s="110"/>
+      <c r="L986" s="110"/>
+      <c r="M986" s="110"/>
+      <c r="N986" s="111"/>
     </row>
     <row r="987" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A987" s="98"/>
-      <c r="B987" s="99"/>
-      <c r="C987" s="99"/>
-      <c r="D987" s="99"/>
-      <c r="E987" s="99"/>
-      <c r="F987" s="99"/>
-      <c r="G987" s="99"/>
-      <c r="H987" s="99"/>
-      <c r="I987" s="99"/>
-      <c r="J987" s="99"/>
-      <c r="K987" s="99"/>
-      <c r="L987" s="99"/>
-      <c r="M987" s="99"/>
-      <c r="N987" s="100"/>
+      <c r="A987" s="109"/>
+      <c r="B987" s="110"/>
+      <c r="C987" s="110"/>
+      <c r="D987" s="110"/>
+      <c r="E987" s="110"/>
+      <c r="F987" s="110"/>
+      <c r="G987" s="110"/>
+      <c r="H987" s="110"/>
+      <c r="I987" s="110"/>
+      <c r="J987" s="110"/>
+      <c r="K987" s="110"/>
+      <c r="L987" s="110"/>
+      <c r="M987" s="110"/>
+      <c r="N987" s="111"/>
     </row>
     <row r="988" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A988" s="101"/>
-      <c r="B988" s="102"/>
-      <c r="C988" s="102"/>
-      <c r="D988" s="102"/>
-      <c r="E988" s="102"/>
-      <c r="F988" s="102"/>
-      <c r="G988" s="102"/>
-      <c r="H988" s="102"/>
-      <c r="I988" s="102"/>
-      <c r="J988" s="102"/>
-      <c r="K988" s="102"/>
-      <c r="L988" s="102"/>
-      <c r="M988" s="102"/>
-      <c r="N988" s="103"/>
+      <c r="A988" s="112"/>
+      <c r="B988" s="113"/>
+      <c r="C988" s="113"/>
+      <c r="D988" s="113"/>
+      <c r="E988" s="113"/>
+      <c r="F988" s="113"/>
+      <c r="G988" s="113"/>
+      <c r="H988" s="113"/>
+      <c r="I988" s="113"/>
+      <c r="J988" s="113"/>
+      <c r="K988" s="113"/>
+      <c r="L988" s="113"/>
+      <c r="M988" s="113"/>
+      <c r="N988" s="114"/>
     </row>
     <row r="989" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A989" s="12" t="s">
@@ -27793,70 +27792,70 @@
     </row>
     <row r="997" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="998" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A998" s="95" t="s">
+      <c r="A998" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="B998" s="96"/>
-      <c r="C998" s="96"/>
-      <c r="D998" s="96"/>
-      <c r="E998" s="96"/>
-      <c r="F998" s="96"/>
-      <c r="G998" s="96"/>
-      <c r="H998" s="96"/>
-      <c r="I998" s="96"/>
-      <c r="J998" s="96"/>
-      <c r="K998" s="96"/>
-      <c r="L998" s="96"/>
-      <c r="M998" s="96"/>
-      <c r="N998" s="97"/>
+      <c r="B998" s="107"/>
+      <c r="C998" s="107"/>
+      <c r="D998" s="107"/>
+      <c r="E998" s="107"/>
+      <c r="F998" s="107"/>
+      <c r="G998" s="107"/>
+      <c r="H998" s="107"/>
+      <c r="I998" s="107"/>
+      <c r="J998" s="107"/>
+      <c r="K998" s="107"/>
+      <c r="L998" s="107"/>
+      <c r="M998" s="107"/>
+      <c r="N998" s="108"/>
     </row>
     <row r="999" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A999" s="98"/>
-      <c r="B999" s="99"/>
-      <c r="C999" s="99"/>
-      <c r="D999" s="99"/>
-      <c r="E999" s="99"/>
-      <c r="F999" s="99"/>
-      <c r="G999" s="99"/>
-      <c r="H999" s="99"/>
-      <c r="I999" s="99"/>
-      <c r="J999" s="99"/>
-      <c r="K999" s="99"/>
-      <c r="L999" s="99"/>
-      <c r="M999" s="99"/>
-      <c r="N999" s="100"/>
+      <c r="A999" s="109"/>
+      <c r="B999" s="110"/>
+      <c r="C999" s="110"/>
+      <c r="D999" s="110"/>
+      <c r="E999" s="110"/>
+      <c r="F999" s="110"/>
+      <c r="G999" s="110"/>
+      <c r="H999" s="110"/>
+      <c r="I999" s="110"/>
+      <c r="J999" s="110"/>
+      <c r="K999" s="110"/>
+      <c r="L999" s="110"/>
+      <c r="M999" s="110"/>
+      <c r="N999" s="111"/>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1000" s="98"/>
-      <c r="B1000" s="99"/>
-      <c r="C1000" s="99"/>
-      <c r="D1000" s="99"/>
-      <c r="E1000" s="99"/>
-      <c r="F1000" s="99"/>
-      <c r="G1000" s="99"/>
-      <c r="H1000" s="99"/>
-      <c r="I1000" s="99"/>
-      <c r="J1000" s="99"/>
-      <c r="K1000" s="99"/>
-      <c r="L1000" s="99"/>
-      <c r="M1000" s="99"/>
-      <c r="N1000" s="100"/>
+      <c r="A1000" s="109"/>
+      <c r="B1000" s="110"/>
+      <c r="C1000" s="110"/>
+      <c r="D1000" s="110"/>
+      <c r="E1000" s="110"/>
+      <c r="F1000" s="110"/>
+      <c r="G1000" s="110"/>
+      <c r="H1000" s="110"/>
+      <c r="I1000" s="110"/>
+      <c r="J1000" s="110"/>
+      <c r="K1000" s="110"/>
+      <c r="L1000" s="110"/>
+      <c r="M1000" s="110"/>
+      <c r="N1000" s="111"/>
     </row>
     <row r="1001" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1001" s="101"/>
-      <c r="B1001" s="102"/>
-      <c r="C1001" s="102"/>
-      <c r="D1001" s="102"/>
-      <c r="E1001" s="102"/>
-      <c r="F1001" s="102"/>
-      <c r="G1001" s="102"/>
-      <c r="H1001" s="102"/>
-      <c r="I1001" s="102"/>
-      <c r="J1001" s="102"/>
-      <c r="K1001" s="102"/>
-      <c r="L1001" s="102"/>
-      <c r="M1001" s="102"/>
-      <c r="N1001" s="103"/>
+      <c r="A1001" s="112"/>
+      <c r="B1001" s="113"/>
+      <c r="C1001" s="113"/>
+      <c r="D1001" s="113"/>
+      <c r="E1001" s="113"/>
+      <c r="F1001" s="113"/>
+      <c r="G1001" s="113"/>
+      <c r="H1001" s="113"/>
+      <c r="I1001" s="113"/>
+      <c r="J1001" s="113"/>
+      <c r="K1001" s="113"/>
+      <c r="L1001" s="113"/>
+      <c r="M1001" s="113"/>
+      <c r="N1001" s="114"/>
     </row>
     <row r="1002" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1002" s="12" t="s">
@@ -27924,78 +27923,78 @@
       <c r="N1006" s="19"/>
     </row>
     <row r="1008" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1008" s="112" t="s">
+      <c r="A1008" s="145" t="s">
         <v>291</v>
       </c>
-      <c r="B1008" s="112"/>
-      <c r="C1008" s="112"/>
+      <c r="B1008" s="145"/>
+      <c r="C1008" s="145"/>
     </row>
     <row r="1009" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1010" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1010" s="95" t="s">
+      <c r="A1010" s="106" t="s">
         <v>292</v>
       </c>
-      <c r="B1010" s="96"/>
-      <c r="C1010" s="96"/>
-      <c r="D1010" s="96"/>
-      <c r="E1010" s="96"/>
-      <c r="F1010" s="96"/>
-      <c r="G1010" s="96"/>
-      <c r="H1010" s="96"/>
-      <c r="I1010" s="96"/>
-      <c r="J1010" s="96"/>
-      <c r="K1010" s="96"/>
-      <c r="L1010" s="96"/>
-      <c r="M1010" s="96"/>
-      <c r="N1010" s="97"/>
+      <c r="B1010" s="107"/>
+      <c r="C1010" s="107"/>
+      <c r="D1010" s="107"/>
+      <c r="E1010" s="107"/>
+      <c r="F1010" s="107"/>
+      <c r="G1010" s="107"/>
+      <c r="H1010" s="107"/>
+      <c r="I1010" s="107"/>
+      <c r="J1010" s="107"/>
+      <c r="K1010" s="107"/>
+      <c r="L1010" s="107"/>
+      <c r="M1010" s="107"/>
+      <c r="N1010" s="108"/>
     </row>
     <row r="1011" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1011" s="98"/>
-      <c r="B1011" s="99"/>
-      <c r="C1011" s="99"/>
-      <c r="D1011" s="99"/>
-      <c r="E1011" s="99"/>
-      <c r="F1011" s="99"/>
-      <c r="G1011" s="99"/>
-      <c r="H1011" s="99"/>
-      <c r="I1011" s="99"/>
-      <c r="J1011" s="99"/>
-      <c r="K1011" s="99"/>
-      <c r="L1011" s="99"/>
-      <c r="M1011" s="99"/>
-      <c r="N1011" s="100"/>
+      <c r="A1011" s="109"/>
+      <c r="B1011" s="110"/>
+      <c r="C1011" s="110"/>
+      <c r="D1011" s="110"/>
+      <c r="E1011" s="110"/>
+      <c r="F1011" s="110"/>
+      <c r="G1011" s="110"/>
+      <c r="H1011" s="110"/>
+      <c r="I1011" s="110"/>
+      <c r="J1011" s="110"/>
+      <c r="K1011" s="110"/>
+      <c r="L1011" s="110"/>
+      <c r="M1011" s="110"/>
+      <c r="N1011" s="111"/>
     </row>
     <row r="1012" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1012" s="98"/>
-      <c r="B1012" s="99"/>
-      <c r="C1012" s="99"/>
-      <c r="D1012" s="99"/>
-      <c r="E1012" s="99"/>
-      <c r="F1012" s="99"/>
-      <c r="G1012" s="99"/>
-      <c r="H1012" s="99"/>
-      <c r="I1012" s="99"/>
-      <c r="J1012" s="99"/>
-      <c r="K1012" s="99"/>
-      <c r="L1012" s="99"/>
-      <c r="M1012" s="99"/>
-      <c r="N1012" s="100"/>
+      <c r="A1012" s="109"/>
+      <c r="B1012" s="110"/>
+      <c r="C1012" s="110"/>
+      <c r="D1012" s="110"/>
+      <c r="E1012" s="110"/>
+      <c r="F1012" s="110"/>
+      <c r="G1012" s="110"/>
+      <c r="H1012" s="110"/>
+      <c r="I1012" s="110"/>
+      <c r="J1012" s="110"/>
+      <c r="K1012" s="110"/>
+      <c r="L1012" s="110"/>
+      <c r="M1012" s="110"/>
+      <c r="N1012" s="111"/>
     </row>
     <row r="1013" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1013" s="101"/>
-      <c r="B1013" s="102"/>
-      <c r="C1013" s="102"/>
-      <c r="D1013" s="102"/>
-      <c r="E1013" s="102"/>
-      <c r="F1013" s="102"/>
-      <c r="G1013" s="102"/>
-      <c r="H1013" s="102"/>
-      <c r="I1013" s="102"/>
-      <c r="J1013" s="102"/>
-      <c r="K1013" s="102"/>
-      <c r="L1013" s="102"/>
-      <c r="M1013" s="102"/>
-      <c r="N1013" s="103"/>
+      <c r="A1013" s="112"/>
+      <c r="B1013" s="113"/>
+      <c r="C1013" s="113"/>
+      <c r="D1013" s="113"/>
+      <c r="E1013" s="113"/>
+      <c r="F1013" s="113"/>
+      <c r="G1013" s="113"/>
+      <c r="H1013" s="113"/>
+      <c r="I1013" s="113"/>
+      <c r="J1013" s="113"/>
+      <c r="K1013" s="113"/>
+      <c r="L1013" s="113"/>
+      <c r="M1013" s="113"/>
+      <c r="N1013" s="114"/>
     </row>
     <row r="1014" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1014" s="12" t="s">
@@ -28064,70 +28063,70 @@
     </row>
     <row r="1019" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1020" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1020" s="95" t="s">
+      <c r="A1020" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="B1020" s="96"/>
-      <c r="C1020" s="96"/>
-      <c r="D1020" s="96"/>
-      <c r="E1020" s="96"/>
-      <c r="F1020" s="96"/>
-      <c r="G1020" s="96"/>
-      <c r="H1020" s="96"/>
-      <c r="I1020" s="96"/>
-      <c r="J1020" s="96"/>
-      <c r="K1020" s="96"/>
-      <c r="L1020" s="96"/>
-      <c r="M1020" s="96"/>
-      <c r="N1020" s="97"/>
+      <c r="B1020" s="107"/>
+      <c r="C1020" s="107"/>
+      <c r="D1020" s="107"/>
+      <c r="E1020" s="107"/>
+      <c r="F1020" s="107"/>
+      <c r="G1020" s="107"/>
+      <c r="H1020" s="107"/>
+      <c r="I1020" s="107"/>
+      <c r="J1020" s="107"/>
+      <c r="K1020" s="107"/>
+      <c r="L1020" s="107"/>
+      <c r="M1020" s="107"/>
+      <c r="N1020" s="108"/>
     </row>
     <row r="1021" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1021" s="98"/>
-      <c r="B1021" s="99"/>
-      <c r="C1021" s="99"/>
-      <c r="D1021" s="99"/>
-      <c r="E1021" s="99"/>
-      <c r="F1021" s="99"/>
-      <c r="G1021" s="99"/>
-      <c r="H1021" s="99"/>
-      <c r="I1021" s="99"/>
-      <c r="J1021" s="99"/>
-      <c r="K1021" s="99"/>
-      <c r="L1021" s="99"/>
-      <c r="M1021" s="99"/>
-      <c r="N1021" s="100"/>
+      <c r="A1021" s="109"/>
+      <c r="B1021" s="110"/>
+      <c r="C1021" s="110"/>
+      <c r="D1021" s="110"/>
+      <c r="E1021" s="110"/>
+      <c r="F1021" s="110"/>
+      <c r="G1021" s="110"/>
+      <c r="H1021" s="110"/>
+      <c r="I1021" s="110"/>
+      <c r="J1021" s="110"/>
+      <c r="K1021" s="110"/>
+      <c r="L1021" s="110"/>
+      <c r="M1021" s="110"/>
+      <c r="N1021" s="111"/>
     </row>
     <row r="1022" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1022" s="98"/>
-      <c r="B1022" s="99"/>
-      <c r="C1022" s="99"/>
-      <c r="D1022" s="99"/>
-      <c r="E1022" s="99"/>
-      <c r="F1022" s="99"/>
-      <c r="G1022" s="99"/>
-      <c r="H1022" s="99"/>
-      <c r="I1022" s="99"/>
-      <c r="J1022" s="99"/>
-      <c r="K1022" s="99"/>
-      <c r="L1022" s="99"/>
-      <c r="M1022" s="99"/>
-      <c r="N1022" s="100"/>
+      <c r="A1022" s="109"/>
+      <c r="B1022" s="110"/>
+      <c r="C1022" s="110"/>
+      <c r="D1022" s="110"/>
+      <c r="E1022" s="110"/>
+      <c r="F1022" s="110"/>
+      <c r="G1022" s="110"/>
+      <c r="H1022" s="110"/>
+      <c r="I1022" s="110"/>
+      <c r="J1022" s="110"/>
+      <c r="K1022" s="110"/>
+      <c r="L1022" s="110"/>
+      <c r="M1022" s="110"/>
+      <c r="N1022" s="111"/>
     </row>
     <row r="1023" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1023" s="101"/>
-      <c r="B1023" s="102"/>
-      <c r="C1023" s="102"/>
-      <c r="D1023" s="102"/>
-      <c r="E1023" s="102"/>
-      <c r="F1023" s="102"/>
-      <c r="G1023" s="102"/>
-      <c r="H1023" s="102"/>
-      <c r="I1023" s="102"/>
-      <c r="J1023" s="102"/>
-      <c r="K1023" s="102"/>
-      <c r="L1023" s="102"/>
-      <c r="M1023" s="102"/>
-      <c r="N1023" s="103"/>
+      <c r="A1023" s="112"/>
+      <c r="B1023" s="113"/>
+      <c r="C1023" s="113"/>
+      <c r="D1023" s="113"/>
+      <c r="E1023" s="113"/>
+      <c r="F1023" s="113"/>
+      <c r="G1023" s="113"/>
+      <c r="H1023" s="113"/>
+      <c r="I1023" s="113"/>
+      <c r="J1023" s="113"/>
+      <c r="K1023" s="113"/>
+      <c r="L1023" s="113"/>
+      <c r="M1023" s="113"/>
+      <c r="N1023" s="114"/>
     </row>
     <row r="1024" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1024" s="12" t="s">
@@ -28185,79 +28184,79 @@
     </row>
     <row r="1028" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1029" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1029" s="95" t="s">
+      <c r="A1029" s="106" t="s">
         <v>302</v>
       </c>
-      <c r="B1029" s="96"/>
-      <c r="C1029" s="96"/>
-      <c r="D1029" s="96"/>
-      <c r="E1029" s="96"/>
-      <c r="F1029" s="96"/>
-      <c r="G1029" s="96"/>
-      <c r="H1029" s="96"/>
-      <c r="I1029" s="96"/>
-      <c r="J1029" s="96"/>
-      <c r="K1029" s="96"/>
-      <c r="L1029" s="96"/>
-      <c r="M1029" s="96"/>
-      <c r="N1029" s="97"/>
+      <c r="B1029" s="107"/>
+      <c r="C1029" s="107"/>
+      <c r="D1029" s="107"/>
+      <c r="E1029" s="107"/>
+      <c r="F1029" s="107"/>
+      <c r="G1029" s="107"/>
+      <c r="H1029" s="107"/>
+      <c r="I1029" s="107"/>
+      <c r="J1029" s="107"/>
+      <c r="K1029" s="107"/>
+      <c r="L1029" s="107"/>
+      <c r="M1029" s="107"/>
+      <c r="N1029" s="108"/>
     </row>
     <row r="1030" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1030" s="98"/>
-      <c r="B1030" s="99"/>
-      <c r="C1030" s="99"/>
-      <c r="D1030" s="99"/>
-      <c r="E1030" s="99"/>
-      <c r="F1030" s="99"/>
-      <c r="G1030" s="99"/>
-      <c r="H1030" s="99"/>
-      <c r="I1030" s="99"/>
-      <c r="J1030" s="99"/>
-      <c r="K1030" s="99"/>
-      <c r="L1030" s="99"/>
-      <c r="M1030" s="99"/>
-      <c r="N1030" s="100"/>
+      <c r="A1030" s="109"/>
+      <c r="B1030" s="110"/>
+      <c r="C1030" s="110"/>
+      <c r="D1030" s="110"/>
+      <c r="E1030" s="110"/>
+      <c r="F1030" s="110"/>
+      <c r="G1030" s="110"/>
+      <c r="H1030" s="110"/>
+      <c r="I1030" s="110"/>
+      <c r="J1030" s="110"/>
+      <c r="K1030" s="110"/>
+      <c r="L1030" s="110"/>
+      <c r="M1030" s="110"/>
+      <c r="N1030" s="111"/>
     </row>
     <row r="1031" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1031" s="98"/>
-      <c r="B1031" s="99"/>
-      <c r="C1031" s="99"/>
-      <c r="D1031" s="99"/>
-      <c r="E1031" s="99"/>
-      <c r="F1031" s="99"/>
-      <c r="G1031" s="99"/>
-      <c r="H1031" s="99"/>
-      <c r="I1031" s="99"/>
-      <c r="J1031" s="99"/>
-      <c r="K1031" s="99"/>
-      <c r="L1031" s="99"/>
-      <c r="M1031" s="99"/>
-      <c r="N1031" s="100"/>
+      <c r="A1031" s="109"/>
+      <c r="B1031" s="110"/>
+      <c r="C1031" s="110"/>
+      <c r="D1031" s="110"/>
+      <c r="E1031" s="110"/>
+      <c r="F1031" s="110"/>
+      <c r="G1031" s="110"/>
+      <c r="H1031" s="110"/>
+      <c r="I1031" s="110"/>
+      <c r="J1031" s="110"/>
+      <c r="K1031" s="110"/>
+      <c r="L1031" s="110"/>
+      <c r="M1031" s="110"/>
+      <c r="N1031" s="111"/>
     </row>
     <row r="1032" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1032" s="101"/>
-      <c r="B1032" s="102"/>
-      <c r="C1032" s="102"/>
-      <c r="D1032" s="102"/>
-      <c r="E1032" s="102"/>
-      <c r="F1032" s="102"/>
-      <c r="G1032" s="102"/>
-      <c r="H1032" s="102"/>
-      <c r="I1032" s="102"/>
-      <c r="J1032" s="102"/>
-      <c r="K1032" s="102"/>
-      <c r="L1032" s="102"/>
-      <c r="M1032" s="102"/>
-      <c r="N1032" s="103"/>
+      <c r="A1032" s="112"/>
+      <c r="B1032" s="113"/>
+      <c r="C1032" s="113"/>
+      <c r="D1032" s="113"/>
+      <c r="E1032" s="113"/>
+      <c r="F1032" s="113"/>
+      <c r="G1032" s="113"/>
+      <c r="H1032" s="113"/>
+      <c r="I1032" s="113"/>
+      <c r="J1032" s="113"/>
+      <c r="K1032" s="113"/>
+      <c r="L1032" s="113"/>
+      <c r="M1032" s="113"/>
+      <c r="N1032" s="114"/>
     </row>
     <row r="1033" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1033" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1033" s="113" t="s">
+      <c r="B1033" s="150" t="s">
         <v>303</v>
       </c>
-      <c r="C1033" s="113"/>
+      <c r="C1033" s="150"/>
       <c r="D1033" s="13">
         <v>900</v>
       </c>
@@ -28266,8 +28265,8 @@
     </row>
     <row r="1034" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1034" s="4"/>
-      <c r="B1034" s="113"/>
-      <c r="C1034" s="113"/>
+      <c r="B1034" s="150"/>
+      <c r="C1034" s="150"/>
       <c r="D1034" s="27">
         <v>1100</v>
       </c>
@@ -28330,70 +28329,70 @@
     </row>
     <row r="1039" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1040" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1040" s="95" t="s">
+      <c r="A1040" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="B1040" s="96"/>
-      <c r="C1040" s="96"/>
-      <c r="D1040" s="96"/>
-      <c r="E1040" s="96"/>
-      <c r="F1040" s="96"/>
-      <c r="G1040" s="96"/>
-      <c r="H1040" s="96"/>
-      <c r="I1040" s="96"/>
-      <c r="J1040" s="96"/>
-      <c r="K1040" s="96"/>
-      <c r="L1040" s="96"/>
-      <c r="M1040" s="96"/>
-      <c r="N1040" s="97"/>
+      <c r="B1040" s="107"/>
+      <c r="C1040" s="107"/>
+      <c r="D1040" s="107"/>
+      <c r="E1040" s="107"/>
+      <c r="F1040" s="107"/>
+      <c r="G1040" s="107"/>
+      <c r="H1040" s="107"/>
+      <c r="I1040" s="107"/>
+      <c r="J1040" s="107"/>
+      <c r="K1040" s="107"/>
+      <c r="L1040" s="107"/>
+      <c r="M1040" s="107"/>
+      <c r="N1040" s="108"/>
     </row>
     <row r="1041" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1041" s="98"/>
-      <c r="B1041" s="99"/>
-      <c r="C1041" s="99"/>
-      <c r="D1041" s="99"/>
-      <c r="E1041" s="99"/>
-      <c r="F1041" s="99"/>
-      <c r="G1041" s="99"/>
-      <c r="H1041" s="99"/>
-      <c r="I1041" s="99"/>
-      <c r="J1041" s="99"/>
-      <c r="K1041" s="99"/>
-      <c r="L1041" s="99"/>
-      <c r="M1041" s="99"/>
-      <c r="N1041" s="100"/>
+      <c r="A1041" s="109"/>
+      <c r="B1041" s="110"/>
+      <c r="C1041" s="110"/>
+      <c r="D1041" s="110"/>
+      <c r="E1041" s="110"/>
+      <c r="F1041" s="110"/>
+      <c r="G1041" s="110"/>
+      <c r="H1041" s="110"/>
+      <c r="I1041" s="110"/>
+      <c r="J1041" s="110"/>
+      <c r="K1041" s="110"/>
+      <c r="L1041" s="110"/>
+      <c r="M1041" s="110"/>
+      <c r="N1041" s="111"/>
     </row>
     <row r="1042" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1042" s="98"/>
-      <c r="B1042" s="99"/>
-      <c r="C1042" s="99"/>
-      <c r="D1042" s="99"/>
-      <c r="E1042" s="99"/>
-      <c r="F1042" s="99"/>
-      <c r="G1042" s="99"/>
-      <c r="H1042" s="99"/>
-      <c r="I1042" s="99"/>
-      <c r="J1042" s="99"/>
-      <c r="K1042" s="99"/>
-      <c r="L1042" s="99"/>
-      <c r="M1042" s="99"/>
-      <c r="N1042" s="100"/>
+      <c r="A1042" s="109"/>
+      <c r="B1042" s="110"/>
+      <c r="C1042" s="110"/>
+      <c r="D1042" s="110"/>
+      <c r="E1042" s="110"/>
+      <c r="F1042" s="110"/>
+      <c r="G1042" s="110"/>
+      <c r="H1042" s="110"/>
+      <c r="I1042" s="110"/>
+      <c r="J1042" s="110"/>
+      <c r="K1042" s="110"/>
+      <c r="L1042" s="110"/>
+      <c r="M1042" s="110"/>
+      <c r="N1042" s="111"/>
     </row>
     <row r="1043" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1043" s="101"/>
-      <c r="B1043" s="102"/>
-      <c r="C1043" s="102"/>
-      <c r="D1043" s="102"/>
-      <c r="E1043" s="102"/>
-      <c r="F1043" s="102"/>
-      <c r="G1043" s="102"/>
-      <c r="H1043" s="102"/>
-      <c r="I1043" s="102"/>
-      <c r="J1043" s="102"/>
-      <c r="K1043" s="102"/>
-      <c r="L1043" s="102"/>
-      <c r="M1043" s="102"/>
-      <c r="N1043" s="103"/>
+      <c r="A1043" s="112"/>
+      <c r="B1043" s="113"/>
+      <c r="C1043" s="113"/>
+      <c r="D1043" s="113"/>
+      <c r="E1043" s="113"/>
+      <c r="F1043" s="113"/>
+      <c r="G1043" s="113"/>
+      <c r="H1043" s="113"/>
+      <c r="I1043" s="113"/>
+      <c r="J1043" s="113"/>
+      <c r="K1043" s="113"/>
+      <c r="L1043" s="113"/>
+      <c r="M1043" s="113"/>
+      <c r="N1043" s="114"/>
     </row>
     <row r="1044" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1044" s="21" t="s">
@@ -28420,70 +28419,70 @@
     </row>
     <row r="1045" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1046" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1046" s="95" t="s">
+      <c r="A1046" s="106" t="s">
         <v>308</v>
       </c>
-      <c r="B1046" s="96"/>
-      <c r="C1046" s="96"/>
-      <c r="D1046" s="96"/>
-      <c r="E1046" s="96"/>
-      <c r="F1046" s="96"/>
-      <c r="G1046" s="96"/>
-      <c r="H1046" s="96"/>
-      <c r="I1046" s="96"/>
-      <c r="J1046" s="96"/>
-      <c r="K1046" s="96"/>
-      <c r="L1046" s="96"/>
-      <c r="M1046" s="96"/>
-      <c r="N1046" s="97"/>
+      <c r="B1046" s="107"/>
+      <c r="C1046" s="107"/>
+      <c r="D1046" s="107"/>
+      <c r="E1046" s="107"/>
+      <c r="F1046" s="107"/>
+      <c r="G1046" s="107"/>
+      <c r="H1046" s="107"/>
+      <c r="I1046" s="107"/>
+      <c r="J1046" s="107"/>
+      <c r="K1046" s="107"/>
+      <c r="L1046" s="107"/>
+      <c r="M1046" s="107"/>
+      <c r="N1046" s="108"/>
     </row>
     <row r="1047" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1047" s="98"/>
-      <c r="B1047" s="99"/>
-      <c r="C1047" s="99"/>
-      <c r="D1047" s="99"/>
-      <c r="E1047" s="99"/>
-      <c r="F1047" s="99"/>
-      <c r="G1047" s="99"/>
-      <c r="H1047" s="99"/>
-      <c r="I1047" s="99"/>
-      <c r="J1047" s="99"/>
-      <c r="K1047" s="99"/>
-      <c r="L1047" s="99"/>
-      <c r="M1047" s="99"/>
-      <c r="N1047" s="100"/>
+      <c r="A1047" s="109"/>
+      <c r="B1047" s="110"/>
+      <c r="C1047" s="110"/>
+      <c r="D1047" s="110"/>
+      <c r="E1047" s="110"/>
+      <c r="F1047" s="110"/>
+      <c r="G1047" s="110"/>
+      <c r="H1047" s="110"/>
+      <c r="I1047" s="110"/>
+      <c r="J1047" s="110"/>
+      <c r="K1047" s="110"/>
+      <c r="L1047" s="110"/>
+      <c r="M1047" s="110"/>
+      <c r="N1047" s="111"/>
     </row>
     <row r="1048" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1048" s="98"/>
-      <c r="B1048" s="99"/>
-      <c r="C1048" s="99"/>
-      <c r="D1048" s="99"/>
-      <c r="E1048" s="99"/>
-      <c r="F1048" s="99"/>
-      <c r="G1048" s="99"/>
-      <c r="H1048" s="99"/>
-      <c r="I1048" s="99"/>
-      <c r="J1048" s="99"/>
-      <c r="K1048" s="99"/>
-      <c r="L1048" s="99"/>
-      <c r="M1048" s="99"/>
-      <c r="N1048" s="100"/>
+      <c r="A1048" s="109"/>
+      <c r="B1048" s="110"/>
+      <c r="C1048" s="110"/>
+      <c r="D1048" s="110"/>
+      <c r="E1048" s="110"/>
+      <c r="F1048" s="110"/>
+      <c r="G1048" s="110"/>
+      <c r="H1048" s="110"/>
+      <c r="I1048" s="110"/>
+      <c r="J1048" s="110"/>
+      <c r="K1048" s="110"/>
+      <c r="L1048" s="110"/>
+      <c r="M1048" s="110"/>
+      <c r="N1048" s="111"/>
     </row>
     <row r="1049" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1049" s="101"/>
-      <c r="B1049" s="102"/>
-      <c r="C1049" s="102"/>
-      <c r="D1049" s="102"/>
-      <c r="E1049" s="102"/>
-      <c r="F1049" s="102"/>
-      <c r="G1049" s="102"/>
-      <c r="H1049" s="102"/>
-      <c r="I1049" s="102"/>
-      <c r="J1049" s="102"/>
-      <c r="K1049" s="102"/>
-      <c r="L1049" s="102"/>
-      <c r="M1049" s="102"/>
-      <c r="N1049" s="103"/>
+      <c r="A1049" s="112"/>
+      <c r="B1049" s="113"/>
+      <c r="C1049" s="113"/>
+      <c r="D1049" s="113"/>
+      <c r="E1049" s="113"/>
+      <c r="F1049" s="113"/>
+      <c r="G1049" s="113"/>
+      <c r="H1049" s="113"/>
+      <c r="I1049" s="113"/>
+      <c r="J1049" s="113"/>
+      <c r="K1049" s="113"/>
+      <c r="L1049" s="113"/>
+      <c r="M1049" s="113"/>
+      <c r="N1049" s="114"/>
     </row>
     <row r="1050" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1050" s="12" t="s">
@@ -28541,99 +28540,99 @@
     </row>
     <row r="1054" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1055" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1055" s="109" t="s">
+      <c r="A1055" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="B1055" s="110"/>
-      <c r="C1055" s="110"/>
-      <c r="D1055" s="110"/>
-      <c r="E1055" s="110"/>
-      <c r="F1055" s="110"/>
-      <c r="G1055" s="110"/>
-      <c r="H1055" s="110"/>
-      <c r="I1055" s="110"/>
-      <c r="J1055" s="110"/>
-      <c r="K1055" s="110"/>
-      <c r="L1055" s="110"/>
-      <c r="M1055" s="110"/>
-      <c r="N1055" s="111"/>
+      <c r="B1055" s="120"/>
+      <c r="C1055" s="120"/>
+      <c r="D1055" s="120"/>
+      <c r="E1055" s="120"/>
+      <c r="F1055" s="120"/>
+      <c r="G1055" s="120"/>
+      <c r="H1055" s="120"/>
+      <c r="I1055" s="120"/>
+      <c r="J1055" s="120"/>
+      <c r="K1055" s="120"/>
+      <c r="L1055" s="120"/>
+      <c r="M1055" s="120"/>
+      <c r="N1055" s="121"/>
     </row>
     <row r="1056" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1056" s="32"/>
     </row>
     <row r="1057" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1057" s="112" t="s">
+      <c r="A1057" s="145" t="s">
         <v>314</v>
       </c>
-      <c r="B1057" s="112"/>
-      <c r="C1057" s="112"/>
+      <c r="B1057" s="145"/>
+      <c r="C1057" s="145"/>
     </row>
     <row r="1058" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1059" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1059" s="95" t="s">
+      <c r="A1059" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="B1059" s="96"/>
-      <c r="C1059" s="96"/>
-      <c r="D1059" s="96"/>
-      <c r="E1059" s="96"/>
-      <c r="F1059" s="96"/>
-      <c r="G1059" s="96"/>
-      <c r="H1059" s="96"/>
-      <c r="I1059" s="96"/>
-      <c r="J1059" s="96"/>
-      <c r="K1059" s="96"/>
-      <c r="L1059" s="96"/>
-      <c r="M1059" s="96"/>
-      <c r="N1059" s="97"/>
+      <c r="B1059" s="107"/>
+      <c r="C1059" s="107"/>
+      <c r="D1059" s="107"/>
+      <c r="E1059" s="107"/>
+      <c r="F1059" s="107"/>
+      <c r="G1059" s="107"/>
+      <c r="H1059" s="107"/>
+      <c r="I1059" s="107"/>
+      <c r="J1059" s="107"/>
+      <c r="K1059" s="107"/>
+      <c r="L1059" s="107"/>
+      <c r="M1059" s="107"/>
+      <c r="N1059" s="108"/>
     </row>
     <row r="1060" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1060" s="98"/>
-      <c r="B1060" s="99"/>
-      <c r="C1060" s="99"/>
-      <c r="D1060" s="99"/>
-      <c r="E1060" s="99"/>
-      <c r="F1060" s="99"/>
-      <c r="G1060" s="99"/>
-      <c r="H1060" s="99"/>
-      <c r="I1060" s="99"/>
-      <c r="J1060" s="99"/>
-      <c r="K1060" s="99"/>
-      <c r="L1060" s="99"/>
-      <c r="M1060" s="99"/>
-      <c r="N1060" s="100"/>
+      <c r="A1060" s="109"/>
+      <c r="B1060" s="110"/>
+      <c r="C1060" s="110"/>
+      <c r="D1060" s="110"/>
+      <c r="E1060" s="110"/>
+      <c r="F1060" s="110"/>
+      <c r="G1060" s="110"/>
+      <c r="H1060" s="110"/>
+      <c r="I1060" s="110"/>
+      <c r="J1060" s="110"/>
+      <c r="K1060" s="110"/>
+      <c r="L1060" s="110"/>
+      <c r="M1060" s="110"/>
+      <c r="N1060" s="111"/>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1061" s="98"/>
-      <c r="B1061" s="99"/>
-      <c r="C1061" s="99"/>
-      <c r="D1061" s="99"/>
-      <c r="E1061" s="99"/>
-      <c r="F1061" s="99"/>
-      <c r="G1061" s="99"/>
-      <c r="H1061" s="99"/>
-      <c r="I1061" s="99"/>
-      <c r="J1061" s="99"/>
-      <c r="K1061" s="99"/>
-      <c r="L1061" s="99"/>
-      <c r="M1061" s="99"/>
-      <c r="N1061" s="100"/>
+      <c r="A1061" s="109"/>
+      <c r="B1061" s="110"/>
+      <c r="C1061" s="110"/>
+      <c r="D1061" s="110"/>
+      <c r="E1061" s="110"/>
+      <c r="F1061" s="110"/>
+      <c r="G1061" s="110"/>
+      <c r="H1061" s="110"/>
+      <c r="I1061" s="110"/>
+      <c r="J1061" s="110"/>
+      <c r="K1061" s="110"/>
+      <c r="L1061" s="110"/>
+      <c r="M1061" s="110"/>
+      <c r="N1061" s="111"/>
     </row>
     <row r="1062" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1062" s="101"/>
-      <c r="B1062" s="102"/>
-      <c r="C1062" s="102"/>
-      <c r="D1062" s="102"/>
-      <c r="E1062" s="102"/>
-      <c r="F1062" s="102"/>
-      <c r="G1062" s="102"/>
-      <c r="H1062" s="102"/>
-      <c r="I1062" s="102"/>
-      <c r="J1062" s="102"/>
-      <c r="K1062" s="102"/>
-      <c r="L1062" s="102"/>
-      <c r="M1062" s="102"/>
-      <c r="N1062" s="103"/>
+      <c r="A1062" s="112"/>
+      <c r="B1062" s="113"/>
+      <c r="C1062" s="113"/>
+      <c r="D1062" s="113"/>
+      <c r="E1062" s="113"/>
+      <c r="F1062" s="113"/>
+      <c r="G1062" s="113"/>
+      <c r="H1062" s="113"/>
+      <c r="I1062" s="113"/>
+      <c r="J1062" s="113"/>
+      <c r="K1062" s="113"/>
+      <c r="L1062" s="113"/>
+      <c r="M1062" s="113"/>
+      <c r="N1062" s="114"/>
     </row>
     <row r="1063" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1063" s="21" t="s">
@@ -28660,70 +28659,70 @@
     </row>
     <row r="1064" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1065" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1065" s="95" t="s">
+      <c r="A1065" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="B1065" s="96"/>
-      <c r="C1065" s="96"/>
-      <c r="D1065" s="96"/>
-      <c r="E1065" s="96"/>
-      <c r="F1065" s="96"/>
-      <c r="G1065" s="96"/>
-      <c r="H1065" s="96"/>
-      <c r="I1065" s="96"/>
-      <c r="J1065" s="96"/>
-      <c r="K1065" s="96"/>
-      <c r="L1065" s="96"/>
-      <c r="M1065" s="96"/>
-      <c r="N1065" s="97"/>
+      <c r="B1065" s="107"/>
+      <c r="C1065" s="107"/>
+      <c r="D1065" s="107"/>
+      <c r="E1065" s="107"/>
+      <c r="F1065" s="107"/>
+      <c r="G1065" s="107"/>
+      <c r="H1065" s="107"/>
+      <c r="I1065" s="107"/>
+      <c r="J1065" s="107"/>
+      <c r="K1065" s="107"/>
+      <c r="L1065" s="107"/>
+      <c r="M1065" s="107"/>
+      <c r="N1065" s="108"/>
     </row>
     <row r="1066" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1066" s="98"/>
-      <c r="B1066" s="99"/>
-      <c r="C1066" s="99"/>
-      <c r="D1066" s="99"/>
-      <c r="E1066" s="99"/>
-      <c r="F1066" s="99"/>
-      <c r="G1066" s="99"/>
-      <c r="H1066" s="99"/>
-      <c r="I1066" s="99"/>
-      <c r="J1066" s="99"/>
-      <c r="K1066" s="99"/>
-      <c r="L1066" s="99"/>
-      <c r="M1066" s="99"/>
-      <c r="N1066" s="100"/>
+      <c r="A1066" s="109"/>
+      <c r="B1066" s="110"/>
+      <c r="C1066" s="110"/>
+      <c r="D1066" s="110"/>
+      <c r="E1066" s="110"/>
+      <c r="F1066" s="110"/>
+      <c r="G1066" s="110"/>
+      <c r="H1066" s="110"/>
+      <c r="I1066" s="110"/>
+      <c r="J1066" s="110"/>
+      <c r="K1066" s="110"/>
+      <c r="L1066" s="110"/>
+      <c r="M1066" s="110"/>
+      <c r="N1066" s="111"/>
     </row>
     <row r="1067" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1067" s="98"/>
-      <c r="B1067" s="99"/>
-      <c r="C1067" s="99"/>
-      <c r="D1067" s="99"/>
-      <c r="E1067" s="99"/>
-      <c r="F1067" s="99"/>
-      <c r="G1067" s="99"/>
-      <c r="H1067" s="99"/>
-      <c r="I1067" s="99"/>
-      <c r="J1067" s="99"/>
-      <c r="K1067" s="99"/>
-      <c r="L1067" s="99"/>
-      <c r="M1067" s="99"/>
-      <c r="N1067" s="100"/>
+      <c r="A1067" s="109"/>
+      <c r="B1067" s="110"/>
+      <c r="C1067" s="110"/>
+      <c r="D1067" s="110"/>
+      <c r="E1067" s="110"/>
+      <c r="F1067" s="110"/>
+      <c r="G1067" s="110"/>
+      <c r="H1067" s="110"/>
+      <c r="I1067" s="110"/>
+      <c r="J1067" s="110"/>
+      <c r="K1067" s="110"/>
+      <c r="L1067" s="110"/>
+      <c r="M1067" s="110"/>
+      <c r="N1067" s="111"/>
     </row>
     <row r="1068" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1068" s="101"/>
-      <c r="B1068" s="102"/>
-      <c r="C1068" s="102"/>
-      <c r="D1068" s="102"/>
-      <c r="E1068" s="102"/>
-      <c r="F1068" s="102"/>
-      <c r="G1068" s="102"/>
-      <c r="H1068" s="102"/>
-      <c r="I1068" s="102"/>
-      <c r="J1068" s="102"/>
-      <c r="K1068" s="102"/>
-      <c r="L1068" s="102"/>
-      <c r="M1068" s="102"/>
-      <c r="N1068" s="103"/>
+      <c r="A1068" s="112"/>
+      <c r="B1068" s="113"/>
+      <c r="C1068" s="113"/>
+      <c r="D1068" s="113"/>
+      <c r="E1068" s="113"/>
+      <c r="F1068" s="113"/>
+      <c r="G1068" s="113"/>
+      <c r="H1068" s="113"/>
+      <c r="I1068" s="113"/>
+      <c r="J1068" s="113"/>
+      <c r="K1068" s="113"/>
+      <c r="L1068" s="113"/>
+      <c r="M1068" s="113"/>
+      <c r="N1068" s="114"/>
     </row>
     <row r="1069" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1069" s="21" t="s">
@@ -28750,70 +28749,70 @@
     </row>
     <row r="1070" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1071" s="95" t="s">
+      <c r="A1071" s="106" t="s">
         <v>319</v>
       </c>
-      <c r="B1071" s="96"/>
-      <c r="C1071" s="96"/>
-      <c r="D1071" s="96"/>
-      <c r="E1071" s="96"/>
-      <c r="F1071" s="96"/>
-      <c r="G1071" s="96"/>
-      <c r="H1071" s="96"/>
-      <c r="I1071" s="96"/>
-      <c r="J1071" s="96"/>
-      <c r="K1071" s="96"/>
-      <c r="L1071" s="96"/>
-      <c r="M1071" s="96"/>
-      <c r="N1071" s="97"/>
+      <c r="B1071" s="107"/>
+      <c r="C1071" s="107"/>
+      <c r="D1071" s="107"/>
+      <c r="E1071" s="107"/>
+      <c r="F1071" s="107"/>
+      <c r="G1071" s="107"/>
+      <c r="H1071" s="107"/>
+      <c r="I1071" s="107"/>
+      <c r="J1071" s="107"/>
+      <c r="K1071" s="107"/>
+      <c r="L1071" s="107"/>
+      <c r="M1071" s="107"/>
+      <c r="N1071" s="108"/>
     </row>
     <row r="1072" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1072" s="98"/>
-      <c r="B1072" s="99"/>
-      <c r="C1072" s="99"/>
-      <c r="D1072" s="99"/>
-      <c r="E1072" s="99"/>
-      <c r="F1072" s="99"/>
-      <c r="G1072" s="99"/>
-      <c r="H1072" s="99"/>
-      <c r="I1072" s="99"/>
-      <c r="J1072" s="99"/>
-      <c r="K1072" s="99"/>
-      <c r="L1072" s="99"/>
-      <c r="M1072" s="99"/>
-      <c r="N1072" s="100"/>
+      <c r="A1072" s="109"/>
+      <c r="B1072" s="110"/>
+      <c r="C1072" s="110"/>
+      <c r="D1072" s="110"/>
+      <c r="E1072" s="110"/>
+      <c r="F1072" s="110"/>
+      <c r="G1072" s="110"/>
+      <c r="H1072" s="110"/>
+      <c r="I1072" s="110"/>
+      <c r="J1072" s="110"/>
+      <c r="K1072" s="110"/>
+      <c r="L1072" s="110"/>
+      <c r="M1072" s="110"/>
+      <c r="N1072" s="111"/>
     </row>
     <row r="1073" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1073" s="98"/>
-      <c r="B1073" s="99"/>
-      <c r="C1073" s="99"/>
-      <c r="D1073" s="99"/>
-      <c r="E1073" s="99"/>
-      <c r="F1073" s="99"/>
-      <c r="G1073" s="99"/>
-      <c r="H1073" s="99"/>
-      <c r="I1073" s="99"/>
-      <c r="J1073" s="99"/>
-      <c r="K1073" s="99"/>
-      <c r="L1073" s="99"/>
-      <c r="M1073" s="99"/>
-      <c r="N1073" s="100"/>
+      <c r="A1073" s="109"/>
+      <c r="B1073" s="110"/>
+      <c r="C1073" s="110"/>
+      <c r="D1073" s="110"/>
+      <c r="E1073" s="110"/>
+      <c r="F1073" s="110"/>
+      <c r="G1073" s="110"/>
+      <c r="H1073" s="110"/>
+      <c r="I1073" s="110"/>
+      <c r="J1073" s="110"/>
+      <c r="K1073" s="110"/>
+      <c r="L1073" s="110"/>
+      <c r="M1073" s="110"/>
+      <c r="N1073" s="111"/>
     </row>
     <row r="1074" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1074" s="101"/>
-      <c r="B1074" s="102"/>
-      <c r="C1074" s="102"/>
-      <c r="D1074" s="102"/>
-      <c r="E1074" s="102"/>
-      <c r="F1074" s="102"/>
-      <c r="G1074" s="102"/>
-      <c r="H1074" s="102"/>
-      <c r="I1074" s="102"/>
-      <c r="J1074" s="102"/>
-      <c r="K1074" s="102"/>
-      <c r="L1074" s="102"/>
-      <c r="M1074" s="102"/>
-      <c r="N1074" s="103"/>
+      <c r="A1074" s="112"/>
+      <c r="B1074" s="113"/>
+      <c r="C1074" s="113"/>
+      <c r="D1074" s="113"/>
+      <c r="E1074" s="113"/>
+      <c r="F1074" s="113"/>
+      <c r="G1074" s="113"/>
+      <c r="H1074" s="113"/>
+      <c r="I1074" s="113"/>
+      <c r="J1074" s="113"/>
+      <c r="K1074" s="113"/>
+      <c r="L1074" s="113"/>
+      <c r="M1074" s="113"/>
+      <c r="N1074" s="114"/>
     </row>
     <row r="1075" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1075" s="21" t="s">
@@ -28839,11 +28838,11 @@
       <c r="N1075" s="19"/>
     </row>
     <row r="1077" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1077" s="94" t="s">
+      <c r="A1077" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="B1077" s="94"/>
-      <c r="C1077" s="94"/>
+      <c r="B1077" s="149"/>
+      <c r="C1077" s="149"/>
       <c r="L1077" s="60"/>
     </row>
     <row r="1078" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28851,79 +28850,79 @@
       <c r="L1078" s="60"/>
     </row>
     <row r="1079" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1079" s="95" t="s">
+      <c r="A1079" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="B1079" s="96"/>
-      <c r="C1079" s="96"/>
-      <c r="D1079" s="96"/>
-      <c r="E1079" s="96"/>
-      <c r="F1079" s="96"/>
-      <c r="G1079" s="96"/>
-      <c r="H1079" s="96"/>
-      <c r="I1079" s="96"/>
-      <c r="J1079" s="96"/>
-      <c r="K1079" s="96"/>
-      <c r="L1079" s="96"/>
-      <c r="M1079" s="96"/>
-      <c r="N1079" s="97"/>
+      <c r="B1079" s="107"/>
+      <c r="C1079" s="107"/>
+      <c r="D1079" s="107"/>
+      <c r="E1079" s="107"/>
+      <c r="F1079" s="107"/>
+      <c r="G1079" s="107"/>
+      <c r="H1079" s="107"/>
+      <c r="I1079" s="107"/>
+      <c r="J1079" s="107"/>
+      <c r="K1079" s="107"/>
+      <c r="L1079" s="107"/>
+      <c r="M1079" s="107"/>
+      <c r="N1079" s="108"/>
       <c r="R1079" s="62"/>
       <c r="S1079" s="62"/>
       <c r="T1079" s="62"/>
     </row>
     <row r="1080" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1080" s="98"/>
-      <c r="B1080" s="99"/>
-      <c r="C1080" s="99"/>
-      <c r="D1080" s="99"/>
-      <c r="E1080" s="99"/>
-      <c r="F1080" s="99"/>
-      <c r="G1080" s="99"/>
-      <c r="H1080" s="99"/>
-      <c r="I1080" s="99"/>
-      <c r="J1080" s="99"/>
-      <c r="K1080" s="99"/>
-      <c r="L1080" s="99"/>
-      <c r="M1080" s="99"/>
-      <c r="N1080" s="100"/>
+      <c r="A1080" s="109"/>
+      <c r="B1080" s="110"/>
+      <c r="C1080" s="110"/>
+      <c r="D1080" s="110"/>
+      <c r="E1080" s="110"/>
+      <c r="F1080" s="110"/>
+      <c r="G1080" s="110"/>
+      <c r="H1080" s="110"/>
+      <c r="I1080" s="110"/>
+      <c r="J1080" s="110"/>
+      <c r="K1080" s="110"/>
+      <c r="L1080" s="110"/>
+      <c r="M1080" s="110"/>
+      <c r="N1080" s="111"/>
       <c r="R1080" s="62"/>
       <c r="S1080" s="62"/>
       <c r="T1080" s="62"/>
     </row>
     <row r="1081" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1081" s="98"/>
-      <c r="B1081" s="99"/>
-      <c r="C1081" s="99"/>
-      <c r="D1081" s="99"/>
-      <c r="E1081" s="99"/>
-      <c r="F1081" s="99"/>
-      <c r="G1081" s="99"/>
-      <c r="H1081" s="99"/>
-      <c r="I1081" s="99"/>
-      <c r="J1081" s="99"/>
-      <c r="K1081" s="99"/>
-      <c r="L1081" s="99"/>
-      <c r="M1081" s="99"/>
-      <c r="N1081" s="100"/>
+      <c r="A1081" s="109"/>
+      <c r="B1081" s="110"/>
+      <c r="C1081" s="110"/>
+      <c r="D1081" s="110"/>
+      <c r="E1081" s="110"/>
+      <c r="F1081" s="110"/>
+      <c r="G1081" s="110"/>
+      <c r="H1081" s="110"/>
+      <c r="I1081" s="110"/>
+      <c r="J1081" s="110"/>
+      <c r="K1081" s="110"/>
+      <c r="L1081" s="110"/>
+      <c r="M1081" s="110"/>
+      <c r="N1081" s="111"/>
       <c r="R1081" s="62"/>
       <c r="S1081" s="62"/>
       <c r="T1081" s="62"/>
     </row>
     <row r="1082" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1082" s="101"/>
-      <c r="B1082" s="102"/>
-      <c r="C1082" s="102"/>
-      <c r="D1082" s="102"/>
-      <c r="E1082" s="102"/>
-      <c r="F1082" s="102"/>
-      <c r="G1082" s="102"/>
-      <c r="H1082" s="102"/>
-      <c r="I1082" s="102"/>
-      <c r="J1082" s="102"/>
-      <c r="K1082" s="102"/>
-      <c r="L1082" s="102"/>
-      <c r="M1082" s="102"/>
-      <c r="N1082" s="103"/>
+      <c r="A1082" s="112"/>
+      <c r="B1082" s="113"/>
+      <c r="C1082" s="113"/>
+      <c r="D1082" s="113"/>
+      <c r="E1082" s="113"/>
+      <c r="F1082" s="113"/>
+      <c r="G1082" s="113"/>
+      <c r="H1082" s="113"/>
+      <c r="I1082" s="113"/>
+      <c r="J1082" s="113"/>
+      <c r="K1082" s="113"/>
+      <c r="L1082" s="113"/>
+      <c r="M1082" s="113"/>
+      <c r="N1082" s="114"/>
       <c r="R1082" s="62"/>
       <c r="S1082" s="62"/>
       <c r="T1082" s="62"/>
@@ -29039,79 +29038,79 @@
       <c r="T1087" s="62"/>
     </row>
     <row r="1088" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1088" s="95" t="s">
+      <c r="A1088" s="106" t="s">
         <v>325</v>
       </c>
-      <c r="B1088" s="96"/>
-      <c r="C1088" s="96"/>
-      <c r="D1088" s="96"/>
-      <c r="E1088" s="96"/>
-      <c r="F1088" s="96"/>
-      <c r="G1088" s="96"/>
-      <c r="H1088" s="96"/>
-      <c r="I1088" s="96"/>
-      <c r="J1088" s="96"/>
-      <c r="K1088" s="96"/>
-      <c r="L1088" s="96"/>
-      <c r="M1088" s="96"/>
-      <c r="N1088" s="97"/>
+      <c r="B1088" s="107"/>
+      <c r="C1088" s="107"/>
+      <c r="D1088" s="107"/>
+      <c r="E1088" s="107"/>
+      <c r="F1088" s="107"/>
+      <c r="G1088" s="107"/>
+      <c r="H1088" s="107"/>
+      <c r="I1088" s="107"/>
+      <c r="J1088" s="107"/>
+      <c r="K1088" s="107"/>
+      <c r="L1088" s="107"/>
+      <c r="M1088" s="107"/>
+      <c r="N1088" s="108"/>
       <c r="R1088" s="62"/>
       <c r="S1088" s="62"/>
       <c r="T1088" s="62"/>
     </row>
     <row r="1089" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1089" s="98"/>
-      <c r="B1089" s="99"/>
-      <c r="C1089" s="99"/>
-      <c r="D1089" s="99"/>
-      <c r="E1089" s="99"/>
-      <c r="F1089" s="99"/>
-      <c r="G1089" s="99"/>
-      <c r="H1089" s="99"/>
-      <c r="I1089" s="99"/>
-      <c r="J1089" s="99"/>
-      <c r="K1089" s="99"/>
-      <c r="L1089" s="99"/>
-      <c r="M1089" s="99"/>
-      <c r="N1089" s="100"/>
+      <c r="A1089" s="109"/>
+      <c r="B1089" s="110"/>
+      <c r="C1089" s="110"/>
+      <c r="D1089" s="110"/>
+      <c r="E1089" s="110"/>
+      <c r="F1089" s="110"/>
+      <c r="G1089" s="110"/>
+      <c r="H1089" s="110"/>
+      <c r="I1089" s="110"/>
+      <c r="J1089" s="110"/>
+      <c r="K1089" s="110"/>
+      <c r="L1089" s="110"/>
+      <c r="M1089" s="110"/>
+      <c r="N1089" s="111"/>
       <c r="R1089" s="62"/>
       <c r="S1089" s="62"/>
       <c r="T1089" s="62"/>
     </row>
     <row r="1090" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1090" s="98"/>
-      <c r="B1090" s="99"/>
-      <c r="C1090" s="99"/>
-      <c r="D1090" s="99"/>
-      <c r="E1090" s="99"/>
-      <c r="F1090" s="99"/>
-      <c r="G1090" s="99"/>
-      <c r="H1090" s="99"/>
-      <c r="I1090" s="99"/>
-      <c r="J1090" s="99"/>
-      <c r="K1090" s="99"/>
-      <c r="L1090" s="99"/>
-      <c r="M1090" s="99"/>
-      <c r="N1090" s="100"/>
+      <c r="A1090" s="109"/>
+      <c r="B1090" s="110"/>
+      <c r="C1090" s="110"/>
+      <c r="D1090" s="110"/>
+      <c r="E1090" s="110"/>
+      <c r="F1090" s="110"/>
+      <c r="G1090" s="110"/>
+      <c r="H1090" s="110"/>
+      <c r="I1090" s="110"/>
+      <c r="J1090" s="110"/>
+      <c r="K1090" s="110"/>
+      <c r="L1090" s="110"/>
+      <c r="M1090" s="110"/>
+      <c r="N1090" s="111"/>
       <c r="O1090" s="62"/>
       <c r="P1090" s="62"/>
       <c r="Q1090" s="62"/>
     </row>
     <row r="1091" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1091" s="101"/>
-      <c r="B1091" s="102"/>
-      <c r="C1091" s="102"/>
-      <c r="D1091" s="102"/>
-      <c r="E1091" s="102"/>
-      <c r="F1091" s="102"/>
-      <c r="G1091" s="102"/>
-      <c r="H1091" s="102"/>
-      <c r="I1091" s="102"/>
-      <c r="J1091" s="102"/>
-      <c r="K1091" s="102"/>
-      <c r="L1091" s="102"/>
-      <c r="M1091" s="102"/>
-      <c r="N1091" s="103"/>
+      <c r="A1091" s="112"/>
+      <c r="B1091" s="113"/>
+      <c r="C1091" s="113"/>
+      <c r="D1091" s="113"/>
+      <c r="E1091" s="113"/>
+      <c r="F1091" s="113"/>
+      <c r="G1091" s="113"/>
+      <c r="H1091" s="113"/>
+      <c r="I1091" s="113"/>
+      <c r="J1091" s="113"/>
+      <c r="K1091" s="113"/>
+      <c r="L1091" s="113"/>
+      <c r="M1091" s="113"/>
+      <c r="N1091" s="114"/>
       <c r="O1091" s="62"/>
       <c r="P1091" s="62"/>
       <c r="Q1091" s="62"/>
@@ -29248,33 +29247,33 @@
       <c r="Q1097" s="62"/>
     </row>
     <row r="1098" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1098" s="109" t="s">
+      <c r="A1098" s="119" t="s">
         <v>328</v>
       </c>
-      <c r="B1098" s="110"/>
-      <c r="C1098" s="110"/>
-      <c r="D1098" s="110"/>
-      <c r="E1098" s="110"/>
-      <c r="F1098" s="110"/>
-      <c r="G1098" s="110"/>
-      <c r="H1098" s="110"/>
-      <c r="I1098" s="110"/>
-      <c r="J1098" s="110"/>
-      <c r="K1098" s="110"/>
-      <c r="L1098" s="110"/>
-      <c r="M1098" s="110"/>
-      <c r="N1098" s="111"/>
+      <c r="B1098" s="120"/>
+      <c r="C1098" s="120"/>
+      <c r="D1098" s="120"/>
+      <c r="E1098" s="120"/>
+      <c r="F1098" s="120"/>
+      <c r="G1098" s="120"/>
+      <c r="H1098" s="120"/>
+      <c r="I1098" s="120"/>
+      <c r="J1098" s="120"/>
+      <c r="K1098" s="120"/>
+      <c r="L1098" s="120"/>
+      <c r="M1098" s="120"/>
+      <c r="N1098" s="121"/>
     </row>
     <row r="1099" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1099" s="62"/>
       <c r="Q1099" s="62"/>
     </row>
     <row r="1100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1100" s="94" t="s">
+      <c r="A1100" s="149" t="s">
         <v>329</v>
       </c>
-      <c r="B1100" s="94"/>
-      <c r="C1100" s="94"/>
+      <c r="B1100" s="149"/>
+      <c r="C1100" s="149"/>
       <c r="Q1100" s="62"/>
     </row>
     <row r="1101" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29282,70 +29281,70 @@
       <c r="Q1101" s="62"/>
     </row>
     <row r="1102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1102" s="95" t="s">
+      <c r="A1102" s="106" t="s">
         <v>330</v>
       </c>
-      <c r="B1102" s="96"/>
-      <c r="C1102" s="96"/>
-      <c r="D1102" s="96"/>
-      <c r="E1102" s="96"/>
-      <c r="F1102" s="96"/>
-      <c r="G1102" s="96"/>
-      <c r="H1102" s="96"/>
-      <c r="I1102" s="96"/>
-      <c r="J1102" s="96"/>
-      <c r="K1102" s="96"/>
-      <c r="L1102" s="96"/>
-      <c r="M1102" s="96"/>
-      <c r="N1102" s="97"/>
+      <c r="B1102" s="107"/>
+      <c r="C1102" s="107"/>
+      <c r="D1102" s="107"/>
+      <c r="E1102" s="107"/>
+      <c r="F1102" s="107"/>
+      <c r="G1102" s="107"/>
+      <c r="H1102" s="107"/>
+      <c r="I1102" s="107"/>
+      <c r="J1102" s="107"/>
+      <c r="K1102" s="107"/>
+      <c r="L1102" s="107"/>
+      <c r="M1102" s="107"/>
+      <c r="N1102" s="108"/>
     </row>
     <row r="1103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1103" s="98"/>
-      <c r="B1103" s="99"/>
-      <c r="C1103" s="99"/>
-      <c r="D1103" s="99"/>
-      <c r="E1103" s="99"/>
-      <c r="F1103" s="99"/>
-      <c r="G1103" s="99"/>
-      <c r="H1103" s="99"/>
-      <c r="I1103" s="99"/>
-      <c r="J1103" s="99"/>
-      <c r="K1103" s="99"/>
-      <c r="L1103" s="99"/>
-      <c r="M1103" s="99"/>
-      <c r="N1103" s="100"/>
+      <c r="A1103" s="109"/>
+      <c r="B1103" s="110"/>
+      <c r="C1103" s="110"/>
+      <c r="D1103" s="110"/>
+      <c r="E1103" s="110"/>
+      <c r="F1103" s="110"/>
+      <c r="G1103" s="110"/>
+      <c r="H1103" s="110"/>
+      <c r="I1103" s="110"/>
+      <c r="J1103" s="110"/>
+      <c r="K1103" s="110"/>
+      <c r="L1103" s="110"/>
+      <c r="M1103" s="110"/>
+      <c r="N1103" s="111"/>
     </row>
     <row r="1104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1104" s="98"/>
-      <c r="B1104" s="99"/>
-      <c r="C1104" s="99"/>
-      <c r="D1104" s="99"/>
-      <c r="E1104" s="99"/>
-      <c r="F1104" s="99"/>
-      <c r="G1104" s="99"/>
-      <c r="H1104" s="99"/>
-      <c r="I1104" s="99"/>
-      <c r="J1104" s="99"/>
-      <c r="K1104" s="99"/>
-      <c r="L1104" s="99"/>
-      <c r="M1104" s="99"/>
-      <c r="N1104" s="100"/>
+      <c r="A1104" s="109"/>
+      <c r="B1104" s="110"/>
+      <c r="C1104" s="110"/>
+      <c r="D1104" s="110"/>
+      <c r="E1104" s="110"/>
+      <c r="F1104" s="110"/>
+      <c r="G1104" s="110"/>
+      <c r="H1104" s="110"/>
+      <c r="I1104" s="110"/>
+      <c r="J1104" s="110"/>
+      <c r="K1104" s="110"/>
+      <c r="L1104" s="110"/>
+      <c r="M1104" s="110"/>
+      <c r="N1104" s="111"/>
     </row>
     <row r="1105" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1105" s="101"/>
-      <c r="B1105" s="102"/>
-      <c r="C1105" s="102"/>
-      <c r="D1105" s="102"/>
-      <c r="E1105" s="102"/>
-      <c r="F1105" s="102"/>
-      <c r="G1105" s="102"/>
-      <c r="H1105" s="102"/>
-      <c r="I1105" s="102"/>
-      <c r="J1105" s="102"/>
-      <c r="K1105" s="102"/>
-      <c r="L1105" s="102"/>
-      <c r="M1105" s="102"/>
-      <c r="N1105" s="103"/>
+      <c r="A1105" s="112"/>
+      <c r="B1105" s="113"/>
+      <c r="C1105" s="113"/>
+      <c r="D1105" s="113"/>
+      <c r="E1105" s="113"/>
+      <c r="F1105" s="113"/>
+      <c r="G1105" s="113"/>
+      <c r="H1105" s="113"/>
+      <c r="I1105" s="113"/>
+      <c r="J1105" s="113"/>
+      <c r="K1105" s="113"/>
+      <c r="L1105" s="113"/>
+      <c r="M1105" s="113"/>
+      <c r="N1105" s="114"/>
     </row>
     <row r="1106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1106" s="12" t="s">
@@ -29440,22 +29439,22 @@
       <c r="C1112" s="62"/>
     </row>
     <row r="1113" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1113" s="95" t="s">
+      <c r="A1113" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="B1113" s="96"/>
-      <c r="C1113" s="96"/>
-      <c r="D1113" s="96"/>
-      <c r="E1113" s="96"/>
-      <c r="F1113" s="96"/>
-      <c r="G1113" s="96"/>
-      <c r="H1113" s="96"/>
-      <c r="I1113" s="96"/>
-      <c r="J1113" s="96"/>
-      <c r="K1113" s="96"/>
-      <c r="L1113" s="96"/>
-      <c r="M1113" s="96"/>
-      <c r="N1113" s="97"/>
+      <c r="B1113" s="107"/>
+      <c r="C1113" s="107"/>
+      <c r="D1113" s="107"/>
+      <c r="E1113" s="107"/>
+      <c r="F1113" s="107"/>
+      <c r="G1113" s="107"/>
+      <c r="H1113" s="107"/>
+      <c r="I1113" s="107"/>
+      <c r="J1113" s="107"/>
+      <c r="K1113" s="107"/>
+      <c r="L1113" s="107"/>
+      <c r="M1113" s="107"/>
+      <c r="N1113" s="108"/>
       <c r="O1113" s="62"/>
       <c r="P1113" s="62"/>
       <c r="Q1113" s="62"/>
@@ -29477,20 +29476,20 @@
       <c r="AG1113" s="62"/>
     </row>
     <row r="1114" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1114" s="98"/>
-      <c r="B1114" s="99"/>
-      <c r="C1114" s="99"/>
-      <c r="D1114" s="99"/>
-      <c r="E1114" s="99"/>
-      <c r="F1114" s="99"/>
-      <c r="G1114" s="99"/>
-      <c r="H1114" s="99"/>
-      <c r="I1114" s="99"/>
-      <c r="J1114" s="99"/>
-      <c r="K1114" s="99"/>
-      <c r="L1114" s="99"/>
-      <c r="M1114" s="99"/>
-      <c r="N1114" s="100"/>
+      <c r="A1114" s="109"/>
+      <c r="B1114" s="110"/>
+      <c r="C1114" s="110"/>
+      <c r="D1114" s="110"/>
+      <c r="E1114" s="110"/>
+      <c r="F1114" s="110"/>
+      <c r="G1114" s="110"/>
+      <c r="H1114" s="110"/>
+      <c r="I1114" s="110"/>
+      <c r="J1114" s="110"/>
+      <c r="K1114" s="110"/>
+      <c r="L1114" s="110"/>
+      <c r="M1114" s="110"/>
+      <c r="N1114" s="111"/>
       <c r="O1114" s="62"/>
       <c r="P1114" s="62"/>
       <c r="Q1114" s="62"/>
@@ -29512,20 +29511,20 @@
       <c r="AG1114" s="62"/>
     </row>
     <row r="1115" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1115" s="98"/>
-      <c r="B1115" s="99"/>
-      <c r="C1115" s="99"/>
-      <c r="D1115" s="99"/>
-      <c r="E1115" s="99"/>
-      <c r="F1115" s="99"/>
-      <c r="G1115" s="99"/>
-      <c r="H1115" s="99"/>
-      <c r="I1115" s="99"/>
-      <c r="J1115" s="99"/>
-      <c r="K1115" s="99"/>
-      <c r="L1115" s="99"/>
-      <c r="M1115" s="99"/>
-      <c r="N1115" s="100"/>
+      <c r="A1115" s="109"/>
+      <c r="B1115" s="110"/>
+      <c r="C1115" s="110"/>
+      <c r="D1115" s="110"/>
+      <c r="E1115" s="110"/>
+      <c r="F1115" s="110"/>
+      <c r="G1115" s="110"/>
+      <c r="H1115" s="110"/>
+      <c r="I1115" s="110"/>
+      <c r="J1115" s="110"/>
+      <c r="K1115" s="110"/>
+      <c r="L1115" s="110"/>
+      <c r="M1115" s="110"/>
+      <c r="N1115" s="111"/>
       <c r="O1115" s="62"/>
       <c r="P1115" s="62"/>
       <c r="Q1115" s="62"/>
@@ -29547,20 +29546,20 @@
       <c r="AG1115" s="62"/>
     </row>
     <row r="1116" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1116" s="101"/>
-      <c r="B1116" s="102"/>
-      <c r="C1116" s="102"/>
-      <c r="D1116" s="102"/>
-      <c r="E1116" s="102"/>
-      <c r="F1116" s="102"/>
-      <c r="G1116" s="102"/>
-      <c r="H1116" s="102"/>
-      <c r="I1116" s="102"/>
-      <c r="J1116" s="102"/>
-      <c r="K1116" s="102"/>
-      <c r="L1116" s="102"/>
-      <c r="M1116" s="102"/>
-      <c r="N1116" s="103"/>
+      <c r="A1116" s="112"/>
+      <c r="B1116" s="113"/>
+      <c r="C1116" s="113"/>
+      <c r="D1116" s="113"/>
+      <c r="E1116" s="113"/>
+      <c r="F1116" s="113"/>
+      <c r="G1116" s="113"/>
+      <c r="H1116" s="113"/>
+      <c r="I1116" s="113"/>
+      <c r="J1116" s="113"/>
+      <c r="K1116" s="113"/>
+      <c r="L1116" s="113"/>
+      <c r="M1116" s="113"/>
+      <c r="N1116" s="114"/>
       <c r="O1116" s="62"/>
       <c r="P1116" s="62"/>
       <c r="Q1116" s="62"/>
@@ -30010,11 +30009,11 @@
       <c r="AG1130" s="62"/>
     </row>
     <row r="1131" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1131" s="94" t="s">
+      <c r="A1131" s="149" t="s">
         <v>346</v>
       </c>
-      <c r="B1131" s="94"/>
-      <c r="C1131" s="94"/>
+      <c r="B1131" s="149"/>
+      <c r="C1131" s="149"/>
       <c r="D1131" s="62"/>
       <c r="E1131" s="62"/>
       <c r="F1131" s="62"/>
@@ -30046,73 +30045,73 @@
       <c r="O1132" s="62"/>
     </row>
     <row r="1133" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1133" s="95" t="s">
+      <c r="A1133" s="106" t="s">
         <v>347</v>
       </c>
-      <c r="B1133" s="96"/>
-      <c r="C1133" s="96"/>
-      <c r="D1133" s="96"/>
-      <c r="E1133" s="96"/>
-      <c r="F1133" s="96"/>
-      <c r="G1133" s="96"/>
-      <c r="H1133" s="96"/>
-      <c r="I1133" s="96"/>
-      <c r="J1133" s="96"/>
-      <c r="K1133" s="96"/>
-      <c r="L1133" s="96"/>
-      <c r="M1133" s="96"/>
-      <c r="N1133" s="97"/>
+      <c r="B1133" s="107"/>
+      <c r="C1133" s="107"/>
+      <c r="D1133" s="107"/>
+      <c r="E1133" s="107"/>
+      <c r="F1133" s="107"/>
+      <c r="G1133" s="107"/>
+      <c r="H1133" s="107"/>
+      <c r="I1133" s="107"/>
+      <c r="J1133" s="107"/>
+      <c r="K1133" s="107"/>
+      <c r="L1133" s="107"/>
+      <c r="M1133" s="107"/>
+      <c r="N1133" s="108"/>
       <c r="O1133" s="62"/>
     </row>
     <row r="1134" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1134" s="98"/>
-      <c r="B1134" s="99"/>
-      <c r="C1134" s="99"/>
-      <c r="D1134" s="99"/>
-      <c r="E1134" s="99"/>
-      <c r="F1134" s="99"/>
-      <c r="G1134" s="99"/>
-      <c r="H1134" s="99"/>
-      <c r="I1134" s="99"/>
-      <c r="J1134" s="99"/>
-      <c r="K1134" s="99"/>
-      <c r="L1134" s="99"/>
-      <c r="M1134" s="99"/>
-      <c r="N1134" s="100"/>
+      <c r="A1134" s="109"/>
+      <c r="B1134" s="110"/>
+      <c r="C1134" s="110"/>
+      <c r="D1134" s="110"/>
+      <c r="E1134" s="110"/>
+      <c r="F1134" s="110"/>
+      <c r="G1134" s="110"/>
+      <c r="H1134" s="110"/>
+      <c r="I1134" s="110"/>
+      <c r="J1134" s="110"/>
+      <c r="K1134" s="110"/>
+      <c r="L1134" s="110"/>
+      <c r="M1134" s="110"/>
+      <c r="N1134" s="111"/>
       <c r="O1134" s="62"/>
     </row>
     <row r="1135" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1135" s="98"/>
-      <c r="B1135" s="99"/>
-      <c r="C1135" s="99"/>
-      <c r="D1135" s="99"/>
-      <c r="E1135" s="99"/>
-      <c r="F1135" s="99"/>
-      <c r="G1135" s="99"/>
-      <c r="H1135" s="99"/>
-      <c r="I1135" s="99"/>
-      <c r="J1135" s="99"/>
-      <c r="K1135" s="99"/>
-      <c r="L1135" s="99"/>
-      <c r="M1135" s="99"/>
-      <c r="N1135" s="100"/>
+      <c r="A1135" s="109"/>
+      <c r="B1135" s="110"/>
+      <c r="C1135" s="110"/>
+      <c r="D1135" s="110"/>
+      <c r="E1135" s="110"/>
+      <c r="F1135" s="110"/>
+      <c r="G1135" s="110"/>
+      <c r="H1135" s="110"/>
+      <c r="I1135" s="110"/>
+      <c r="J1135" s="110"/>
+      <c r="K1135" s="110"/>
+      <c r="L1135" s="110"/>
+      <c r="M1135" s="110"/>
+      <c r="N1135" s="111"/>
       <c r="O1135" s="62"/>
     </row>
     <row r="1136" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1136" s="101"/>
-      <c r="B1136" s="102"/>
-      <c r="C1136" s="102"/>
-      <c r="D1136" s="102"/>
-      <c r="E1136" s="102"/>
-      <c r="F1136" s="102"/>
-      <c r="G1136" s="102"/>
-      <c r="H1136" s="102"/>
-      <c r="I1136" s="102"/>
-      <c r="J1136" s="102"/>
-      <c r="K1136" s="102"/>
-      <c r="L1136" s="102"/>
-      <c r="M1136" s="102"/>
-      <c r="N1136" s="103"/>
+      <c r="A1136" s="112"/>
+      <c r="B1136" s="113"/>
+      <c r="C1136" s="113"/>
+      <c r="D1136" s="113"/>
+      <c r="E1136" s="113"/>
+      <c r="F1136" s="113"/>
+      <c r="G1136" s="113"/>
+      <c r="H1136" s="113"/>
+      <c r="I1136" s="113"/>
+      <c r="J1136" s="113"/>
+      <c r="K1136" s="113"/>
+      <c r="L1136" s="113"/>
+      <c r="M1136" s="113"/>
+      <c r="N1136" s="114"/>
       <c r="O1136" s="62"/>
     </row>
     <row r="1137" spans="1:15" x14ac:dyDescent="0.25">
@@ -30135,23 +30134,23 @@
     </row>
     <row r="1139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1139" s="4"/>
-      <c r="B1139" s="104" t="s">
+      <c r="B1139" s="151" t="s">
         <v>348</v>
       </c>
-      <c r="C1139" s="105"/>
-      <c r="D1139" s="105"/>
-      <c r="E1139" s="105"/>
-      <c r="F1139" s="106"/>
+      <c r="C1139" s="152"/>
+      <c r="D1139" s="152"/>
+      <c r="E1139" s="152"/>
+      <c r="F1139" s="153"/>
       <c r="G1139" s="62"/>
-      <c r="H1139" s="104" t="s">
+      <c r="H1139" s="151" t="s">
         <v>349</v>
       </c>
-      <c r="I1139" s="107"/>
-      <c r="J1139" s="107"/>
-      <c r="K1139" s="107"/>
-      <c r="L1139" s="107"/>
-      <c r="M1139" s="107"/>
-      <c r="N1139" s="108"/>
+      <c r="I1139" s="154"/>
+      <c r="J1139" s="154"/>
+      <c r="K1139" s="154"/>
+      <c r="L1139" s="154"/>
+      <c r="M1139" s="154"/>
+      <c r="N1139" s="155"/>
     </row>
     <row r="1140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1140" s="4"/>
@@ -30475,6 +30474,100 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="A1131:C1131"/>
+    <mergeCell ref="A1133:N1136"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="H1139:N1139"/>
+    <mergeCell ref="A1079:N1082"/>
+    <mergeCell ref="A1088:N1091"/>
+    <mergeCell ref="A1098:N1098"/>
+    <mergeCell ref="A1100:C1100"/>
+    <mergeCell ref="A1102:N1105"/>
+    <mergeCell ref="A1113:N1116"/>
+    <mergeCell ref="A1055:N1055"/>
+    <mergeCell ref="A1057:C1057"/>
+    <mergeCell ref="A1059:N1062"/>
+    <mergeCell ref="A1065:N1068"/>
+    <mergeCell ref="A1071:N1074"/>
+    <mergeCell ref="A1077:C1077"/>
+    <mergeCell ref="A1010:N1013"/>
+    <mergeCell ref="A1020:N1023"/>
+    <mergeCell ref="A1029:N1032"/>
+    <mergeCell ref="B1033:C1034"/>
+    <mergeCell ref="A1040:N1043"/>
+    <mergeCell ref="A1046:N1049"/>
+    <mergeCell ref="A954:N957"/>
+    <mergeCell ref="A964:N967"/>
+    <mergeCell ref="A975:N978"/>
+    <mergeCell ref="A985:N988"/>
+    <mergeCell ref="A998:N1001"/>
+    <mergeCell ref="A1008:C1008"/>
+    <mergeCell ref="A930:N933"/>
+    <mergeCell ref="A935:B935"/>
+    <mergeCell ref="A938:B938"/>
+    <mergeCell ref="A942:N942"/>
+    <mergeCell ref="A950:N950"/>
+    <mergeCell ref="A952:C952"/>
+    <mergeCell ref="A896:N899"/>
+    <mergeCell ref="A905:N905"/>
+    <mergeCell ref="A913:N916"/>
+    <mergeCell ref="A918:B918"/>
+    <mergeCell ref="A920:B920"/>
+    <mergeCell ref="A923:N923"/>
+    <mergeCell ref="A821:N821"/>
+    <mergeCell ref="A833:N836"/>
+    <mergeCell ref="A851:N851"/>
+    <mergeCell ref="A863:N866"/>
+    <mergeCell ref="A882:N882"/>
+    <mergeCell ref="A894:N894"/>
+    <mergeCell ref="A745:N745"/>
+    <mergeCell ref="A747:N750"/>
+    <mergeCell ref="A763:N763"/>
+    <mergeCell ref="A776:N779"/>
+    <mergeCell ref="A792:N792"/>
+    <mergeCell ref="A804:N807"/>
+    <mergeCell ref="A660:N663"/>
+    <mergeCell ref="A676:N676"/>
+    <mergeCell ref="A689:N692"/>
+    <mergeCell ref="A705:N705"/>
+    <mergeCell ref="A717:N720"/>
+    <mergeCell ref="A733:N733"/>
+    <mergeCell ref="A576:N576"/>
+    <mergeCell ref="A610:N610"/>
+    <mergeCell ref="A612:N615"/>
+    <mergeCell ref="A623:N623"/>
+    <mergeCell ref="A634:N637"/>
+    <mergeCell ref="A648:N648"/>
+    <mergeCell ref="A379:N379"/>
+    <mergeCell ref="A431:N434"/>
+    <mergeCell ref="A442:N442"/>
+    <mergeCell ref="A496:N499"/>
+    <mergeCell ref="A512:N512"/>
+    <mergeCell ref="A567:N570"/>
+    <mergeCell ref="A287:N287"/>
+    <mergeCell ref="A310:N313"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A318:N318"/>
+    <mergeCell ref="A363:N366"/>
+    <mergeCell ref="A193:N193"/>
+    <mergeCell ref="A206:N209"/>
+    <mergeCell ref="A217:N217"/>
+    <mergeCell ref="A240:N243"/>
+    <mergeCell ref="A256:N256"/>
+    <mergeCell ref="A276:N279"/>
+    <mergeCell ref="A128:N128"/>
+    <mergeCell ref="A141:N144"/>
+    <mergeCell ref="A148:N148"/>
+    <mergeCell ref="A158:N161"/>
+    <mergeCell ref="A169:N169"/>
+    <mergeCell ref="A177:N180"/>
+    <mergeCell ref="A71:N71"/>
+    <mergeCell ref="A73:N76"/>
+    <mergeCell ref="A81:N81"/>
+    <mergeCell ref="A95:N98"/>
+    <mergeCell ref="A104:N104"/>
+    <mergeCell ref="A117:N120"/>
     <mergeCell ref="A11:N14"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="A30:N33"/>
@@ -30487,102 +30580,9 @@
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="B7:N7"/>
     <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A128:N128"/>
-    <mergeCell ref="A141:N144"/>
-    <mergeCell ref="A148:N148"/>
-    <mergeCell ref="A158:N161"/>
-    <mergeCell ref="A169:N169"/>
-    <mergeCell ref="A177:N180"/>
-    <mergeCell ref="A71:N71"/>
-    <mergeCell ref="A73:N76"/>
-    <mergeCell ref="A81:N81"/>
-    <mergeCell ref="A95:N98"/>
-    <mergeCell ref="A104:N104"/>
-    <mergeCell ref="A117:N120"/>
-    <mergeCell ref="A287:N287"/>
-    <mergeCell ref="A310:N313"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A318:N318"/>
-    <mergeCell ref="A363:N366"/>
-    <mergeCell ref="A193:N193"/>
-    <mergeCell ref="A206:N209"/>
-    <mergeCell ref="A217:N217"/>
-    <mergeCell ref="A240:N243"/>
-    <mergeCell ref="A256:N256"/>
-    <mergeCell ref="A276:N279"/>
-    <mergeCell ref="A576:N576"/>
-    <mergeCell ref="A610:N610"/>
-    <mergeCell ref="A612:N615"/>
-    <mergeCell ref="A623:N623"/>
-    <mergeCell ref="A634:N637"/>
-    <mergeCell ref="A648:N648"/>
-    <mergeCell ref="A379:N379"/>
-    <mergeCell ref="A431:N434"/>
-    <mergeCell ref="A442:N442"/>
-    <mergeCell ref="A496:N499"/>
-    <mergeCell ref="A512:N512"/>
-    <mergeCell ref="A567:N570"/>
-    <mergeCell ref="A745:N745"/>
-    <mergeCell ref="A747:N750"/>
-    <mergeCell ref="A763:N763"/>
-    <mergeCell ref="A776:N779"/>
-    <mergeCell ref="A792:N792"/>
-    <mergeCell ref="A804:N807"/>
-    <mergeCell ref="A660:N663"/>
-    <mergeCell ref="A676:N676"/>
-    <mergeCell ref="A689:N692"/>
-    <mergeCell ref="A705:N705"/>
-    <mergeCell ref="A717:N720"/>
-    <mergeCell ref="A733:N733"/>
-    <mergeCell ref="A896:N899"/>
-    <mergeCell ref="A905:N905"/>
-    <mergeCell ref="A913:N916"/>
-    <mergeCell ref="A918:B918"/>
-    <mergeCell ref="A920:B920"/>
-    <mergeCell ref="A923:N923"/>
-    <mergeCell ref="A821:N821"/>
-    <mergeCell ref="A833:N836"/>
-    <mergeCell ref="A851:N851"/>
-    <mergeCell ref="A863:N866"/>
-    <mergeCell ref="A882:N882"/>
-    <mergeCell ref="A894:N894"/>
-    <mergeCell ref="A954:N957"/>
-    <mergeCell ref="A964:N967"/>
-    <mergeCell ref="A975:N978"/>
-    <mergeCell ref="A985:N988"/>
-    <mergeCell ref="A998:N1001"/>
-    <mergeCell ref="A1008:C1008"/>
-    <mergeCell ref="A930:N933"/>
-    <mergeCell ref="A935:B935"/>
-    <mergeCell ref="A938:B938"/>
-    <mergeCell ref="A942:N942"/>
-    <mergeCell ref="A950:N950"/>
-    <mergeCell ref="A952:C952"/>
-    <mergeCell ref="A1055:N1055"/>
-    <mergeCell ref="A1057:C1057"/>
-    <mergeCell ref="A1059:N1062"/>
-    <mergeCell ref="A1065:N1068"/>
-    <mergeCell ref="A1071:N1074"/>
-    <mergeCell ref="A1077:C1077"/>
-    <mergeCell ref="A1010:N1013"/>
-    <mergeCell ref="A1020:N1023"/>
-    <mergeCell ref="A1029:N1032"/>
-    <mergeCell ref="B1033:C1034"/>
-    <mergeCell ref="A1040:N1043"/>
-    <mergeCell ref="A1046:N1049"/>
-    <mergeCell ref="A1131:C1131"/>
-    <mergeCell ref="A1133:N1136"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="H1139:N1139"/>
-    <mergeCell ref="A1079:N1082"/>
-    <mergeCell ref="A1088:N1091"/>
-    <mergeCell ref="A1098:N1098"/>
-    <mergeCell ref="A1100:C1100"/>
-    <mergeCell ref="A1102:N1105"/>
-    <mergeCell ref="A1113:N1116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>